--- a/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView activeTab="2"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" r:id="rId3" sheetId="1"/>
@@ -11,15 +11,17 @@
     <sheet name="Rooms" r:id="rId5" sheetId="3"/>
     <sheet name="Speakers" r:id="rId6" sheetId="4"/>
     <sheet name="Talks" r:id="rId7" sheetId="5"/>
-    <sheet name="Theme view" r:id="rId8" sheetId="6"/>
-    <sheet name="Sector view" r:id="rId9" sheetId="7"/>
-    <sheet name="Speaker view" r:id="rId10" sheetId="8"/>
+    <sheet name="Room view" r:id="rId8" sheetId="6"/>
+    <sheet name="Speaker view" r:id="rId9" sheetId="7"/>
+    <sheet name="Theme view" r:id="rId10" sheetId="8"/>
+    <sheet name="Sector view" r:id="rId11" sheetId="9"/>
+    <sheet name="Content view" r:id="rId12" sheetId="10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6028" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6296" uniqueCount="474">
   <si>
     <t>Conference name</t>
   </si>
@@ -1428,13 +1430,19 @@
     <t>Building deep learning Angular</t>
   </si>
   <si>
+    <t>Speaker</t>
+  </si>
+  <si>
     <t>Theme tag</t>
   </si>
   <si>
     <t>Sector tag</t>
   </si>
   <si>
-    <t>Speaker</t>
+    <t>Content tag</t>
+  </si>
+  <si>
+    <t>(1) S028</t>
   </si>
 </sst>
 </file>
@@ -1672,6 +1680,192 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="11.78515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="11.86328125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+    </row>
+  </sheetData>
+  <sheetProtection password="D4D4" sheet="true" scenarios="true" objects="true"/>
+  <mergeCells>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:S1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
@@ -16454,7 +16648,5167 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="6.44921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="11.86328125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection password="D4D4" sheet="true" scenarios="true" objects="true"/>
+  <mergeCells>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:S1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="11.75390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="11.86328125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" t="s">
+        <v>32</v>
+      </c>
+      <c r="S14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" t="s">
+        <v>32</v>
+      </c>
+      <c r="S15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" t="s">
+        <v>32</v>
+      </c>
+      <c r="S17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>32</v>
+      </c>
+      <c r="R18" t="s">
+        <v>32</v>
+      </c>
+      <c r="S18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" t="s">
+        <v>32</v>
+      </c>
+      <c r="S19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>32</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" t="s">
+        <v>32</v>
+      </c>
+      <c r="S21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R23" t="s">
+        <v>32</v>
+      </c>
+      <c r="S23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" t="s">
+        <v>32</v>
+      </c>
+      <c r="P24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>32</v>
+      </c>
+      <c r="R24" t="s">
+        <v>32</v>
+      </c>
+      <c r="S24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>32</v>
+      </c>
+      <c r="R25" t="s">
+        <v>32</v>
+      </c>
+      <c r="S25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>32</v>
+      </c>
+      <c r="R26" t="s">
+        <v>32</v>
+      </c>
+      <c r="S26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" t="s">
+        <v>32</v>
+      </c>
+      <c r="O27" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>32</v>
+      </c>
+      <c r="R27" t="s">
+        <v>32</v>
+      </c>
+      <c r="S27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28" t="s">
+        <v>32</v>
+      </c>
+      <c r="O28" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>32</v>
+      </c>
+      <c r="R28" t="s">
+        <v>32</v>
+      </c>
+      <c r="S28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M29" t="s">
+        <v>32</v>
+      </c>
+      <c r="N29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" t="s">
+        <v>32</v>
+      </c>
+      <c r="M30" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" t="s">
+        <v>32</v>
+      </c>
+      <c r="O30" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>32</v>
+      </c>
+      <c r="R30" t="s">
+        <v>32</v>
+      </c>
+      <c r="S30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N31" t="s">
+        <v>32</v>
+      </c>
+      <c r="O31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>32</v>
+      </c>
+      <c r="R31" t="s">
+        <v>32</v>
+      </c>
+      <c r="S31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" t="s">
+        <v>32</v>
+      </c>
+      <c r="M32" t="s">
+        <v>32</v>
+      </c>
+      <c r="N32" t="s">
+        <v>32</v>
+      </c>
+      <c r="O32" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>32</v>
+      </c>
+      <c r="R32" t="s">
+        <v>32</v>
+      </c>
+      <c r="S32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" t="s">
+        <v>32</v>
+      </c>
+      <c r="N33" t="s">
+        <v>32</v>
+      </c>
+      <c r="O33" t="s">
+        <v>32</v>
+      </c>
+      <c r="P33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>32</v>
+      </c>
+      <c r="R33" t="s">
+        <v>32</v>
+      </c>
+      <c r="S33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N34" t="s">
+        <v>32</v>
+      </c>
+      <c r="O34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>32</v>
+      </c>
+      <c r="R34" t="s">
+        <v>32</v>
+      </c>
+      <c r="S34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" t="s">
+        <v>32</v>
+      </c>
+      <c r="N35" t="s">
+        <v>32</v>
+      </c>
+      <c r="O35" t="s">
+        <v>32</v>
+      </c>
+      <c r="P35" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>32</v>
+      </c>
+      <c r="R35" t="s">
+        <v>32</v>
+      </c>
+      <c r="S35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" t="s">
+        <v>32</v>
+      </c>
+      <c r="N36" t="s">
+        <v>32</v>
+      </c>
+      <c r="O36" t="s">
+        <v>32</v>
+      </c>
+      <c r="P36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>32</v>
+      </c>
+      <c r="R36" t="s">
+        <v>32</v>
+      </c>
+      <c r="S36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" t="s">
+        <v>32</v>
+      </c>
+      <c r="M37" t="s">
+        <v>32</v>
+      </c>
+      <c r="N37" t="s">
+        <v>32</v>
+      </c>
+      <c r="O37" t="s">
+        <v>32</v>
+      </c>
+      <c r="P37" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>32</v>
+      </c>
+      <c r="R37" t="s">
+        <v>32</v>
+      </c>
+      <c r="S37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" t="s">
+        <v>32</v>
+      </c>
+      <c r="L38" t="s">
+        <v>32</v>
+      </c>
+      <c r="M38" t="s">
+        <v>32</v>
+      </c>
+      <c r="N38" t="s">
+        <v>32</v>
+      </c>
+      <c r="O38" t="s">
+        <v>32</v>
+      </c>
+      <c r="P38" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>32</v>
+      </c>
+      <c r="R38" t="s">
+        <v>32</v>
+      </c>
+      <c r="S38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39" t="s">
+        <v>32</v>
+      </c>
+      <c r="L39" t="s">
+        <v>32</v>
+      </c>
+      <c r="M39" t="s">
+        <v>32</v>
+      </c>
+      <c r="N39" t="s">
+        <v>32</v>
+      </c>
+      <c r="O39" t="s">
+        <v>32</v>
+      </c>
+      <c r="P39" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>32</v>
+      </c>
+      <c r="R39" t="s">
+        <v>32</v>
+      </c>
+      <c r="S39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M40" t="s">
+        <v>32</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>32</v>
+      </c>
+      <c r="R40" t="s">
+        <v>32</v>
+      </c>
+      <c r="S40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" t="s">
+        <v>32</v>
+      </c>
+      <c r="M41" t="s">
+        <v>32</v>
+      </c>
+      <c r="N41" t="s">
+        <v>32</v>
+      </c>
+      <c r="O41" t="s">
+        <v>32</v>
+      </c>
+      <c r="P41" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>32</v>
+      </c>
+      <c r="R41" t="s">
+        <v>32</v>
+      </c>
+      <c r="S41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L42" t="s">
+        <v>32</v>
+      </c>
+      <c r="M42" t="s">
+        <v>32</v>
+      </c>
+      <c r="N42" t="s">
+        <v>32</v>
+      </c>
+      <c r="O42" t="s">
+        <v>32</v>
+      </c>
+      <c r="P42" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>32</v>
+      </c>
+      <c r="R42" t="s">
+        <v>32</v>
+      </c>
+      <c r="S42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M43" t="s">
+        <v>32</v>
+      </c>
+      <c r="N43" t="s">
+        <v>32</v>
+      </c>
+      <c r="O43" t="s">
+        <v>32</v>
+      </c>
+      <c r="P43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>32</v>
+      </c>
+      <c r="R43" t="s">
+        <v>32</v>
+      </c>
+      <c r="S43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" t="s">
+        <v>32</v>
+      </c>
+      <c r="M44" t="s">
+        <v>32</v>
+      </c>
+      <c r="N44" t="s">
+        <v>32</v>
+      </c>
+      <c r="O44" t="s">
+        <v>32</v>
+      </c>
+      <c r="P44" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>32</v>
+      </c>
+      <c r="R44" t="s">
+        <v>32</v>
+      </c>
+      <c r="S44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" t="s">
+        <v>32</v>
+      </c>
+      <c r="I45" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" t="s">
+        <v>32</v>
+      </c>
+      <c r="K45" t="s">
+        <v>32</v>
+      </c>
+      <c r="L45" t="s">
+        <v>32</v>
+      </c>
+      <c r="M45" t="s">
+        <v>32</v>
+      </c>
+      <c r="N45" t="s">
+        <v>32</v>
+      </c>
+      <c r="O45" t="s">
+        <v>32</v>
+      </c>
+      <c r="P45" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>32</v>
+      </c>
+      <c r="R45" t="s">
+        <v>32</v>
+      </c>
+      <c r="S45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" t="s">
+        <v>32</v>
+      </c>
+      <c r="K46" t="s">
+        <v>32</v>
+      </c>
+      <c r="L46" t="s">
+        <v>32</v>
+      </c>
+      <c r="M46" t="s">
+        <v>32</v>
+      </c>
+      <c r="N46" t="s">
+        <v>32</v>
+      </c>
+      <c r="O46" t="s">
+        <v>32</v>
+      </c>
+      <c r="P46" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>32</v>
+      </c>
+      <c r="R46" t="s">
+        <v>32</v>
+      </c>
+      <c r="S46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" t="s">
+        <v>32</v>
+      </c>
+      <c r="J47" t="s">
+        <v>32</v>
+      </c>
+      <c r="K47" t="s">
+        <v>32</v>
+      </c>
+      <c r="L47" t="s">
+        <v>32</v>
+      </c>
+      <c r="M47" t="s">
+        <v>32</v>
+      </c>
+      <c r="N47" t="s">
+        <v>32</v>
+      </c>
+      <c r="O47" t="s">
+        <v>32</v>
+      </c>
+      <c r="P47" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>32</v>
+      </c>
+      <c r="R47" t="s">
+        <v>32</v>
+      </c>
+      <c r="S47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" t="s">
+        <v>32</v>
+      </c>
+      <c r="L48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M48" t="s">
+        <v>32</v>
+      </c>
+      <c r="N48" t="s">
+        <v>32</v>
+      </c>
+      <c r="O48" t="s">
+        <v>32</v>
+      </c>
+      <c r="P48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>32</v>
+      </c>
+      <c r="R48" t="s">
+        <v>32</v>
+      </c>
+      <c r="S48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" t="s">
+        <v>32</v>
+      </c>
+      <c r="L49" t="s">
+        <v>32</v>
+      </c>
+      <c r="M49" t="s">
+        <v>32</v>
+      </c>
+      <c r="N49" t="s">
+        <v>32</v>
+      </c>
+      <c r="O49" t="s">
+        <v>32</v>
+      </c>
+      <c r="P49" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>32</v>
+      </c>
+      <c r="R49" t="s">
+        <v>32</v>
+      </c>
+      <c r="S49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" t="s">
+        <v>32</v>
+      </c>
+      <c r="L50" t="s">
+        <v>32</v>
+      </c>
+      <c r="M50" t="s">
+        <v>32</v>
+      </c>
+      <c r="N50" t="s">
+        <v>32</v>
+      </c>
+      <c r="O50" t="s">
+        <v>32</v>
+      </c>
+      <c r="P50" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>32</v>
+      </c>
+      <c r="R50" t="s">
+        <v>32</v>
+      </c>
+      <c r="S50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" t="s">
+        <v>32</v>
+      </c>
+      <c r="J51" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" t="s">
+        <v>32</v>
+      </c>
+      <c r="L51" t="s">
+        <v>32</v>
+      </c>
+      <c r="M51" t="s">
+        <v>32</v>
+      </c>
+      <c r="N51" t="s">
+        <v>32</v>
+      </c>
+      <c r="O51" t="s">
+        <v>32</v>
+      </c>
+      <c r="P51" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>32</v>
+      </c>
+      <c r="R51" t="s">
+        <v>32</v>
+      </c>
+      <c r="S51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" t="s">
+        <v>32</v>
+      </c>
+      <c r="J52" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" t="s">
+        <v>32</v>
+      </c>
+      <c r="L52" t="s">
+        <v>32</v>
+      </c>
+      <c r="M52" t="s">
+        <v>32</v>
+      </c>
+      <c r="N52" t="s">
+        <v>32</v>
+      </c>
+      <c r="O52" t="s">
+        <v>32</v>
+      </c>
+      <c r="P52" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>32</v>
+      </c>
+      <c r="R52" t="s">
+        <v>32</v>
+      </c>
+      <c r="S52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53" t="s">
+        <v>32</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M53" t="s">
+        <v>32</v>
+      </c>
+      <c r="N53" t="s">
+        <v>32</v>
+      </c>
+      <c r="O53" t="s">
+        <v>32</v>
+      </c>
+      <c r="P53" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>32</v>
+      </c>
+      <c r="R53" t="s">
+        <v>32</v>
+      </c>
+      <c r="S53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" t="s">
+        <v>32</v>
+      </c>
+      <c r="H54" t="s">
+        <v>32</v>
+      </c>
+      <c r="I54" t="s">
+        <v>32</v>
+      </c>
+      <c r="J54" t="s">
+        <v>32</v>
+      </c>
+      <c r="K54" t="s">
+        <v>32</v>
+      </c>
+      <c r="L54" t="s">
+        <v>32</v>
+      </c>
+      <c r="M54" t="s">
+        <v>32</v>
+      </c>
+      <c r="N54" t="s">
+        <v>32</v>
+      </c>
+      <c r="O54" t="s">
+        <v>32</v>
+      </c>
+      <c r="P54" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>32</v>
+      </c>
+      <c r="R54" t="s">
+        <v>32</v>
+      </c>
+      <c r="S54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" t="s">
+        <v>32</v>
+      </c>
+      <c r="J55" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" t="s">
+        <v>32</v>
+      </c>
+      <c r="L55" t="s">
+        <v>32</v>
+      </c>
+      <c r="M55" t="s">
+        <v>32</v>
+      </c>
+      <c r="N55" t="s">
+        <v>32</v>
+      </c>
+      <c r="O55" t="s">
+        <v>32</v>
+      </c>
+      <c r="P55" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>32</v>
+      </c>
+      <c r="R55" t="s">
+        <v>32</v>
+      </c>
+      <c r="S55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" t="s">
+        <v>32</v>
+      </c>
+      <c r="I56" t="s">
+        <v>32</v>
+      </c>
+      <c r="J56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K56" t="s">
+        <v>32</v>
+      </c>
+      <c r="L56" t="s">
+        <v>32</v>
+      </c>
+      <c r="M56" t="s">
+        <v>32</v>
+      </c>
+      <c r="N56" t="s">
+        <v>32</v>
+      </c>
+      <c r="O56" t="s">
+        <v>32</v>
+      </c>
+      <c r="P56" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>32</v>
+      </c>
+      <c r="R56" t="s">
+        <v>32</v>
+      </c>
+      <c r="S56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" t="s">
+        <v>32</v>
+      </c>
+      <c r="F57" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" t="s">
+        <v>32</v>
+      </c>
+      <c r="H57" t="s">
+        <v>32</v>
+      </c>
+      <c r="I57" t="s">
+        <v>32</v>
+      </c>
+      <c r="J57" t="s">
+        <v>32</v>
+      </c>
+      <c r="K57" t="s">
+        <v>32</v>
+      </c>
+      <c r="L57" t="s">
+        <v>32</v>
+      </c>
+      <c r="M57" t="s">
+        <v>32</v>
+      </c>
+      <c r="N57" t="s">
+        <v>32</v>
+      </c>
+      <c r="O57" t="s">
+        <v>32</v>
+      </c>
+      <c r="P57" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>32</v>
+      </c>
+      <c r="R57" t="s">
+        <v>32</v>
+      </c>
+      <c r="S57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" t="s">
+        <v>32</v>
+      </c>
+      <c r="F58" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58" t="s">
+        <v>32</v>
+      </c>
+      <c r="J58" t="s">
+        <v>32</v>
+      </c>
+      <c r="K58" t="s">
+        <v>32</v>
+      </c>
+      <c r="L58" t="s">
+        <v>32</v>
+      </c>
+      <c r="M58" t="s">
+        <v>32</v>
+      </c>
+      <c r="N58" t="s">
+        <v>32</v>
+      </c>
+      <c r="O58" t="s">
+        <v>32</v>
+      </c>
+      <c r="P58" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>32</v>
+      </c>
+      <c r="R58" t="s">
+        <v>32</v>
+      </c>
+      <c r="S58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" t="s">
+        <v>32</v>
+      </c>
+      <c r="J59" t="s">
+        <v>32</v>
+      </c>
+      <c r="K59" t="s">
+        <v>32</v>
+      </c>
+      <c r="L59" t="s">
+        <v>32</v>
+      </c>
+      <c r="M59" t="s">
+        <v>32</v>
+      </c>
+      <c r="N59" t="s">
+        <v>32</v>
+      </c>
+      <c r="O59" t="s">
+        <v>32</v>
+      </c>
+      <c r="P59" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>32</v>
+      </c>
+      <c r="R59" t="s">
+        <v>32</v>
+      </c>
+      <c r="S59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" t="s">
+        <v>32</v>
+      </c>
+      <c r="I60" t="s">
+        <v>32</v>
+      </c>
+      <c r="J60" t="s">
+        <v>32</v>
+      </c>
+      <c r="K60" t="s">
+        <v>32</v>
+      </c>
+      <c r="L60" t="s">
+        <v>32</v>
+      </c>
+      <c r="M60" t="s">
+        <v>32</v>
+      </c>
+      <c r="N60" t="s">
+        <v>32</v>
+      </c>
+      <c r="O60" t="s">
+        <v>32</v>
+      </c>
+      <c r="P60" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>32</v>
+      </c>
+      <c r="R60" t="s">
+        <v>32</v>
+      </c>
+      <c r="S60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" t="s">
+        <v>32</v>
+      </c>
+      <c r="H61" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" t="s">
+        <v>32</v>
+      </c>
+      <c r="J61" t="s">
+        <v>32</v>
+      </c>
+      <c r="K61" t="s">
+        <v>32</v>
+      </c>
+      <c r="L61" t="s">
+        <v>32</v>
+      </c>
+      <c r="M61" t="s">
+        <v>32</v>
+      </c>
+      <c r="N61" t="s">
+        <v>32</v>
+      </c>
+      <c r="O61" t="s">
+        <v>32</v>
+      </c>
+      <c r="P61" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>32</v>
+      </c>
+      <c r="R61" t="s">
+        <v>32</v>
+      </c>
+      <c r="S61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" t="s">
+        <v>32</v>
+      </c>
+      <c r="F62" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62" t="s">
+        <v>32</v>
+      </c>
+      <c r="J62" t="s">
+        <v>32</v>
+      </c>
+      <c r="K62" t="s">
+        <v>32</v>
+      </c>
+      <c r="L62" t="s">
+        <v>32</v>
+      </c>
+      <c r="M62" t="s">
+        <v>32</v>
+      </c>
+      <c r="N62" t="s">
+        <v>32</v>
+      </c>
+      <c r="O62" t="s">
+        <v>32</v>
+      </c>
+      <c r="P62" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>32</v>
+      </c>
+      <c r="R62" t="s">
+        <v>32</v>
+      </c>
+      <c r="S62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" t="s">
+        <v>32</v>
+      </c>
+      <c r="I63" t="s">
+        <v>32</v>
+      </c>
+      <c r="J63" t="s">
+        <v>32</v>
+      </c>
+      <c r="K63" t="s">
+        <v>32</v>
+      </c>
+      <c r="L63" t="s">
+        <v>32</v>
+      </c>
+      <c r="M63" t="s">
+        <v>32</v>
+      </c>
+      <c r="N63" t="s">
+        <v>32</v>
+      </c>
+      <c r="O63" t="s">
+        <v>32</v>
+      </c>
+      <c r="P63" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>32</v>
+      </c>
+      <c r="R63" t="s">
+        <v>32</v>
+      </c>
+      <c r="S63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64" t="s">
+        <v>32</v>
+      </c>
+      <c r="I64" t="s">
+        <v>32</v>
+      </c>
+      <c r="J64" t="s">
+        <v>32</v>
+      </c>
+      <c r="K64" t="s">
+        <v>32</v>
+      </c>
+      <c r="L64" t="s">
+        <v>32</v>
+      </c>
+      <c r="M64" t="s">
+        <v>32</v>
+      </c>
+      <c r="N64" t="s">
+        <v>32</v>
+      </c>
+      <c r="O64" t="s">
+        <v>32</v>
+      </c>
+      <c r="P64" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>32</v>
+      </c>
+      <c r="R64" t="s">
+        <v>32</v>
+      </c>
+      <c r="S64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" t="s">
+        <v>32</v>
+      </c>
+      <c r="E65" t="s">
+        <v>32</v>
+      </c>
+      <c r="F65" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" t="s">
+        <v>32</v>
+      </c>
+      <c r="I65" t="s">
+        <v>32</v>
+      </c>
+      <c r="J65" t="s">
+        <v>32</v>
+      </c>
+      <c r="K65" t="s">
+        <v>32</v>
+      </c>
+      <c r="L65" t="s">
+        <v>32</v>
+      </c>
+      <c r="M65" t="s">
+        <v>32</v>
+      </c>
+      <c r="N65" t="s">
+        <v>32</v>
+      </c>
+      <c r="O65" t="s">
+        <v>32</v>
+      </c>
+      <c r="P65" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>32</v>
+      </c>
+      <c r="R65" t="s">
+        <v>32</v>
+      </c>
+      <c r="S65" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" t="s">
+        <v>32</v>
+      </c>
+      <c r="H66" t="s">
+        <v>32</v>
+      </c>
+      <c r="I66" t="s">
+        <v>32</v>
+      </c>
+      <c r="J66" t="s">
+        <v>32</v>
+      </c>
+      <c r="K66" t="s">
+        <v>32</v>
+      </c>
+      <c r="L66" t="s">
+        <v>32</v>
+      </c>
+      <c r="M66" t="s">
+        <v>32</v>
+      </c>
+      <c r="N66" t="s">
+        <v>32</v>
+      </c>
+      <c r="O66" t="s">
+        <v>32</v>
+      </c>
+      <c r="P66" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>32</v>
+      </c>
+      <c r="R66" t="s">
+        <v>32</v>
+      </c>
+      <c r="S66" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" t="s">
+        <v>32</v>
+      </c>
+      <c r="I67" t="s">
+        <v>32</v>
+      </c>
+      <c r="J67" t="s">
+        <v>32</v>
+      </c>
+      <c r="K67" t="s">
+        <v>32</v>
+      </c>
+      <c r="L67" t="s">
+        <v>32</v>
+      </c>
+      <c r="M67" t="s">
+        <v>32</v>
+      </c>
+      <c r="N67" t="s">
+        <v>32</v>
+      </c>
+      <c r="O67" t="s">
+        <v>32</v>
+      </c>
+      <c r="P67" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>32</v>
+      </c>
+      <c r="R67" t="s">
+        <v>32</v>
+      </c>
+      <c r="S67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68" t="s">
+        <v>32</v>
+      </c>
+      <c r="G68" t="s">
+        <v>32</v>
+      </c>
+      <c r="H68" t="s">
+        <v>32</v>
+      </c>
+      <c r="I68" t="s">
+        <v>32</v>
+      </c>
+      <c r="J68" t="s">
+        <v>32</v>
+      </c>
+      <c r="K68" t="s">
+        <v>32</v>
+      </c>
+      <c r="L68" t="s">
+        <v>32</v>
+      </c>
+      <c r="M68" t="s">
+        <v>32</v>
+      </c>
+      <c r="N68" t="s">
+        <v>32</v>
+      </c>
+      <c r="O68" t="s">
+        <v>32</v>
+      </c>
+      <c r="P68" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>32</v>
+      </c>
+      <c r="R68" t="s">
+        <v>32</v>
+      </c>
+      <c r="S68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" t="s">
+        <v>32</v>
+      </c>
+      <c r="E69" t="s">
+        <v>32</v>
+      </c>
+      <c r="F69" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" t="s">
+        <v>32</v>
+      </c>
+      <c r="H69" t="s">
+        <v>32</v>
+      </c>
+      <c r="I69" t="s">
+        <v>32</v>
+      </c>
+      <c r="J69" t="s">
+        <v>32</v>
+      </c>
+      <c r="K69" t="s">
+        <v>32</v>
+      </c>
+      <c r="L69" t="s">
+        <v>32</v>
+      </c>
+      <c r="M69" t="s">
+        <v>32</v>
+      </c>
+      <c r="N69" t="s">
+        <v>32</v>
+      </c>
+      <c r="O69" t="s">
+        <v>32</v>
+      </c>
+      <c r="P69" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>32</v>
+      </c>
+      <c r="R69" t="s">
+        <v>32</v>
+      </c>
+      <c r="S69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70" t="s">
+        <v>32</v>
+      </c>
+      <c r="F70" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" t="s">
+        <v>32</v>
+      </c>
+      <c r="H70" t="s">
+        <v>32</v>
+      </c>
+      <c r="I70" t="s">
+        <v>32</v>
+      </c>
+      <c r="J70" t="s">
+        <v>32</v>
+      </c>
+      <c r="K70" t="s">
+        <v>32</v>
+      </c>
+      <c r="L70" t="s">
+        <v>32</v>
+      </c>
+      <c r="M70" t="s">
+        <v>32</v>
+      </c>
+      <c r="N70" t="s">
+        <v>32</v>
+      </c>
+      <c r="O70" t="s">
+        <v>32</v>
+      </c>
+      <c r="P70" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>32</v>
+      </c>
+      <c r="R70" t="s">
+        <v>32</v>
+      </c>
+      <c r="S70" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" t="s">
+        <v>32</v>
+      </c>
+      <c r="D71" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71" t="s">
+        <v>32</v>
+      </c>
+      <c r="F71" t="s">
+        <v>32</v>
+      </c>
+      <c r="G71" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71" t="s">
+        <v>32</v>
+      </c>
+      <c r="I71" t="s">
+        <v>32</v>
+      </c>
+      <c r="J71" t="s">
+        <v>32</v>
+      </c>
+      <c r="K71" t="s">
+        <v>32</v>
+      </c>
+      <c r="L71" t="s">
+        <v>32</v>
+      </c>
+      <c r="M71" t="s">
+        <v>32</v>
+      </c>
+      <c r="N71" t="s">
+        <v>32</v>
+      </c>
+      <c r="O71" t="s">
+        <v>32</v>
+      </c>
+      <c r="P71" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>32</v>
+      </c>
+      <c r="R71" t="s">
+        <v>32</v>
+      </c>
+      <c r="S71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" t="s">
+        <v>32</v>
+      </c>
+      <c r="E72" t="s">
+        <v>32</v>
+      </c>
+      <c r="F72" t="s">
+        <v>32</v>
+      </c>
+      <c r="G72" t="s">
+        <v>32</v>
+      </c>
+      <c r="H72" t="s">
+        <v>32</v>
+      </c>
+      <c r="I72" t="s">
+        <v>32</v>
+      </c>
+      <c r="J72" t="s">
+        <v>32</v>
+      </c>
+      <c r="K72" t="s">
+        <v>32</v>
+      </c>
+      <c r="L72" t="s">
+        <v>32</v>
+      </c>
+      <c r="M72" t="s">
+        <v>32</v>
+      </c>
+      <c r="N72" t="s">
+        <v>32</v>
+      </c>
+      <c r="O72" t="s">
+        <v>32</v>
+      </c>
+      <c r="P72" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>32</v>
+      </c>
+      <c r="R72" t="s">
+        <v>32</v>
+      </c>
+      <c r="S72" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" t="s">
+        <v>32</v>
+      </c>
+      <c r="D73" t="s">
+        <v>32</v>
+      </c>
+      <c r="E73" t="s">
+        <v>32</v>
+      </c>
+      <c r="F73" t="s">
+        <v>32</v>
+      </c>
+      <c r="G73" t="s">
+        <v>32</v>
+      </c>
+      <c r="H73" t="s">
+        <v>32</v>
+      </c>
+      <c r="I73" t="s">
+        <v>32</v>
+      </c>
+      <c r="J73" t="s">
+        <v>32</v>
+      </c>
+      <c r="K73" t="s">
+        <v>32</v>
+      </c>
+      <c r="L73" t="s">
+        <v>32</v>
+      </c>
+      <c r="M73" t="s">
+        <v>32</v>
+      </c>
+      <c r="N73" t="s">
+        <v>32</v>
+      </c>
+      <c r="O73" t="s">
+        <v>32</v>
+      </c>
+      <c r="P73" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>32</v>
+      </c>
+      <c r="R73" t="s">
+        <v>32</v>
+      </c>
+      <c r="S73" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" t="s">
+        <v>32</v>
+      </c>
+      <c r="D74" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" t="s">
+        <v>32</v>
+      </c>
+      <c r="F74" t="s">
+        <v>32</v>
+      </c>
+      <c r="G74" t="s">
+        <v>32</v>
+      </c>
+      <c r="H74" t="s">
+        <v>32</v>
+      </c>
+      <c r="I74" t="s">
+        <v>32</v>
+      </c>
+      <c r="J74" t="s">
+        <v>32</v>
+      </c>
+      <c r="K74" t="s">
+        <v>32</v>
+      </c>
+      <c r="L74" t="s">
+        <v>32</v>
+      </c>
+      <c r="M74" t="s">
+        <v>32</v>
+      </c>
+      <c r="N74" t="s">
+        <v>32</v>
+      </c>
+      <c r="O74" t="s">
+        <v>32</v>
+      </c>
+      <c r="P74" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>32</v>
+      </c>
+      <c r="R74" t="s">
+        <v>32</v>
+      </c>
+      <c r="S74" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection password="D4D4" sheet="true" scenarios="true" objects="true"/>
+  <mergeCells>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:S1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
@@ -16542,7 +21896,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>45</v>
@@ -16660,12 +22014,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
@@ -16753,7 +22107,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>45</v>
@@ -16808,4415 +22162,6 @@
       </c>
       <c r="S2" s="1" t="s">
         <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection password="D4D4" sheet="true" scenarios="true" objects="true"/>
-  <mergeCells>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:S1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="11.75390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="11.86328125" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>32</v>
-      </c>
-      <c r="R7" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>32</v>
-      </c>
-      <c r="R8" t="s">
-        <v>32</v>
-      </c>
-      <c r="S8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R9" t="s">
-        <v>32</v>
-      </c>
-      <c r="S9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O11" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>32</v>
-      </c>
-      <c r="R11" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>32</v>
-      </c>
-      <c r="R12" t="s">
-        <v>32</v>
-      </c>
-      <c r="S12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>32</v>
-      </c>
-      <c r="R13" t="s">
-        <v>32</v>
-      </c>
-      <c r="S13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>32</v>
-      </c>
-      <c r="R14" t="s">
-        <v>32</v>
-      </c>
-      <c r="S14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" t="s">
-        <v>32</v>
-      </c>
-      <c r="O15" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>32</v>
-      </c>
-      <c r="R15" t="s">
-        <v>32</v>
-      </c>
-      <c r="S15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>32</v>
-      </c>
-      <c r="R16" t="s">
-        <v>32</v>
-      </c>
-      <c r="S16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" t="s">
-        <v>32</v>
-      </c>
-      <c r="M17" t="s">
-        <v>32</v>
-      </c>
-      <c r="N17" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" t="s">
-        <v>32</v>
-      </c>
-      <c r="P17" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>32</v>
-      </c>
-      <c r="R17" t="s">
-        <v>32</v>
-      </c>
-      <c r="S17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" t="s">
-        <v>32</v>
-      </c>
-      <c r="N18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>32</v>
-      </c>
-      <c r="R18" t="s">
-        <v>32</v>
-      </c>
-      <c r="S18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19" t="s">
-        <v>32</v>
-      </c>
-      <c r="N19" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" t="s">
-        <v>32</v>
-      </c>
-      <c r="P19" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>32</v>
-      </c>
-      <c r="R19" t="s">
-        <v>32</v>
-      </c>
-      <c r="S19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20" t="s">
-        <v>32</v>
-      </c>
-      <c r="N20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O20" t="s">
-        <v>32</v>
-      </c>
-      <c r="P20" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>32</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M21" t="s">
-        <v>32</v>
-      </c>
-      <c r="N21" t="s">
-        <v>32</v>
-      </c>
-      <c r="O21" t="s">
-        <v>32</v>
-      </c>
-      <c r="P21" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>32</v>
-      </c>
-      <c r="R21" t="s">
-        <v>32</v>
-      </c>
-      <c r="S21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" t="s">
-        <v>32</v>
-      </c>
-      <c r="N22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O22" t="s">
-        <v>32</v>
-      </c>
-      <c r="P22" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>32</v>
-      </c>
-      <c r="R22" t="s">
-        <v>32</v>
-      </c>
-      <c r="S22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" t="s">
-        <v>32</v>
-      </c>
-      <c r="L23" t="s">
-        <v>32</v>
-      </c>
-      <c r="M23" t="s">
-        <v>32</v>
-      </c>
-      <c r="N23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O23" t="s">
-        <v>32</v>
-      </c>
-      <c r="P23" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>32</v>
-      </c>
-      <c r="R23" t="s">
-        <v>32</v>
-      </c>
-      <c r="S23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" t="s">
-        <v>32</v>
-      </c>
-      <c r="M24" t="s">
-        <v>32</v>
-      </c>
-      <c r="N24" t="s">
-        <v>32</v>
-      </c>
-      <c r="O24" t="s">
-        <v>32</v>
-      </c>
-      <c r="P24" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>32</v>
-      </c>
-      <c r="R24" t="s">
-        <v>32</v>
-      </c>
-      <c r="S24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" t="s">
-        <v>32</v>
-      </c>
-      <c r="L25" t="s">
-        <v>32</v>
-      </c>
-      <c r="M25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O25" t="s">
-        <v>32</v>
-      </c>
-      <c r="P25" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>32</v>
-      </c>
-      <c r="R25" t="s">
-        <v>32</v>
-      </c>
-      <c r="S25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" t="s">
-        <v>32</v>
-      </c>
-      <c r="L26" t="s">
-        <v>32</v>
-      </c>
-      <c r="M26" t="s">
-        <v>32</v>
-      </c>
-      <c r="N26" t="s">
-        <v>32</v>
-      </c>
-      <c r="O26" t="s">
-        <v>32</v>
-      </c>
-      <c r="P26" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>32</v>
-      </c>
-      <c r="R26" t="s">
-        <v>32</v>
-      </c>
-      <c r="S26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K27" t="s">
-        <v>32</v>
-      </c>
-      <c r="L27" t="s">
-        <v>32</v>
-      </c>
-      <c r="M27" t="s">
-        <v>32</v>
-      </c>
-      <c r="N27" t="s">
-        <v>32</v>
-      </c>
-      <c r="O27" t="s">
-        <v>32</v>
-      </c>
-      <c r="P27" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>32</v>
-      </c>
-      <c r="R27" t="s">
-        <v>32</v>
-      </c>
-      <c r="S27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28" t="s">
-        <v>32</v>
-      </c>
-      <c r="L28" t="s">
-        <v>32</v>
-      </c>
-      <c r="M28" t="s">
-        <v>32</v>
-      </c>
-      <c r="N28" t="s">
-        <v>32</v>
-      </c>
-      <c r="O28" t="s">
-        <v>32</v>
-      </c>
-      <c r="P28" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>32</v>
-      </c>
-      <c r="R28" t="s">
-        <v>32</v>
-      </c>
-      <c r="S28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" t="s">
-        <v>32</v>
-      </c>
-      <c r="L29" t="s">
-        <v>32</v>
-      </c>
-      <c r="M29" t="s">
-        <v>32</v>
-      </c>
-      <c r="N29" t="s">
-        <v>32</v>
-      </c>
-      <c r="O29" t="s">
-        <v>32</v>
-      </c>
-      <c r="P29" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>32</v>
-      </c>
-      <c r="R29" t="s">
-        <v>32</v>
-      </c>
-      <c r="S29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" t="s">
-        <v>32</v>
-      </c>
-      <c r="I30" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" t="s">
-        <v>32</v>
-      </c>
-      <c r="K30" t="s">
-        <v>32</v>
-      </c>
-      <c r="L30" t="s">
-        <v>32</v>
-      </c>
-      <c r="M30" t="s">
-        <v>32</v>
-      </c>
-      <c r="N30" t="s">
-        <v>32</v>
-      </c>
-      <c r="O30" t="s">
-        <v>32</v>
-      </c>
-      <c r="P30" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>32</v>
-      </c>
-      <c r="R30" t="s">
-        <v>32</v>
-      </c>
-      <c r="S30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I31" t="s">
-        <v>32</v>
-      </c>
-      <c r="J31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K31" t="s">
-        <v>32</v>
-      </c>
-      <c r="L31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M31" t="s">
-        <v>32</v>
-      </c>
-      <c r="N31" t="s">
-        <v>32</v>
-      </c>
-      <c r="O31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P31" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>32</v>
-      </c>
-      <c r="R31" t="s">
-        <v>32</v>
-      </c>
-      <c r="S31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32" t="s">
-        <v>32</v>
-      </c>
-      <c r="I32" t="s">
-        <v>32</v>
-      </c>
-      <c r="J32" t="s">
-        <v>32</v>
-      </c>
-      <c r="K32" t="s">
-        <v>32</v>
-      </c>
-      <c r="L32" t="s">
-        <v>32</v>
-      </c>
-      <c r="M32" t="s">
-        <v>32</v>
-      </c>
-      <c r="N32" t="s">
-        <v>32</v>
-      </c>
-      <c r="O32" t="s">
-        <v>32</v>
-      </c>
-      <c r="P32" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>32</v>
-      </c>
-      <c r="R32" t="s">
-        <v>32</v>
-      </c>
-      <c r="S32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" t="s">
-        <v>32</v>
-      </c>
-      <c r="I33" t="s">
-        <v>32</v>
-      </c>
-      <c r="J33" t="s">
-        <v>32</v>
-      </c>
-      <c r="K33" t="s">
-        <v>32</v>
-      </c>
-      <c r="L33" t="s">
-        <v>32</v>
-      </c>
-      <c r="M33" t="s">
-        <v>32</v>
-      </c>
-      <c r="N33" t="s">
-        <v>32</v>
-      </c>
-      <c r="O33" t="s">
-        <v>32</v>
-      </c>
-      <c r="P33" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>32</v>
-      </c>
-      <c r="R33" t="s">
-        <v>32</v>
-      </c>
-      <c r="S33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M34" t="s">
-        <v>32</v>
-      </c>
-      <c r="N34" t="s">
-        <v>32</v>
-      </c>
-      <c r="O34" t="s">
-        <v>32</v>
-      </c>
-      <c r="P34" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>32</v>
-      </c>
-      <c r="R34" t="s">
-        <v>32</v>
-      </c>
-      <c r="S34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>106</v>
-      </c>
-      <c r="B35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" t="s">
-        <v>32</v>
-      </c>
-      <c r="I35" t="s">
-        <v>32</v>
-      </c>
-      <c r="J35" t="s">
-        <v>32</v>
-      </c>
-      <c r="K35" t="s">
-        <v>32</v>
-      </c>
-      <c r="L35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M35" t="s">
-        <v>32</v>
-      </c>
-      <c r="N35" t="s">
-        <v>32</v>
-      </c>
-      <c r="O35" t="s">
-        <v>32</v>
-      </c>
-      <c r="P35" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>32</v>
-      </c>
-      <c r="R35" t="s">
-        <v>32</v>
-      </c>
-      <c r="S35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>107</v>
-      </c>
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" t="s">
-        <v>32</v>
-      </c>
-      <c r="I36" t="s">
-        <v>32</v>
-      </c>
-      <c r="J36" t="s">
-        <v>32</v>
-      </c>
-      <c r="K36" t="s">
-        <v>32</v>
-      </c>
-      <c r="L36" t="s">
-        <v>32</v>
-      </c>
-      <c r="M36" t="s">
-        <v>32</v>
-      </c>
-      <c r="N36" t="s">
-        <v>32</v>
-      </c>
-      <c r="O36" t="s">
-        <v>32</v>
-      </c>
-      <c r="P36" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>32</v>
-      </c>
-      <c r="R36" t="s">
-        <v>32</v>
-      </c>
-      <c r="S36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" t="s">
-        <v>32</v>
-      </c>
-      <c r="I37" t="s">
-        <v>32</v>
-      </c>
-      <c r="J37" t="s">
-        <v>32</v>
-      </c>
-      <c r="K37" t="s">
-        <v>32</v>
-      </c>
-      <c r="L37" t="s">
-        <v>32</v>
-      </c>
-      <c r="M37" t="s">
-        <v>32</v>
-      </c>
-      <c r="N37" t="s">
-        <v>32</v>
-      </c>
-      <c r="O37" t="s">
-        <v>32</v>
-      </c>
-      <c r="P37" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>32</v>
-      </c>
-      <c r="R37" t="s">
-        <v>32</v>
-      </c>
-      <c r="S37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>109</v>
-      </c>
-      <c r="B38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" t="s">
-        <v>32</v>
-      </c>
-      <c r="I38" t="s">
-        <v>32</v>
-      </c>
-      <c r="J38" t="s">
-        <v>32</v>
-      </c>
-      <c r="K38" t="s">
-        <v>32</v>
-      </c>
-      <c r="L38" t="s">
-        <v>32</v>
-      </c>
-      <c r="M38" t="s">
-        <v>32</v>
-      </c>
-      <c r="N38" t="s">
-        <v>32</v>
-      </c>
-      <c r="O38" t="s">
-        <v>32</v>
-      </c>
-      <c r="P38" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>32</v>
-      </c>
-      <c r="R38" t="s">
-        <v>32</v>
-      </c>
-      <c r="S38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" t="s">
-        <v>32</v>
-      </c>
-      <c r="F39" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" t="s">
-        <v>32</v>
-      </c>
-      <c r="I39" t="s">
-        <v>32</v>
-      </c>
-      <c r="J39" t="s">
-        <v>32</v>
-      </c>
-      <c r="K39" t="s">
-        <v>32</v>
-      </c>
-      <c r="L39" t="s">
-        <v>32</v>
-      </c>
-      <c r="M39" t="s">
-        <v>32</v>
-      </c>
-      <c r="N39" t="s">
-        <v>32</v>
-      </c>
-      <c r="O39" t="s">
-        <v>32</v>
-      </c>
-      <c r="P39" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>32</v>
-      </c>
-      <c r="R39" t="s">
-        <v>32</v>
-      </c>
-      <c r="S39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K40" t="s">
-        <v>32</v>
-      </c>
-      <c r="L40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M40" t="s">
-        <v>32</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>32</v>
-      </c>
-      <c r="R40" t="s">
-        <v>32</v>
-      </c>
-      <c r="S40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" t="s">
-        <v>32</v>
-      </c>
-      <c r="F41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" t="s">
-        <v>32</v>
-      </c>
-      <c r="H41" t="s">
-        <v>32</v>
-      </c>
-      <c r="I41" t="s">
-        <v>32</v>
-      </c>
-      <c r="J41" t="s">
-        <v>32</v>
-      </c>
-      <c r="K41" t="s">
-        <v>32</v>
-      </c>
-      <c r="L41" t="s">
-        <v>32</v>
-      </c>
-      <c r="M41" t="s">
-        <v>32</v>
-      </c>
-      <c r="N41" t="s">
-        <v>32</v>
-      </c>
-      <c r="O41" t="s">
-        <v>32</v>
-      </c>
-      <c r="P41" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>32</v>
-      </c>
-      <c r="R41" t="s">
-        <v>32</v>
-      </c>
-      <c r="S41" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>113</v>
-      </c>
-      <c r="B42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" t="s">
-        <v>32</v>
-      </c>
-      <c r="I42" t="s">
-        <v>32</v>
-      </c>
-      <c r="J42" t="s">
-        <v>32</v>
-      </c>
-      <c r="K42" t="s">
-        <v>32</v>
-      </c>
-      <c r="L42" t="s">
-        <v>32</v>
-      </c>
-      <c r="M42" t="s">
-        <v>32</v>
-      </c>
-      <c r="N42" t="s">
-        <v>32</v>
-      </c>
-      <c r="O42" t="s">
-        <v>32</v>
-      </c>
-      <c r="P42" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>32</v>
-      </c>
-      <c r="R42" t="s">
-        <v>32</v>
-      </c>
-      <c r="S42" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>114</v>
-      </c>
-      <c r="B43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" t="s">
-        <v>32</v>
-      </c>
-      <c r="H43" t="s">
-        <v>32</v>
-      </c>
-      <c r="I43" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K43" t="s">
-        <v>32</v>
-      </c>
-      <c r="L43" t="s">
-        <v>32</v>
-      </c>
-      <c r="M43" t="s">
-        <v>32</v>
-      </c>
-      <c r="N43" t="s">
-        <v>32</v>
-      </c>
-      <c r="O43" t="s">
-        <v>32</v>
-      </c>
-      <c r="P43" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>32</v>
-      </c>
-      <c r="R43" t="s">
-        <v>32</v>
-      </c>
-      <c r="S43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>115</v>
-      </c>
-      <c r="B44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" t="s">
-        <v>32</v>
-      </c>
-      <c r="F44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I44" t="s">
-        <v>32</v>
-      </c>
-      <c r="J44" t="s">
-        <v>32</v>
-      </c>
-      <c r="K44" t="s">
-        <v>32</v>
-      </c>
-      <c r="L44" t="s">
-        <v>32</v>
-      </c>
-      <c r="M44" t="s">
-        <v>32</v>
-      </c>
-      <c r="N44" t="s">
-        <v>32</v>
-      </c>
-      <c r="O44" t="s">
-        <v>32</v>
-      </c>
-      <c r="P44" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>32</v>
-      </c>
-      <c r="R44" t="s">
-        <v>32</v>
-      </c>
-      <c r="S44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>116</v>
-      </c>
-      <c r="B45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" t="s">
-        <v>32</v>
-      </c>
-      <c r="G45" t="s">
-        <v>32</v>
-      </c>
-      <c r="H45" t="s">
-        <v>32</v>
-      </c>
-      <c r="I45" t="s">
-        <v>32</v>
-      </c>
-      <c r="J45" t="s">
-        <v>32</v>
-      </c>
-      <c r="K45" t="s">
-        <v>32</v>
-      </c>
-      <c r="L45" t="s">
-        <v>32</v>
-      </c>
-      <c r="M45" t="s">
-        <v>32</v>
-      </c>
-      <c r="N45" t="s">
-        <v>32</v>
-      </c>
-      <c r="O45" t="s">
-        <v>32</v>
-      </c>
-      <c r="P45" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>32</v>
-      </c>
-      <c r="R45" t="s">
-        <v>32</v>
-      </c>
-      <c r="S45" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>117</v>
-      </c>
-      <c r="B46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" t="s">
-        <v>32</v>
-      </c>
-      <c r="F46" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" t="s">
-        <v>32</v>
-      </c>
-      <c r="H46" t="s">
-        <v>32</v>
-      </c>
-      <c r="I46" t="s">
-        <v>32</v>
-      </c>
-      <c r="J46" t="s">
-        <v>32</v>
-      </c>
-      <c r="K46" t="s">
-        <v>32</v>
-      </c>
-      <c r="L46" t="s">
-        <v>32</v>
-      </c>
-      <c r="M46" t="s">
-        <v>32</v>
-      </c>
-      <c r="N46" t="s">
-        <v>32</v>
-      </c>
-      <c r="O46" t="s">
-        <v>32</v>
-      </c>
-      <c r="P46" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>32</v>
-      </c>
-      <c r="R46" t="s">
-        <v>32</v>
-      </c>
-      <c r="S46" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>118</v>
-      </c>
-      <c r="B47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" t="s">
-        <v>32</v>
-      </c>
-      <c r="F47" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I47" t="s">
-        <v>32</v>
-      </c>
-      <c r="J47" t="s">
-        <v>32</v>
-      </c>
-      <c r="K47" t="s">
-        <v>32</v>
-      </c>
-      <c r="L47" t="s">
-        <v>32</v>
-      </c>
-      <c r="M47" t="s">
-        <v>32</v>
-      </c>
-      <c r="N47" t="s">
-        <v>32</v>
-      </c>
-      <c r="O47" t="s">
-        <v>32</v>
-      </c>
-      <c r="P47" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>32</v>
-      </c>
-      <c r="R47" t="s">
-        <v>32</v>
-      </c>
-      <c r="S47" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>119</v>
-      </c>
-      <c r="B48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" t="s">
-        <v>32</v>
-      </c>
-      <c r="F48" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" t="s">
-        <v>32</v>
-      </c>
-      <c r="H48" t="s">
-        <v>32</v>
-      </c>
-      <c r="I48" t="s">
-        <v>32</v>
-      </c>
-      <c r="J48" t="s">
-        <v>32</v>
-      </c>
-      <c r="K48" t="s">
-        <v>32</v>
-      </c>
-      <c r="L48" t="s">
-        <v>32</v>
-      </c>
-      <c r="M48" t="s">
-        <v>32</v>
-      </c>
-      <c r="N48" t="s">
-        <v>32</v>
-      </c>
-      <c r="O48" t="s">
-        <v>32</v>
-      </c>
-      <c r="P48" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>32</v>
-      </c>
-      <c r="R48" t="s">
-        <v>32</v>
-      </c>
-      <c r="S48" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>120</v>
-      </c>
-      <c r="B49" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" t="s">
-        <v>32</v>
-      </c>
-      <c r="F49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G49" t="s">
-        <v>32</v>
-      </c>
-      <c r="H49" t="s">
-        <v>32</v>
-      </c>
-      <c r="I49" t="s">
-        <v>32</v>
-      </c>
-      <c r="J49" t="s">
-        <v>32</v>
-      </c>
-      <c r="K49" t="s">
-        <v>32</v>
-      </c>
-      <c r="L49" t="s">
-        <v>32</v>
-      </c>
-      <c r="M49" t="s">
-        <v>32</v>
-      </c>
-      <c r="N49" t="s">
-        <v>32</v>
-      </c>
-      <c r="O49" t="s">
-        <v>32</v>
-      </c>
-      <c r="P49" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>32</v>
-      </c>
-      <c r="R49" t="s">
-        <v>32</v>
-      </c>
-      <c r="S49" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>121</v>
-      </c>
-      <c r="B50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50" t="s">
-        <v>32</v>
-      </c>
-      <c r="H50" t="s">
-        <v>32</v>
-      </c>
-      <c r="I50" t="s">
-        <v>32</v>
-      </c>
-      <c r="J50" t="s">
-        <v>32</v>
-      </c>
-      <c r="K50" t="s">
-        <v>32</v>
-      </c>
-      <c r="L50" t="s">
-        <v>32</v>
-      </c>
-      <c r="M50" t="s">
-        <v>32</v>
-      </c>
-      <c r="N50" t="s">
-        <v>32</v>
-      </c>
-      <c r="O50" t="s">
-        <v>32</v>
-      </c>
-      <c r="P50" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>32</v>
-      </c>
-      <c r="R50" t="s">
-        <v>32</v>
-      </c>
-      <c r="S50" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>122</v>
-      </c>
-      <c r="B51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" t="s">
-        <v>32</v>
-      </c>
-      <c r="F51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" t="s">
-        <v>32</v>
-      </c>
-      <c r="I51" t="s">
-        <v>32</v>
-      </c>
-      <c r="J51" t="s">
-        <v>32</v>
-      </c>
-      <c r="K51" t="s">
-        <v>32</v>
-      </c>
-      <c r="L51" t="s">
-        <v>32</v>
-      </c>
-      <c r="M51" t="s">
-        <v>32</v>
-      </c>
-      <c r="N51" t="s">
-        <v>32</v>
-      </c>
-      <c r="O51" t="s">
-        <v>32</v>
-      </c>
-      <c r="P51" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>32</v>
-      </c>
-      <c r="R51" t="s">
-        <v>32</v>
-      </c>
-      <c r="S51" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>123</v>
-      </c>
-      <c r="B52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C52" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" t="s">
-        <v>32</v>
-      </c>
-      <c r="H52" t="s">
-        <v>32</v>
-      </c>
-      <c r="I52" t="s">
-        <v>32</v>
-      </c>
-      <c r="J52" t="s">
-        <v>32</v>
-      </c>
-      <c r="K52" t="s">
-        <v>32</v>
-      </c>
-      <c r="L52" t="s">
-        <v>32</v>
-      </c>
-      <c r="M52" t="s">
-        <v>32</v>
-      </c>
-      <c r="N52" t="s">
-        <v>32</v>
-      </c>
-      <c r="O52" t="s">
-        <v>32</v>
-      </c>
-      <c r="P52" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>32</v>
-      </c>
-      <c r="R52" t="s">
-        <v>32</v>
-      </c>
-      <c r="S52" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>124</v>
-      </c>
-      <c r="B53" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" t="s">
-        <v>32</v>
-      </c>
-      <c r="F53" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" t="s">
-        <v>32</v>
-      </c>
-      <c r="H53" t="s">
-        <v>32</v>
-      </c>
-      <c r="I53" t="s">
-        <v>32</v>
-      </c>
-      <c r="J53" t="s">
-        <v>32</v>
-      </c>
-      <c r="K53" t="s">
-        <v>32</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M53" t="s">
-        <v>32</v>
-      </c>
-      <c r="N53" t="s">
-        <v>32</v>
-      </c>
-      <c r="O53" t="s">
-        <v>32</v>
-      </c>
-      <c r="P53" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>32</v>
-      </c>
-      <c r="R53" t="s">
-        <v>32</v>
-      </c>
-      <c r="S53" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>125</v>
-      </c>
-      <c r="B54" t="s">
-        <v>32</v>
-      </c>
-      <c r="C54" t="s">
-        <v>32</v>
-      </c>
-      <c r="D54" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54" t="s">
-        <v>32</v>
-      </c>
-      <c r="F54" t="s">
-        <v>32</v>
-      </c>
-      <c r="G54" t="s">
-        <v>32</v>
-      </c>
-      <c r="H54" t="s">
-        <v>32</v>
-      </c>
-      <c r="I54" t="s">
-        <v>32</v>
-      </c>
-      <c r="J54" t="s">
-        <v>32</v>
-      </c>
-      <c r="K54" t="s">
-        <v>32</v>
-      </c>
-      <c r="L54" t="s">
-        <v>32</v>
-      </c>
-      <c r="M54" t="s">
-        <v>32</v>
-      </c>
-      <c r="N54" t="s">
-        <v>32</v>
-      </c>
-      <c r="O54" t="s">
-        <v>32</v>
-      </c>
-      <c r="P54" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>32</v>
-      </c>
-      <c r="R54" t="s">
-        <v>32</v>
-      </c>
-      <c r="S54" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>126</v>
-      </c>
-      <c r="B55" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" t="s">
-        <v>32</v>
-      </c>
-      <c r="F55" t="s">
-        <v>32</v>
-      </c>
-      <c r="G55" t="s">
-        <v>32</v>
-      </c>
-      <c r="H55" t="s">
-        <v>32</v>
-      </c>
-      <c r="I55" t="s">
-        <v>32</v>
-      </c>
-      <c r="J55" t="s">
-        <v>32</v>
-      </c>
-      <c r="K55" t="s">
-        <v>32</v>
-      </c>
-      <c r="L55" t="s">
-        <v>32</v>
-      </c>
-      <c r="M55" t="s">
-        <v>32</v>
-      </c>
-      <c r="N55" t="s">
-        <v>32</v>
-      </c>
-      <c r="O55" t="s">
-        <v>32</v>
-      </c>
-      <c r="P55" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>32</v>
-      </c>
-      <c r="R55" t="s">
-        <v>32</v>
-      </c>
-      <c r="S55" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>127</v>
-      </c>
-      <c r="B56" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" t="s">
-        <v>32</v>
-      </c>
-      <c r="E56" t="s">
-        <v>32</v>
-      </c>
-      <c r="F56" t="s">
-        <v>32</v>
-      </c>
-      <c r="G56" t="s">
-        <v>32</v>
-      </c>
-      <c r="H56" t="s">
-        <v>32</v>
-      </c>
-      <c r="I56" t="s">
-        <v>32</v>
-      </c>
-      <c r="J56" t="s">
-        <v>32</v>
-      </c>
-      <c r="K56" t="s">
-        <v>32</v>
-      </c>
-      <c r="L56" t="s">
-        <v>32</v>
-      </c>
-      <c r="M56" t="s">
-        <v>32</v>
-      </c>
-      <c r="N56" t="s">
-        <v>32</v>
-      </c>
-      <c r="O56" t="s">
-        <v>32</v>
-      </c>
-      <c r="P56" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>32</v>
-      </c>
-      <c r="R56" t="s">
-        <v>32</v>
-      </c>
-      <c r="S56" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>128</v>
-      </c>
-      <c r="B57" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" t="s">
-        <v>32</v>
-      </c>
-      <c r="D57" t="s">
-        <v>32</v>
-      </c>
-      <c r="E57" t="s">
-        <v>32</v>
-      </c>
-      <c r="F57" t="s">
-        <v>32</v>
-      </c>
-      <c r="G57" t="s">
-        <v>32</v>
-      </c>
-      <c r="H57" t="s">
-        <v>32</v>
-      </c>
-      <c r="I57" t="s">
-        <v>32</v>
-      </c>
-      <c r="J57" t="s">
-        <v>32</v>
-      </c>
-      <c r="K57" t="s">
-        <v>32</v>
-      </c>
-      <c r="L57" t="s">
-        <v>32</v>
-      </c>
-      <c r="M57" t="s">
-        <v>32</v>
-      </c>
-      <c r="N57" t="s">
-        <v>32</v>
-      </c>
-      <c r="O57" t="s">
-        <v>32</v>
-      </c>
-      <c r="P57" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>32</v>
-      </c>
-      <c r="R57" t="s">
-        <v>32</v>
-      </c>
-      <c r="S57" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>129</v>
-      </c>
-      <c r="B58" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" t="s">
-        <v>32</v>
-      </c>
-      <c r="E58" t="s">
-        <v>32</v>
-      </c>
-      <c r="F58" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" t="s">
-        <v>32</v>
-      </c>
-      <c r="H58" t="s">
-        <v>32</v>
-      </c>
-      <c r="I58" t="s">
-        <v>32</v>
-      </c>
-      <c r="J58" t="s">
-        <v>32</v>
-      </c>
-      <c r="K58" t="s">
-        <v>32</v>
-      </c>
-      <c r="L58" t="s">
-        <v>32</v>
-      </c>
-      <c r="M58" t="s">
-        <v>32</v>
-      </c>
-      <c r="N58" t="s">
-        <v>32</v>
-      </c>
-      <c r="O58" t="s">
-        <v>32</v>
-      </c>
-      <c r="P58" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>32</v>
-      </c>
-      <c r="R58" t="s">
-        <v>32</v>
-      </c>
-      <c r="S58" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>130</v>
-      </c>
-      <c r="B59" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59" t="s">
-        <v>32</v>
-      </c>
-      <c r="E59" t="s">
-        <v>32</v>
-      </c>
-      <c r="F59" t="s">
-        <v>32</v>
-      </c>
-      <c r="G59" t="s">
-        <v>32</v>
-      </c>
-      <c r="H59" t="s">
-        <v>32</v>
-      </c>
-      <c r="I59" t="s">
-        <v>32</v>
-      </c>
-      <c r="J59" t="s">
-        <v>32</v>
-      </c>
-      <c r="K59" t="s">
-        <v>32</v>
-      </c>
-      <c r="L59" t="s">
-        <v>32</v>
-      </c>
-      <c r="M59" t="s">
-        <v>32</v>
-      </c>
-      <c r="N59" t="s">
-        <v>32</v>
-      </c>
-      <c r="O59" t="s">
-        <v>32</v>
-      </c>
-      <c r="P59" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>32</v>
-      </c>
-      <c r="R59" t="s">
-        <v>32</v>
-      </c>
-      <c r="S59" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>131</v>
-      </c>
-      <c r="B60" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60" t="s">
-        <v>32</v>
-      </c>
-      <c r="E60" t="s">
-        <v>32</v>
-      </c>
-      <c r="F60" t="s">
-        <v>32</v>
-      </c>
-      <c r="G60" t="s">
-        <v>32</v>
-      </c>
-      <c r="H60" t="s">
-        <v>32</v>
-      </c>
-      <c r="I60" t="s">
-        <v>32</v>
-      </c>
-      <c r="J60" t="s">
-        <v>32</v>
-      </c>
-      <c r="K60" t="s">
-        <v>32</v>
-      </c>
-      <c r="L60" t="s">
-        <v>32</v>
-      </c>
-      <c r="M60" t="s">
-        <v>32</v>
-      </c>
-      <c r="N60" t="s">
-        <v>32</v>
-      </c>
-      <c r="O60" t="s">
-        <v>32</v>
-      </c>
-      <c r="P60" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>32</v>
-      </c>
-      <c r="R60" t="s">
-        <v>32</v>
-      </c>
-      <c r="S60" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>132</v>
-      </c>
-      <c r="B61" t="s">
-        <v>32</v>
-      </c>
-      <c r="C61" t="s">
-        <v>32</v>
-      </c>
-      <c r="D61" t="s">
-        <v>32</v>
-      </c>
-      <c r="E61" t="s">
-        <v>32</v>
-      </c>
-      <c r="F61" t="s">
-        <v>32</v>
-      </c>
-      <c r="G61" t="s">
-        <v>32</v>
-      </c>
-      <c r="H61" t="s">
-        <v>32</v>
-      </c>
-      <c r="I61" t="s">
-        <v>32</v>
-      </c>
-      <c r="J61" t="s">
-        <v>32</v>
-      </c>
-      <c r="K61" t="s">
-        <v>32</v>
-      </c>
-      <c r="L61" t="s">
-        <v>32</v>
-      </c>
-      <c r="M61" t="s">
-        <v>32</v>
-      </c>
-      <c r="N61" t="s">
-        <v>32</v>
-      </c>
-      <c r="O61" t="s">
-        <v>32</v>
-      </c>
-      <c r="P61" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>32</v>
-      </c>
-      <c r="R61" t="s">
-        <v>32</v>
-      </c>
-      <c r="S61" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>133</v>
-      </c>
-      <c r="B62" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" t="s">
-        <v>32</v>
-      </c>
-      <c r="D62" t="s">
-        <v>32</v>
-      </c>
-      <c r="E62" t="s">
-        <v>32</v>
-      </c>
-      <c r="F62" t="s">
-        <v>32</v>
-      </c>
-      <c r="G62" t="s">
-        <v>32</v>
-      </c>
-      <c r="H62" t="s">
-        <v>32</v>
-      </c>
-      <c r="I62" t="s">
-        <v>32</v>
-      </c>
-      <c r="J62" t="s">
-        <v>32</v>
-      </c>
-      <c r="K62" t="s">
-        <v>32</v>
-      </c>
-      <c r="L62" t="s">
-        <v>32</v>
-      </c>
-      <c r="M62" t="s">
-        <v>32</v>
-      </c>
-      <c r="N62" t="s">
-        <v>32</v>
-      </c>
-      <c r="O62" t="s">
-        <v>32</v>
-      </c>
-      <c r="P62" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>32</v>
-      </c>
-      <c r="R62" t="s">
-        <v>32</v>
-      </c>
-      <c r="S62" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>134</v>
-      </c>
-      <c r="B63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" t="s">
-        <v>32</v>
-      </c>
-      <c r="E63" t="s">
-        <v>32</v>
-      </c>
-      <c r="F63" t="s">
-        <v>32</v>
-      </c>
-      <c r="G63" t="s">
-        <v>32</v>
-      </c>
-      <c r="H63" t="s">
-        <v>32</v>
-      </c>
-      <c r="I63" t="s">
-        <v>32</v>
-      </c>
-      <c r="J63" t="s">
-        <v>32</v>
-      </c>
-      <c r="K63" t="s">
-        <v>32</v>
-      </c>
-      <c r="L63" t="s">
-        <v>32</v>
-      </c>
-      <c r="M63" t="s">
-        <v>32</v>
-      </c>
-      <c r="N63" t="s">
-        <v>32</v>
-      </c>
-      <c r="O63" t="s">
-        <v>32</v>
-      </c>
-      <c r="P63" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>32</v>
-      </c>
-      <c r="R63" t="s">
-        <v>32</v>
-      </c>
-      <c r="S63" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>135</v>
-      </c>
-      <c r="B64" t="s">
-        <v>32</v>
-      </c>
-      <c r="C64" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" t="s">
-        <v>32</v>
-      </c>
-      <c r="E64" t="s">
-        <v>32</v>
-      </c>
-      <c r="F64" t="s">
-        <v>32</v>
-      </c>
-      <c r="G64" t="s">
-        <v>32</v>
-      </c>
-      <c r="H64" t="s">
-        <v>32</v>
-      </c>
-      <c r="I64" t="s">
-        <v>32</v>
-      </c>
-      <c r="J64" t="s">
-        <v>32</v>
-      </c>
-      <c r="K64" t="s">
-        <v>32</v>
-      </c>
-      <c r="L64" t="s">
-        <v>32</v>
-      </c>
-      <c r="M64" t="s">
-        <v>32</v>
-      </c>
-      <c r="N64" t="s">
-        <v>32</v>
-      </c>
-      <c r="O64" t="s">
-        <v>32</v>
-      </c>
-      <c r="P64" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>32</v>
-      </c>
-      <c r="R64" t="s">
-        <v>32</v>
-      </c>
-      <c r="S64" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>136</v>
-      </c>
-      <c r="B65" t="s">
-        <v>32</v>
-      </c>
-      <c r="C65" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65" t="s">
-        <v>32</v>
-      </c>
-      <c r="E65" t="s">
-        <v>32</v>
-      </c>
-      <c r="F65" t="s">
-        <v>32</v>
-      </c>
-      <c r="G65" t="s">
-        <v>32</v>
-      </c>
-      <c r="H65" t="s">
-        <v>32</v>
-      </c>
-      <c r="I65" t="s">
-        <v>32</v>
-      </c>
-      <c r="J65" t="s">
-        <v>32</v>
-      </c>
-      <c r="K65" t="s">
-        <v>32</v>
-      </c>
-      <c r="L65" t="s">
-        <v>32</v>
-      </c>
-      <c r="M65" t="s">
-        <v>32</v>
-      </c>
-      <c r="N65" t="s">
-        <v>32</v>
-      </c>
-      <c r="O65" t="s">
-        <v>32</v>
-      </c>
-      <c r="P65" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>32</v>
-      </c>
-      <c r="R65" t="s">
-        <v>32</v>
-      </c>
-      <c r="S65" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>137</v>
-      </c>
-      <c r="B66" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66" t="s">
-        <v>32</v>
-      </c>
-      <c r="E66" t="s">
-        <v>32</v>
-      </c>
-      <c r="F66" t="s">
-        <v>32</v>
-      </c>
-      <c r="G66" t="s">
-        <v>32</v>
-      </c>
-      <c r="H66" t="s">
-        <v>32</v>
-      </c>
-      <c r="I66" t="s">
-        <v>32</v>
-      </c>
-      <c r="J66" t="s">
-        <v>32</v>
-      </c>
-      <c r="K66" t="s">
-        <v>32</v>
-      </c>
-      <c r="L66" t="s">
-        <v>32</v>
-      </c>
-      <c r="M66" t="s">
-        <v>32</v>
-      </c>
-      <c r="N66" t="s">
-        <v>32</v>
-      </c>
-      <c r="O66" t="s">
-        <v>32</v>
-      </c>
-      <c r="P66" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>32</v>
-      </c>
-      <c r="R66" t="s">
-        <v>32</v>
-      </c>
-      <c r="S66" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>138</v>
-      </c>
-      <c r="B67" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67" t="s">
-        <v>32</v>
-      </c>
-      <c r="D67" t="s">
-        <v>32</v>
-      </c>
-      <c r="E67" t="s">
-        <v>32</v>
-      </c>
-      <c r="F67" t="s">
-        <v>32</v>
-      </c>
-      <c r="G67" t="s">
-        <v>32</v>
-      </c>
-      <c r="H67" t="s">
-        <v>32</v>
-      </c>
-      <c r="I67" t="s">
-        <v>32</v>
-      </c>
-      <c r="J67" t="s">
-        <v>32</v>
-      </c>
-      <c r="K67" t="s">
-        <v>32</v>
-      </c>
-      <c r="L67" t="s">
-        <v>32</v>
-      </c>
-      <c r="M67" t="s">
-        <v>32</v>
-      </c>
-      <c r="N67" t="s">
-        <v>32</v>
-      </c>
-      <c r="O67" t="s">
-        <v>32</v>
-      </c>
-      <c r="P67" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>32</v>
-      </c>
-      <c r="R67" t="s">
-        <v>32</v>
-      </c>
-      <c r="S67" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>139</v>
-      </c>
-      <c r="B68" t="s">
-        <v>32</v>
-      </c>
-      <c r="C68" t="s">
-        <v>32</v>
-      </c>
-      <c r="D68" t="s">
-        <v>32</v>
-      </c>
-      <c r="E68" t="s">
-        <v>32</v>
-      </c>
-      <c r="F68" t="s">
-        <v>32</v>
-      </c>
-      <c r="G68" t="s">
-        <v>32</v>
-      </c>
-      <c r="H68" t="s">
-        <v>32</v>
-      </c>
-      <c r="I68" t="s">
-        <v>32</v>
-      </c>
-      <c r="J68" t="s">
-        <v>32</v>
-      </c>
-      <c r="K68" t="s">
-        <v>32</v>
-      </c>
-      <c r="L68" t="s">
-        <v>32</v>
-      </c>
-      <c r="M68" t="s">
-        <v>32</v>
-      </c>
-      <c r="N68" t="s">
-        <v>32</v>
-      </c>
-      <c r="O68" t="s">
-        <v>32</v>
-      </c>
-      <c r="P68" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>32</v>
-      </c>
-      <c r="R68" t="s">
-        <v>32</v>
-      </c>
-      <c r="S68" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>140</v>
-      </c>
-      <c r="B69" t="s">
-        <v>32</v>
-      </c>
-      <c r="C69" t="s">
-        <v>32</v>
-      </c>
-      <c r="D69" t="s">
-        <v>32</v>
-      </c>
-      <c r="E69" t="s">
-        <v>32</v>
-      </c>
-      <c r="F69" t="s">
-        <v>32</v>
-      </c>
-      <c r="G69" t="s">
-        <v>32</v>
-      </c>
-      <c r="H69" t="s">
-        <v>32</v>
-      </c>
-      <c r="I69" t="s">
-        <v>32</v>
-      </c>
-      <c r="J69" t="s">
-        <v>32</v>
-      </c>
-      <c r="K69" t="s">
-        <v>32</v>
-      </c>
-      <c r="L69" t="s">
-        <v>32</v>
-      </c>
-      <c r="M69" t="s">
-        <v>32</v>
-      </c>
-      <c r="N69" t="s">
-        <v>32</v>
-      </c>
-      <c r="O69" t="s">
-        <v>32</v>
-      </c>
-      <c r="P69" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>32</v>
-      </c>
-      <c r="R69" t="s">
-        <v>32</v>
-      </c>
-      <c r="S69" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>141</v>
-      </c>
-      <c r="B70" t="s">
-        <v>32</v>
-      </c>
-      <c r="C70" t="s">
-        <v>32</v>
-      </c>
-      <c r="D70" t="s">
-        <v>32</v>
-      </c>
-      <c r="E70" t="s">
-        <v>32</v>
-      </c>
-      <c r="F70" t="s">
-        <v>32</v>
-      </c>
-      <c r="G70" t="s">
-        <v>32</v>
-      </c>
-      <c r="H70" t="s">
-        <v>32</v>
-      </c>
-      <c r="I70" t="s">
-        <v>32</v>
-      </c>
-      <c r="J70" t="s">
-        <v>32</v>
-      </c>
-      <c r="K70" t="s">
-        <v>32</v>
-      </c>
-      <c r="L70" t="s">
-        <v>32</v>
-      </c>
-      <c r="M70" t="s">
-        <v>32</v>
-      </c>
-      <c r="N70" t="s">
-        <v>32</v>
-      </c>
-      <c r="O70" t="s">
-        <v>32</v>
-      </c>
-      <c r="P70" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>32</v>
-      </c>
-      <c r="R70" t="s">
-        <v>32</v>
-      </c>
-      <c r="S70" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>142</v>
-      </c>
-      <c r="B71" t="s">
-        <v>32</v>
-      </c>
-      <c r="C71" t="s">
-        <v>32</v>
-      </c>
-      <c r="D71" t="s">
-        <v>32</v>
-      </c>
-      <c r="E71" t="s">
-        <v>32</v>
-      </c>
-      <c r="F71" t="s">
-        <v>32</v>
-      </c>
-      <c r="G71" t="s">
-        <v>32</v>
-      </c>
-      <c r="H71" t="s">
-        <v>32</v>
-      </c>
-      <c r="I71" t="s">
-        <v>32</v>
-      </c>
-      <c r="J71" t="s">
-        <v>32</v>
-      </c>
-      <c r="K71" t="s">
-        <v>32</v>
-      </c>
-      <c r="L71" t="s">
-        <v>32</v>
-      </c>
-      <c r="M71" t="s">
-        <v>32</v>
-      </c>
-      <c r="N71" t="s">
-        <v>32</v>
-      </c>
-      <c r="O71" t="s">
-        <v>32</v>
-      </c>
-      <c r="P71" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>32</v>
-      </c>
-      <c r="R71" t="s">
-        <v>32</v>
-      </c>
-      <c r="S71" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>143</v>
-      </c>
-      <c r="B72" t="s">
-        <v>32</v>
-      </c>
-      <c r="C72" t="s">
-        <v>32</v>
-      </c>
-      <c r="D72" t="s">
-        <v>32</v>
-      </c>
-      <c r="E72" t="s">
-        <v>32</v>
-      </c>
-      <c r="F72" t="s">
-        <v>32</v>
-      </c>
-      <c r="G72" t="s">
-        <v>32</v>
-      </c>
-      <c r="H72" t="s">
-        <v>32</v>
-      </c>
-      <c r="I72" t="s">
-        <v>32</v>
-      </c>
-      <c r="J72" t="s">
-        <v>32</v>
-      </c>
-      <c r="K72" t="s">
-        <v>32</v>
-      </c>
-      <c r="L72" t="s">
-        <v>32</v>
-      </c>
-      <c r="M72" t="s">
-        <v>32</v>
-      </c>
-      <c r="N72" t="s">
-        <v>32</v>
-      </c>
-      <c r="O72" t="s">
-        <v>32</v>
-      </c>
-      <c r="P72" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>32</v>
-      </c>
-      <c r="R72" t="s">
-        <v>32</v>
-      </c>
-      <c r="S72" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>144</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C73" t="s">
-        <v>32</v>
-      </c>
-      <c r="D73" t="s">
-        <v>32</v>
-      </c>
-      <c r="E73" t="s">
-        <v>32</v>
-      </c>
-      <c r="F73" t="s">
-        <v>32</v>
-      </c>
-      <c r="G73" t="s">
-        <v>32</v>
-      </c>
-      <c r="H73" t="s">
-        <v>32</v>
-      </c>
-      <c r="I73" t="s">
-        <v>32</v>
-      </c>
-      <c r="J73" t="s">
-        <v>32</v>
-      </c>
-      <c r="K73" t="s">
-        <v>32</v>
-      </c>
-      <c r="L73" t="s">
-        <v>32</v>
-      </c>
-      <c r="M73" t="s">
-        <v>32</v>
-      </c>
-      <c r="N73" t="s">
-        <v>32</v>
-      </c>
-      <c r="O73" t="s">
-        <v>32</v>
-      </c>
-      <c r="P73" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>32</v>
-      </c>
-      <c r="R73" t="s">
-        <v>32</v>
-      </c>
-      <c r="S73" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>145</v>
-      </c>
-      <c r="B74" t="s">
-        <v>32</v>
-      </c>
-      <c r="C74" t="s">
-        <v>32</v>
-      </c>
-      <c r="D74" t="s">
-        <v>32</v>
-      </c>
-      <c r="E74" t="s">
-        <v>32</v>
-      </c>
-      <c r="F74" t="s">
-        <v>32</v>
-      </c>
-      <c r="G74" t="s">
-        <v>32</v>
-      </c>
-      <c r="H74" t="s">
-        <v>32</v>
-      </c>
-      <c r="I74" t="s">
-        <v>32</v>
-      </c>
-      <c r="J74" t="s">
-        <v>32</v>
-      </c>
-      <c r="K74" t="s">
-        <v>32</v>
-      </c>
-      <c r="L74" t="s">
-        <v>32</v>
-      </c>
-      <c r="M74" t="s">
-        <v>32</v>
-      </c>
-      <c r="N74" t="s">
-        <v>32</v>
-      </c>
-      <c r="O74" t="s">
-        <v>32</v>
-      </c>
-      <c r="P74" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>32</v>
-      </c>
-      <c r="R74" t="s">
-        <v>32</v>
-      </c>
-      <c r="S74" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
@@ -11,11 +11,11 @@
     <sheet name="Rooms" r:id="rId5" sheetId="3"/>
     <sheet name="Speakers" r:id="rId6" sheetId="4"/>
     <sheet name="Talks" r:id="rId7" sheetId="5"/>
-    <sheet name="Room view" r:id="rId8" sheetId="6"/>
-    <sheet name="Speaker view" r:id="rId9" sheetId="7"/>
-    <sheet name="Theme view" r:id="rId10" sheetId="8"/>
-    <sheet name="Sector view" r:id="rId11" sheetId="9"/>
-    <sheet name="Content view" r:id="rId12" sheetId="10"/>
+    <sheet name="Rooms view" r:id="rId8" sheetId="6"/>
+    <sheet name="Speakers view" r:id="rId9" sheetId="7"/>
+    <sheet name="Theme tracks view" r:id="rId10" sheetId="8"/>
+    <sheet name="Sectors view" r:id="rId11" sheetId="9"/>
+    <sheet name="Contents view" r:id="rId12" sheetId="10"/>
   </sheets>
 </workbook>
 </file>
@@ -38,10 +38,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Theme conflict</t>
-  </si>
-  <si>
-    <t>Soft penalty per common theme of 2 talks that have an overlapping timeslot</t>
+    <t>Theme track conflict</t>
+  </si>
+  <si>
+    <t>Soft penalty per common theme track of 2 talks that have an overlapping timeslot</t>
   </si>
   <si>
     <t>Sector conflict</t>
@@ -188,642 +188,642 @@
     <t>Large, Recorded</t>
   </si>
   <si>
+    <t>R 2</t>
+  </si>
+  <si>
+    <t>R 3</t>
+  </si>
+  <si>
+    <t>Recorded</t>
+  </si>
+  <si>
+    <t>R 4</t>
+  </si>
+  <si>
+    <t>R 5</t>
+  </si>
+  <si>
+    <t>Lab_room, Large, Recorded</t>
+  </si>
+  <si>
+    <t>R 6</t>
+  </si>
+  <si>
+    <t>R 7</t>
+  </si>
+  <si>
+    <t>R 8</t>
+  </si>
+  <si>
+    <t>R 9</t>
+  </si>
+  <si>
+    <t>R 10</t>
+  </si>
+  <si>
+    <t>Lab_room</t>
+  </si>
+  <si>
+    <t>Required timeslot tags</t>
+  </si>
+  <si>
+    <t>Preferred timeslot tags</t>
+  </si>
+  <si>
+    <t>Prohibited timeslot tags</t>
+  </si>
+  <si>
+    <t>Undesired timeslot tags</t>
+  </si>
+  <si>
+    <t>Required room tags</t>
+  </si>
+  <si>
+    <t>Preferred room tags</t>
+  </si>
+  <si>
+    <t>Prohibited room tags</t>
+  </si>
+  <si>
+    <t>Undesired room tags</t>
+  </si>
+  <si>
+    <t>Amy Cole</t>
+  </si>
+  <si>
+    <t>Beth Fox</t>
+  </si>
+  <si>
+    <t>Chad Green</t>
+  </si>
+  <si>
+    <t>Dan Jones</t>
+  </si>
+  <si>
+    <t>Elsa King</t>
+  </si>
+  <si>
+    <t>Flo Li</t>
+  </si>
+  <si>
+    <t>Gus Poe</t>
+  </si>
+  <si>
+    <t>Hugo Rye</t>
+  </si>
+  <si>
+    <t>Ivy Smith</t>
+  </si>
+  <si>
+    <t>Jay Watt</t>
+  </si>
+  <si>
+    <t>Amy Fox</t>
+  </si>
+  <si>
+    <t>Beth Green</t>
+  </si>
+  <si>
+    <t>Chad Jones</t>
+  </si>
+  <si>
+    <t>Dan King</t>
+  </si>
+  <si>
+    <t>Elsa Li</t>
+  </si>
+  <si>
+    <t>Flo Poe</t>
+  </si>
+  <si>
+    <t>Gus Rye</t>
+  </si>
+  <si>
+    <t>Hugo Smith</t>
+  </si>
+  <si>
+    <t>Ivy Watt</t>
+  </si>
+  <si>
+    <t>Jay Cole</t>
+  </si>
+  <si>
+    <t>Amy Green</t>
+  </si>
+  <si>
+    <t>Beth Jones</t>
+  </si>
+  <si>
+    <t>Chad King</t>
+  </si>
+  <si>
+    <t>Dan Li</t>
+  </si>
+  <si>
+    <t>Elsa Poe</t>
+  </si>
+  <si>
+    <t>Flo Rye</t>
+  </si>
+  <si>
+    <t>Gus Smith</t>
+  </si>
+  <si>
+    <t>Hugo Watt</t>
+  </si>
+  <si>
+    <t>Ivy Cole</t>
+  </si>
+  <si>
+    <t>Jay Fox</t>
+  </si>
+  <si>
+    <t>Amy Jones</t>
+  </si>
+  <si>
+    <t>Beth King</t>
+  </si>
+  <si>
+    <t>Chad Li</t>
+  </si>
+  <si>
+    <t>Dan Poe</t>
+  </si>
+  <si>
+    <t>Elsa Rye</t>
+  </si>
+  <si>
+    <t>Flo Smith</t>
+  </si>
+  <si>
+    <t>Gus Watt</t>
+  </si>
+  <si>
+    <t>Hugo Cole</t>
+  </si>
+  <si>
+    <t>Ivy Fox</t>
+  </si>
+  <si>
+    <t>Jay Green</t>
+  </si>
+  <si>
+    <t>Amy King</t>
+  </si>
+  <si>
+    <t>Beth Li</t>
+  </si>
+  <si>
+    <t>Chad Poe</t>
+  </si>
+  <si>
+    <t>Dan Rye</t>
+  </si>
+  <si>
+    <t>Elsa Smith</t>
+  </si>
+  <si>
+    <t>Flo Watt</t>
+  </si>
+  <si>
+    <t>Gus Cole</t>
+  </si>
+  <si>
+    <t>Hugo Fox</t>
+  </si>
+  <si>
+    <t>Ivy Green</t>
+  </si>
+  <si>
+    <t>Jay Jones</t>
+  </si>
+  <si>
+    <t>Amy Li</t>
+  </si>
+  <si>
+    <t>Beth Poe</t>
+  </si>
+  <si>
+    <t>Chad Rye</t>
+  </si>
+  <si>
+    <t>Dan Smith</t>
+  </si>
+  <si>
+    <t>Elsa Watt</t>
+  </si>
+  <si>
+    <t>Flo Cole</t>
+  </si>
+  <si>
+    <t>Gus Fox</t>
+  </si>
+  <si>
+    <t>Hugo Green</t>
+  </si>
+  <si>
+    <t>Ivy Jones</t>
+  </si>
+  <si>
+    <t>Jay King</t>
+  </si>
+  <si>
+    <t>Amy Poe</t>
+  </si>
+  <si>
+    <t>Beth Rye</t>
+  </si>
+  <si>
+    <t>Chad Smith</t>
+  </si>
+  <si>
+    <t>Dan Watt</t>
+  </si>
+  <si>
+    <t>Elsa Cole</t>
+  </si>
+  <si>
+    <t>Flo Fox</t>
+  </si>
+  <si>
+    <t>Gus Green</t>
+  </si>
+  <si>
+    <t>Hugo Jones</t>
+  </si>
+  <si>
+    <t>Ivy King</t>
+  </si>
+  <si>
+    <t>Jay Li</t>
+  </si>
+  <si>
+    <t>Amy Rye</t>
+  </si>
+  <si>
+    <t>Beth Smith</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Speakers</t>
+  </si>
+  <si>
+    <t>Theme track tags</t>
+  </si>
+  <si>
+    <t>Sector tags</t>
+  </si>
+  <si>
+    <t>Audience level</t>
+  </si>
+  <si>
+    <t>Content tags</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Pinned by user</t>
+  </si>
+  <si>
+    <t>Timeslot day</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>S000</t>
+  </si>
+  <si>
+    <t>Hands on real-time OpenShift</t>
+  </si>
+  <si>
+    <t>Amy Cole, Beth Fox</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>OpenShift, Kubernetes</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>S001</t>
+  </si>
+  <si>
+    <t>Advanced containerized WildFly</t>
+  </si>
+  <si>
+    <t>WildFly</t>
+  </si>
+  <si>
+    <t>S002</t>
+  </si>
+  <si>
+    <t>Learn virtualized Spring</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>S003</t>
+  </si>
+  <si>
+    <t>Intro to serverless Drools</t>
+  </si>
+  <si>
+    <t>Elsa King, Flo Li</t>
+  </si>
+  <si>
+    <t>Modern Web</t>
+  </si>
+  <si>
+    <t>Drools</t>
+  </si>
+  <si>
+    <t>S004</t>
+  </si>
+  <si>
+    <t>Discover AI-driven OptaPlanner</t>
+  </si>
+  <si>
+    <t>Gus Poe, Hugo Rye</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>OptaPlanner</t>
+  </si>
+  <si>
+    <t>S005</t>
+  </si>
+  <si>
+    <t>Mastering machine learning jBPM</t>
+  </si>
+  <si>
+    <t>Middleware</t>
+  </si>
+  <si>
+    <t>jBPM</t>
+  </si>
+  <si>
+    <t>S006</t>
+  </si>
+  <si>
+    <t>Tuning IOT-driven Camel</t>
+  </si>
+  <si>
+    <t>Jay Watt, Amy Fox</t>
+  </si>
+  <si>
+    <t>Camel</t>
+  </si>
+  <si>
+    <t>S007</t>
+  </si>
+  <si>
+    <t>Building deep learning XStream</t>
+  </si>
+  <si>
+    <t>XStream</t>
+  </si>
+  <si>
+    <t>S008</t>
+  </si>
+  <si>
+    <t>Securing scalable Docker</t>
+  </si>
+  <si>
+    <t>Chad Jones, Dan King</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>S009</t>
+  </si>
+  <si>
+    <t>Debug enterprise Hibernate</t>
+  </si>
+  <si>
+    <t>Cloud, Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Hibernate</t>
+  </si>
+  <si>
+    <t>S010</t>
+  </si>
+  <si>
+    <t>Prepare for streaming GWT</t>
+  </si>
+  <si>
+    <t>Flo Poe, Gus Rye</t>
+  </si>
+  <si>
+    <t>IoT</t>
+  </si>
+  <si>
+    <t>GWT</t>
+  </si>
+  <si>
+    <t>S011</t>
+  </si>
+  <si>
+    <t>Understand mobile Errai</t>
+  </si>
+  <si>
+    <t>Hugo Smith, Ivy Watt</t>
+  </si>
+  <si>
+    <t>Mobile, Security</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>Errai</t>
+  </si>
+  <si>
+    <t>S012</t>
+  </si>
+  <si>
+    <t>Applying modern Angular</t>
+  </si>
+  <si>
+    <t>Big Data</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>S013</t>
+  </si>
+  <si>
+    <t>Grok distributed Weld</t>
+  </si>
+  <si>
+    <t>Weld</t>
+  </si>
+  <si>
+    <t>S014</t>
+  </si>
+  <si>
+    <t>Troubleshooting reliable RestEasy</t>
+  </si>
+  <si>
+    <t>Telecommunications</t>
+  </si>
+  <si>
+    <t>RestEasy</t>
+  </si>
+  <si>
+    <t>S015</t>
+  </si>
+  <si>
+    <t>Using secure Android</t>
+  </si>
+  <si>
+    <t>Chad King, Dan Li</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>S016</t>
+  </si>
+  <si>
+    <t>Deliver stable Tensorflow</t>
+  </si>
+  <si>
+    <t>Tensorflow</t>
+  </si>
+  <si>
+    <t>S017</t>
+  </si>
+  <si>
+    <t>Implement platform-independent VertX</t>
+  </si>
+  <si>
+    <t>Flo Rye, Gus Smith</t>
+  </si>
+  <si>
+    <t>VertX</t>
+  </si>
+  <si>
+    <t>S018</t>
+  </si>
+  <si>
+    <t>Program flexible JUnit</t>
+  </si>
+  <si>
+    <t>Hugo Watt, Ivy Cole</t>
+  </si>
+  <si>
+    <t>JUnit</t>
+  </si>
+  <si>
+    <t>S019</t>
+  </si>
+  <si>
+    <t>Hack modularized Keycloak</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Keycloak</t>
+  </si>
+  <si>
+    <t>S020</t>
+  </si>
+  <si>
+    <t>Hands on real-time WildFly</t>
+  </si>
+  <si>
+    <t>Amy Jones, Beth King</t>
+  </si>
+  <si>
+    <t>IoT, Middleware</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>S021</t>
+  </si>
+  <si>
+    <t>Advanced containerized Spring</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence, Cloud</t>
+  </si>
+  <si>
+    <t>S022</t>
+  </si>
+  <si>
+    <t>Learn virtualized Drools</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence, Security</t>
+  </si>
+  <si>
+    <t>S023</t>
+  </si>
+  <si>
+    <t>Intro to serverless OptaPlanner</t>
+  </si>
+  <si>
+    <t>S024</t>
+  </si>
+  <si>
+    <t>Discover AI-driven jBPM</t>
+  </si>
+  <si>
+    <t>Flo Smith, Gus Watt, Hugo Cole, Ivy Fox</t>
+  </si>
+  <si>
+    <t>S025</t>
+  </si>
+  <si>
+    <t>Mastering machine learning Camel</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>S026</t>
+  </si>
+  <si>
+    <t>Tuning IOT-driven XStream</t>
+  </si>
+  <si>
+    <t>Culture</t>
+  </si>
+  <si>
+    <t>S027</t>
+  </si>
+  <si>
+    <t>Building deep learning Docker</t>
+  </si>
+  <si>
     <t>S028</t>
   </si>
   <si>
-    <t>R 2</t>
-  </si>
-  <si>
-    <t>R 3</t>
-  </si>
-  <si>
-    <t>Recorded</t>
-  </si>
-  <si>
-    <t>R 4</t>
-  </si>
-  <si>
-    <t>R 5</t>
-  </si>
-  <si>
-    <t>Lab_room, Large, Recorded</t>
-  </si>
-  <si>
-    <t>R 6</t>
-  </si>
-  <si>
-    <t>R 7</t>
-  </si>
-  <si>
-    <t>R 8</t>
-  </si>
-  <si>
-    <t>R 9</t>
-  </si>
-  <si>
-    <t>R 10</t>
-  </si>
-  <si>
-    <t>Lab_room</t>
-  </si>
-  <si>
-    <t>Required timeslot tags</t>
-  </si>
-  <si>
-    <t>Preferred timeslot tags</t>
-  </si>
-  <si>
-    <t>Prohibited timeslot tags</t>
-  </si>
-  <si>
-    <t>Undesired timeslot tags</t>
-  </si>
-  <si>
-    <t>Required room tags</t>
-  </si>
-  <si>
-    <t>Preferred room tags</t>
-  </si>
-  <si>
-    <t>Prohibited room tags</t>
-  </si>
-  <si>
-    <t>Undesired room tags</t>
-  </si>
-  <si>
-    <t>Amy Cole</t>
-  </si>
-  <si>
-    <t>Beth Fox</t>
-  </si>
-  <si>
-    <t>Chad Green</t>
-  </si>
-  <si>
-    <t>Dan Jones</t>
-  </si>
-  <si>
-    <t>Elsa King</t>
-  </si>
-  <si>
-    <t>Flo Li</t>
-  </si>
-  <si>
-    <t>Gus Poe</t>
-  </si>
-  <si>
-    <t>Hugo Rye</t>
-  </si>
-  <si>
-    <t>Ivy Smith</t>
-  </si>
-  <si>
-    <t>Jay Watt</t>
-  </si>
-  <si>
-    <t>Amy Fox</t>
-  </si>
-  <si>
-    <t>Beth Green</t>
-  </si>
-  <si>
-    <t>Chad Jones</t>
-  </si>
-  <si>
-    <t>Dan King</t>
-  </si>
-  <si>
-    <t>Elsa Li</t>
-  </si>
-  <si>
-    <t>Flo Poe</t>
-  </si>
-  <si>
-    <t>Gus Rye</t>
-  </si>
-  <si>
-    <t>Hugo Smith</t>
-  </si>
-  <si>
-    <t>Ivy Watt</t>
-  </si>
-  <si>
-    <t>Jay Cole</t>
-  </si>
-  <si>
-    <t>Amy Green</t>
-  </si>
-  <si>
-    <t>Beth Jones</t>
-  </si>
-  <si>
-    <t>Chad King</t>
-  </si>
-  <si>
-    <t>Dan Li</t>
-  </si>
-  <si>
-    <t>Elsa Poe</t>
-  </si>
-  <si>
-    <t>Flo Rye</t>
-  </si>
-  <si>
-    <t>Gus Smith</t>
-  </si>
-  <si>
-    <t>Hugo Watt</t>
-  </si>
-  <si>
-    <t>Ivy Cole</t>
-  </si>
-  <si>
-    <t>Jay Fox</t>
-  </si>
-  <si>
-    <t>Amy Jones</t>
-  </si>
-  <si>
-    <t>Beth King</t>
-  </si>
-  <si>
-    <t>Chad Li</t>
-  </si>
-  <si>
-    <t>Dan Poe</t>
-  </si>
-  <si>
-    <t>Elsa Rye</t>
-  </si>
-  <si>
-    <t>Flo Smith</t>
-  </si>
-  <si>
-    <t>Gus Watt</t>
-  </si>
-  <si>
-    <t>Hugo Cole</t>
-  </si>
-  <si>
-    <t>Ivy Fox</t>
-  </si>
-  <si>
-    <t>Jay Green</t>
-  </si>
-  <si>
-    <t>Amy King</t>
-  </si>
-  <si>
-    <t>Beth Li</t>
-  </si>
-  <si>
-    <t>Chad Poe</t>
-  </si>
-  <si>
-    <t>Dan Rye</t>
-  </si>
-  <si>
-    <t>Elsa Smith</t>
-  </si>
-  <si>
-    <t>Flo Watt</t>
-  </si>
-  <si>
-    <t>Gus Cole</t>
-  </si>
-  <si>
-    <t>Hugo Fox</t>
-  </si>
-  <si>
-    <t>Ivy Green</t>
-  </si>
-  <si>
-    <t>Jay Jones</t>
-  </si>
-  <si>
-    <t>Amy Li</t>
-  </si>
-  <si>
-    <t>Beth Poe</t>
-  </si>
-  <si>
-    <t>Chad Rye</t>
-  </si>
-  <si>
-    <t>Dan Smith</t>
-  </si>
-  <si>
-    <t>Elsa Watt</t>
-  </si>
-  <si>
-    <t>Flo Cole</t>
-  </si>
-  <si>
-    <t>Gus Fox</t>
-  </si>
-  <si>
-    <t>Hugo Green</t>
-  </si>
-  <si>
-    <t>Ivy Jones</t>
-  </si>
-  <si>
-    <t>Jay King</t>
-  </si>
-  <si>
-    <t>Amy Poe</t>
-  </si>
-  <si>
-    <t>Beth Rye</t>
-  </si>
-  <si>
-    <t>Chad Smith</t>
-  </si>
-  <si>
-    <t>Dan Watt</t>
-  </si>
-  <si>
-    <t>Elsa Cole</t>
-  </si>
-  <si>
-    <t>Flo Fox</t>
-  </si>
-  <si>
-    <t>Gus Green</t>
-  </si>
-  <si>
-    <t>Hugo Jones</t>
-  </si>
-  <si>
-    <t>Ivy King</t>
-  </si>
-  <si>
-    <t>Jay Li</t>
-  </si>
-  <si>
-    <t>Amy Rye</t>
-  </si>
-  <si>
-    <t>Beth Smith</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Speakers</t>
-  </si>
-  <si>
-    <t>Theme tags</t>
-  </si>
-  <si>
-    <t>Sector tags</t>
-  </si>
-  <si>
-    <t>Audience level</t>
-  </si>
-  <si>
-    <t>Content tags</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Pinned by user</t>
-  </si>
-  <si>
-    <t>Timeslot day</t>
-  </si>
-  <si>
-    <t>Room</t>
-  </si>
-  <si>
-    <t>S000</t>
-  </si>
-  <si>
-    <t>Hands on real-time OpenShift</t>
-  </si>
-  <si>
-    <t>Amy Cole, Beth Fox</t>
-  </si>
-  <si>
-    <t>Cloud</t>
-  </si>
-  <si>
-    <t>OpenShift, Kubernetes</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>S001</t>
-  </si>
-  <si>
-    <t>Advanced containerized WildFly</t>
-  </si>
-  <si>
-    <t>WildFly</t>
-  </si>
-  <si>
-    <t>S002</t>
-  </si>
-  <si>
-    <t>Learn virtualized Spring</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>S003</t>
-  </si>
-  <si>
-    <t>Intro to serverless Drools</t>
-  </si>
-  <si>
-    <t>Elsa King, Flo Li</t>
-  </si>
-  <si>
-    <t>Modern Web</t>
-  </si>
-  <si>
-    <t>Drools</t>
-  </si>
-  <si>
-    <t>S004</t>
-  </si>
-  <si>
-    <t>Discover AI-driven OptaPlanner</t>
-  </si>
-  <si>
-    <t>Gus Poe, Hugo Rye</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>OptaPlanner</t>
-  </si>
-  <si>
-    <t>S005</t>
-  </si>
-  <si>
-    <t>Mastering machine learning jBPM</t>
-  </si>
-  <si>
-    <t>Middleware</t>
-  </si>
-  <si>
-    <t>jBPM</t>
-  </si>
-  <si>
-    <t>S006</t>
-  </si>
-  <si>
-    <t>Tuning IOT-driven Camel</t>
-  </si>
-  <si>
-    <t>Jay Watt, Amy Fox</t>
-  </si>
-  <si>
-    <t>Camel</t>
-  </si>
-  <si>
-    <t>S007</t>
-  </si>
-  <si>
-    <t>Building deep learning XStream</t>
-  </si>
-  <si>
-    <t>XStream</t>
-  </si>
-  <si>
-    <t>S008</t>
-  </si>
-  <si>
-    <t>Securing scalable Docker</t>
-  </si>
-  <si>
-    <t>Chad Jones, Dan King</t>
-  </si>
-  <si>
-    <t>Docker</t>
-  </si>
-  <si>
-    <t>S009</t>
-  </si>
-  <si>
-    <t>Debug enterprise Hibernate</t>
-  </si>
-  <si>
-    <t>Cloud, Artificial Intelligence</t>
-  </si>
-  <si>
-    <t>Hibernate</t>
-  </si>
-  <si>
-    <t>S010</t>
-  </si>
-  <si>
-    <t>Prepare for streaming GWT</t>
-  </si>
-  <si>
-    <t>Flo Poe, Gus Rye</t>
-  </si>
-  <si>
-    <t>IoT</t>
-  </si>
-  <si>
-    <t>GWT</t>
-  </si>
-  <si>
-    <t>S011</t>
-  </si>
-  <si>
-    <t>Understand mobile Errai</t>
-  </si>
-  <si>
-    <t>Hugo Smith, Ivy Watt</t>
-  </si>
-  <si>
-    <t>Mobile, Security</t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t>Errai</t>
-  </si>
-  <si>
-    <t>S012</t>
-  </si>
-  <si>
-    <t>Applying modern Angular</t>
-  </si>
-  <si>
-    <t>Big Data</t>
-  </si>
-  <si>
-    <t>Angular</t>
-  </si>
-  <si>
-    <t>S013</t>
-  </si>
-  <si>
-    <t>Grok distributed Weld</t>
-  </si>
-  <si>
-    <t>Weld</t>
-  </si>
-  <si>
-    <t>S014</t>
-  </si>
-  <si>
-    <t>Troubleshooting reliable RestEasy</t>
-  </si>
-  <si>
-    <t>Telecommunications</t>
-  </si>
-  <si>
-    <t>RestEasy</t>
-  </si>
-  <si>
-    <t>S015</t>
-  </si>
-  <si>
-    <t>Using secure Android</t>
-  </si>
-  <si>
-    <t>Chad King, Dan Li</t>
-  </si>
-  <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>S016</t>
-  </si>
-  <si>
-    <t>Deliver stable Tensorflow</t>
-  </si>
-  <si>
-    <t>Tensorflow</t>
-  </si>
-  <si>
-    <t>S017</t>
-  </si>
-  <si>
-    <t>Implement platform-independent VertX</t>
-  </si>
-  <si>
-    <t>Flo Rye, Gus Smith</t>
-  </si>
-  <si>
-    <t>VertX</t>
-  </si>
-  <si>
-    <t>S018</t>
-  </si>
-  <si>
-    <t>Program flexible JUnit</t>
-  </si>
-  <si>
-    <t>Hugo Watt, Ivy Cole</t>
-  </si>
-  <si>
-    <t>JUnit</t>
-  </si>
-  <si>
-    <t>S019</t>
-  </si>
-  <si>
-    <t>Hack modularized Keycloak</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence</t>
-  </si>
-  <si>
-    <t>Keycloak</t>
-  </si>
-  <si>
-    <t>S020</t>
-  </si>
-  <si>
-    <t>Hands on real-time WildFly</t>
-  </si>
-  <si>
-    <t>Amy Jones, Beth King</t>
-  </si>
-  <si>
-    <t>IoT, Middleware</t>
-  </si>
-  <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>S021</t>
-  </si>
-  <si>
-    <t>Advanced containerized Spring</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence, Cloud</t>
-  </si>
-  <si>
-    <t>S022</t>
-  </si>
-  <si>
-    <t>Learn virtualized Drools</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence, Security</t>
-  </si>
-  <si>
-    <t>S023</t>
-  </si>
-  <si>
-    <t>Intro to serverless OptaPlanner</t>
-  </si>
-  <si>
-    <t>S024</t>
-  </si>
-  <si>
-    <t>Discover AI-driven jBPM</t>
-  </si>
-  <si>
-    <t>Flo Smith, Gus Watt, Hugo Cole, Ivy Fox</t>
-  </si>
-  <si>
-    <t>S025</t>
-  </si>
-  <si>
-    <t>Mastering machine learning Camel</t>
-  </si>
-  <si>
-    <t>Transportation</t>
-  </si>
-  <si>
-    <t>S026</t>
-  </si>
-  <si>
-    <t>Tuning IOT-driven XStream</t>
-  </si>
-  <si>
-    <t>Culture</t>
-  </si>
-  <si>
-    <t>S027</t>
-  </si>
-  <si>
-    <t>Building deep learning Docker</t>
-  </si>
-  <si>
     <t>Securing scalable Hibernate</t>
   </si>
   <si>
@@ -1439,7 +1439,7 @@
     <t>Speaker</t>
   </si>
   <si>
-    <t>Theme tag</t>
+    <t>Theme track tag</t>
   </si>
   <si>
     <t>Sector tag</t>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="s">
@@ -2438,8 +2438,8 @@
       <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>55</v>
+      <c r="D3" t="s">
+        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>34</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -2554,10 +2554,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
         <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
@@ -2616,10 +2616,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>34</v>
@@ -2678,10 +2678,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
         <v>60</v>
-      </c>
-      <c r="B7" t="s">
-        <v>61</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -2740,10 +2740,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>34</v>
@@ -2802,7 +2802,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
@@ -2864,10 +2864,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>34</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
@@ -2988,10 +2988,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
         <v>66</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
@@ -3187,28 +3187,28 @@
         <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>47</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -3285,7 +3285,7 @@
         <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
         <v>34</v>
@@ -3350,7 +3350,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -3599,7 +3599,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -3617,7 +3617,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
         <v>34</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
@@ -3848,7 +3848,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -3866,7 +3866,7 @@
         <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
         <v>34</v>
@@ -3931,7 +3931,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -4180,7 +4180,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -4346,7 +4346,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -4512,7 +4512,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
@@ -4595,7 +4595,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -4761,7 +4761,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
@@ -4927,7 +4927,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
@@ -5010,7 +5010,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
@@ -5093,7 +5093,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
@@ -5176,7 +5176,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
@@ -5259,7 +5259,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
@@ -5342,7 +5342,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
@@ -5425,7 +5425,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
@@ -5508,7 +5508,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
@@ -5609,7 +5609,7 @@
         <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H31" t="s">
         <v>34</v>
@@ -5674,7 +5674,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
@@ -5757,7 +5757,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -5840,7 +5840,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
@@ -5923,7 +5923,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
@@ -6006,7 +6006,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
@@ -6089,7 +6089,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B37" t="s">
         <v>34</v>
@@ -6107,7 +6107,7 @@
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H37" t="s">
         <v>34</v>
@@ -6172,7 +6172,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
@@ -6255,7 +6255,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s">
         <v>34</v>
@@ -6338,7 +6338,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B40" t="s">
         <v>34</v>
@@ -6421,7 +6421,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B41" t="s">
         <v>34</v>
@@ -6504,7 +6504,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B42" t="s">
         <v>34</v>
@@ -6522,7 +6522,7 @@
         <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H42" t="s">
         <v>34</v>
@@ -6587,7 +6587,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B43" t="s">
         <v>34</v>
@@ -6670,7 +6670,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B44" t="s">
         <v>34</v>
@@ -6753,7 +6753,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s">
         <v>34</v>
@@ -6783,7 +6783,7 @@
         <v>34</v>
       </c>
       <c r="K45" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="L45" t="s">
         <v>34</v>
@@ -6836,7 +6836,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B46" t="s">
         <v>34</v>
@@ -6919,7 +6919,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B47" t="s">
         <v>34</v>
@@ -7002,7 +7002,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B48" t="s">
         <v>34</v>
@@ -7085,7 +7085,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B49" t="s">
         <v>34</v>
@@ -7103,7 +7103,7 @@
         <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H49" t="s">
         <v>34</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B50" t="s">
         <v>34</v>
@@ -7251,7 +7251,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B51" t="s">
         <v>34</v>
@@ -7334,7 +7334,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B52" t="s">
         <v>34</v>
@@ -7417,7 +7417,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B53" t="s">
         <v>34</v>
@@ -7432,7 +7432,7 @@
         <v>34</v>
       </c>
       <c r="F53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G53" t="s">
         <v>34</v>
@@ -7500,7 +7500,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B54" t="s">
         <v>34</v>
@@ -7518,7 +7518,7 @@
         <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H54" t="s">
         <v>34</v>
@@ -7583,7 +7583,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B55" t="s">
         <v>34</v>
@@ -7666,7 +7666,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B56" t="s">
         <v>34</v>
@@ -7749,7 +7749,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B57" t="s">
         <v>34</v>
@@ -7832,7 +7832,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B58" t="s">
         <v>34</v>
@@ -7915,7 +7915,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B59" t="s">
         <v>34</v>
@@ -7998,7 +7998,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B60" t="s">
         <v>34</v>
@@ -8081,7 +8081,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B61" t="s">
         <v>34</v>
@@ -8164,7 +8164,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B62" t="s">
         <v>34</v>
@@ -8247,7 +8247,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B63" t="s">
         <v>34</v>
@@ -8330,7 +8330,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B64" t="s">
         <v>34</v>
@@ -8413,7 +8413,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B65" t="s">
         <v>34</v>
@@ -8496,7 +8496,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B66" t="s">
         <v>34</v>
@@ -8514,7 +8514,7 @@
         <v>34</v>
       </c>
       <c r="G66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H66" t="s">
         <v>34</v>
@@ -8579,7 +8579,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B67" t="s">
         <v>34</v>
@@ -8597,7 +8597,7 @@
         <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H67" t="s">
         <v>34</v>
@@ -8662,7 +8662,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B68" t="s">
         <v>34</v>
@@ -8745,7 +8745,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B69" t="s">
         <v>34</v>
@@ -8828,7 +8828,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B70" t="s">
         <v>34</v>
@@ -8911,7 +8911,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B71" t="s">
         <v>34</v>
@@ -8994,7 +8994,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B72" t="s">
         <v>34</v>
@@ -9077,7 +9077,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B73" t="s">
         <v>34</v>
@@ -9160,7 +9160,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B74" t="s">
         <v>34</v>
@@ -9289,61 +9289,61 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>26</v>
@@ -9352,24 +9352,24 @@
         <v>27</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" t="s">
         <v>159</v>
-      </c>
-      <c r="B2" t="s">
-        <v>160</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
       </c>
       <c r="D2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" t="s">
         <v>161</v>
-      </c>
-      <c r="E2" t="s">
-        <v>162</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -9378,11 +9378,11 @@
         <v>1.0</v>
       </c>
       <c r="H2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" t="s">
         <v>163</v>
       </c>
-      <c r="I2" t="s">
-        <v>164</v>
-      </c>
       <c r="J2" t="s">
         <v>34</v>
       </c>
@@ -9396,7 +9396,7 @@
         <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O2" t="s">
         <v>34</v>
@@ -9425,19 +9425,19 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" t="s">
         <v>165</v>
-      </c>
-      <c r="B3" t="s">
-        <v>166</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -9446,10 +9446,10 @@
         <v>3.0</v>
       </c>
       <c r="H3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J3" t="s">
         <v>34</v>
@@ -9464,7 +9464,7 @@
         <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O3" t="s">
         <v>34</v>
@@ -9493,31 +9493,31 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" t="s">
         <v>168</v>
-      </c>
-      <c r="B4" t="s">
-        <v>169</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" t="s">
         <v>170</v>
-      </c>
-      <c r="F4" t="s">
-        <v>171</v>
       </c>
       <c r="G4" t="n">
         <v>1.0</v>
       </c>
       <c r="H4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J4" t="s">
         <v>34</v>
@@ -9532,7 +9532,7 @@
         <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
         <v>34</v>
@@ -9561,19 +9561,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" t="s">
         <v>173</v>
-      </c>
-      <c r="B5" t="s">
-        <v>174</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
       </c>
       <c r="D5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" t="s">
         <v>175</v>
-      </c>
-      <c r="E5" t="s">
-        <v>176</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -9582,10 +9582,10 @@
         <v>1.0</v>
       </c>
       <c r="H5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J5" t="s">
         <v>34</v>
@@ -9600,7 +9600,7 @@
         <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O5" t="s">
         <v>34</v>
@@ -9629,19 +9629,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" t="s">
         <v>178</v>
-      </c>
-      <c r="B6" t="s">
-        <v>179</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
       </c>
       <c r="D6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" t="s">
         <v>180</v>
-      </c>
-      <c r="E6" t="s">
-        <v>181</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
@@ -9650,10 +9650,10 @@
         <v>2.0</v>
       </c>
       <c r="H6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J6" t="s">
         <v>34</v>
@@ -9668,7 +9668,7 @@
         <v>34</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O6" t="s">
         <v>34</v>
@@ -9697,19 +9697,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" t="s">
         <v>183</v>
-      </c>
-      <c r="B7" t="s">
-        <v>184</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
@@ -9718,10 +9718,10 @@
         <v>3.0</v>
       </c>
       <c r="H7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J7" t="s">
         <v>34</v>
@@ -9736,7 +9736,7 @@
         <v>34</v>
       </c>
       <c r="N7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O7" t="s">
         <v>34</v>
@@ -9765,19 +9765,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" t="s">
         <v>187</v>
-      </c>
-      <c r="B8" t="s">
-        <v>188</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
@@ -9786,10 +9786,10 @@
         <v>1.0</v>
       </c>
       <c r="H8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J8" t="s">
         <v>34</v>
@@ -9804,7 +9804,7 @@
         <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O8" t="s">
         <v>34</v>
@@ -9833,19 +9833,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" t="s">
         <v>191</v>
-      </c>
-      <c r="B9" t="s">
-        <v>192</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F9" t="s">
         <v>34</v>
@@ -9854,10 +9854,10 @@
         <v>3.0</v>
       </c>
       <c r="H9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J9" t="s">
         <v>34</v>
@@ -9872,7 +9872,7 @@
         <v>34</v>
       </c>
       <c r="N9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O9" t="s">
         <v>34</v>
@@ -9901,19 +9901,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" t="s">
         <v>194</v>
-      </c>
-      <c r="B10" t="s">
-        <v>195</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
@@ -9922,10 +9922,10 @@
         <v>1.0</v>
       </c>
       <c r="H10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J10" t="s">
         <v>34</v>
@@ -9940,7 +9940,7 @@
         <v>34</v>
       </c>
       <c r="N10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O10" t="s">
         <v>34</v>
@@ -9969,19 +9969,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" t="s">
         <v>198</v>
-      </c>
-      <c r="B11" t="s">
-        <v>199</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
@@ -9990,10 +9990,10 @@
         <v>3.0</v>
       </c>
       <c r="H11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J11" t="s">
         <v>34</v>
@@ -10008,7 +10008,7 @@
         <v>34</v>
       </c>
       <c r="N11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O11" t="s">
         <v>34</v>
@@ -10037,19 +10037,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" t="s">
         <v>202</v>
-      </c>
-      <c r="B12" t="s">
-        <v>203</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
       <c r="D12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" t="s">
         <v>204</v>
-      </c>
-      <c r="E12" t="s">
-        <v>205</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
@@ -10058,10 +10058,10 @@
         <v>1.0</v>
       </c>
       <c r="H12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J12" t="s">
         <v>34</v>
@@ -10076,7 +10076,7 @@
         <v>34</v>
       </c>
       <c r="N12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O12" t="s">
         <v>34</v>
@@ -10105,31 +10105,31 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" t="s">
         <v>207</v>
-      </c>
-      <c r="B13" t="s">
-        <v>208</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
       </c>
       <c r="D13" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" t="s">
         <v>209</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>210</v>
-      </c>
-      <c r="F13" t="s">
-        <v>211</v>
       </c>
       <c r="G13" t="n">
         <v>1.0</v>
       </c>
       <c r="H13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J13" t="s">
         <v>34</v>
@@ -10144,7 +10144,7 @@
         <v>34</v>
       </c>
       <c r="N13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O13" t="s">
         <v>34</v>
@@ -10173,19 +10173,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" t="s">
         <v>213</v>
-      </c>
-      <c r="B14" t="s">
-        <v>214</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F14" t="s">
         <v>34</v>
@@ -10194,10 +10194,10 @@
         <v>3.0</v>
       </c>
       <c r="H14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J14" t="s">
         <v>34</v>
@@ -10241,31 +10241,31 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" t="s">
         <v>217</v>
-      </c>
-      <c r="B15" t="s">
-        <v>218</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G15" t="n">
         <v>1.0</v>
       </c>
       <c r="H15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J15" t="s">
         <v>34</v>
@@ -10309,31 +10309,31 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" t="s">
         <v>220</v>
-      </c>
-      <c r="B16" t="s">
-        <v>221</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G16" t="n">
         <v>3.0</v>
       </c>
       <c r="H16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J16" t="s">
         <v>34</v>
@@ -10377,19 +10377,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B17" t="s">
         <v>224</v>
-      </c>
-      <c r="B17" t="s">
-        <v>225</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
@@ -10398,10 +10398,10 @@
         <v>2.0</v>
       </c>
       <c r="H17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J17" t="s">
         <v>34</v>
@@ -10445,19 +10445,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" t="s">
         <v>228</v>
-      </c>
-      <c r="B18" t="s">
-        <v>229</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F18" t="s">
         <v>34</v>
@@ -10466,10 +10466,10 @@
         <v>2.0</v>
       </c>
       <c r="H18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J18" t="s">
         <v>34</v>
@@ -10513,19 +10513,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" t="s">
         <v>231</v>
-      </c>
-      <c r="B19" t="s">
-        <v>232</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
@@ -10534,10 +10534,10 @@
         <v>2.0</v>
       </c>
       <c r="H19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J19" t="s">
         <v>34</v>
@@ -10581,31 +10581,31 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" t="s">
         <v>235</v>
-      </c>
-      <c r="B20" t="s">
-        <v>236</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G20" t="n">
         <v>2.0</v>
       </c>
       <c r="H20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J20" t="s">
         <v>34</v>
@@ -10649,19 +10649,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" t="s">
         <v>239</v>
-      </c>
-      <c r="B21" t="s">
-        <v>240</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F21" t="s">
         <v>34</v>
@@ -10670,10 +10670,10 @@
         <v>1.0</v>
       </c>
       <c r="H21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J21" t="s">
         <v>34</v>
@@ -10717,31 +10717,31 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" t="s">
         <v>243</v>
-      </c>
-      <c r="B22" t="s">
-        <v>244</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
       </c>
       <c r="D22" t="s">
+        <v>244</v>
+      </c>
+      <c r="E22" t="s">
         <v>245</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>246</v>
-      </c>
-      <c r="F22" t="s">
-        <v>247</v>
       </c>
       <c r="G22" t="n">
         <v>1.0</v>
       </c>
       <c r="H22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J22" t="s">
         <v>34</v>
@@ -10785,19 +10785,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>247</v>
+      </c>
+      <c r="B23" t="s">
         <v>248</v>
-      </c>
-      <c r="B23" t="s">
-        <v>249</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F23" t="s">
         <v>34</v>
@@ -10806,10 +10806,10 @@
         <v>3.0</v>
       </c>
       <c r="H23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J23" t="s">
         <v>34</v>
@@ -10853,31 +10853,31 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>250</v>
+      </c>
+      <c r="B24" t="s">
         <v>251</v>
-      </c>
-      <c r="B24" t="s">
-        <v>252</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G24" t="n">
         <v>1.0</v>
       </c>
       <c r="H24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J24" t="s">
         <v>34</v>
@@ -10921,19 +10921,19 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>253</v>
+      </c>
+      <c r="B25" t="s">
         <v>254</v>
-      </c>
-      <c r="B25" t="s">
-        <v>255</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F25" t="s">
         <v>34</v>
@@ -10942,10 +10942,10 @@
         <v>2.0</v>
       </c>
       <c r="H25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J25" t="s">
         <v>34</v>
@@ -10989,19 +10989,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>255</v>
+      </c>
+      <c r="B26" t="s">
         <v>256</v>
-      </c>
-      <c r="B26" t="s">
-        <v>257</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F26" t="s">
         <v>34</v>
@@ -11010,10 +11010,10 @@
         <v>3.0</v>
       </c>
       <c r="H26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J26" t="s">
         <v>34</v>
@@ -11057,31 +11057,31 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>258</v>
+      </c>
+      <c r="B27" t="s">
         <v>259</v>
-      </c>
-      <c r="B27" t="s">
-        <v>260</v>
       </c>
       <c r="C27" t="s">
         <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G27" t="n">
         <v>1.0</v>
       </c>
       <c r="H27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J27" t="s">
         <v>34</v>
@@ -11125,19 +11125,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>261</v>
+      </c>
+      <c r="B28" t="s">
         <v>262</v>
-      </c>
-      <c r="B28" t="s">
-        <v>263</v>
       </c>
       <c r="C28" t="s">
         <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F28" t="s">
         <v>34</v>
@@ -11146,10 +11146,10 @@
         <v>1.0</v>
       </c>
       <c r="H28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J28" t="s">
         <v>34</v>
@@ -11193,19 +11193,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>264</v>
+      </c>
+      <c r="B29" t="s">
         <v>265</v>
-      </c>
-      <c r="B29" t="s">
-        <v>266</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F29" t="s">
         <v>34</v>
@@ -11214,10 +11214,10 @@
         <v>1.0</v>
       </c>
       <c r="H29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J29" t="s">
         <v>34</v>
@@ -11261,7 +11261,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s">
         <v>267</v>
@@ -11270,7 +11270,7 @@
         <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E30" t="s">
         <v>268</v>
@@ -11282,10 +11282,10 @@
         <v>1.0</v>
       </c>
       <c r="H30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J30" t="s">
         <v>34</v>
@@ -11338,10 +11338,10 @@
         <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -11350,10 +11350,10 @@
         <v>1.0</v>
       </c>
       <c r="H31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J31" t="s">
         <v>34</v>
@@ -11409,7 +11409,7 @@
         <v>273</v>
       </c>
       <c r="E32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F32" t="s">
         <v>34</v>
@@ -11418,10 +11418,10 @@
         <v>2.0</v>
       </c>
       <c r="H32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J32" t="s">
         <v>34</v>
@@ -11474,10 +11474,10 @@
         <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F33" t="s">
         <v>34</v>
@@ -11486,10 +11486,10 @@
         <v>2.0</v>
       </c>
       <c r="H33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J33" t="s">
         <v>34</v>
@@ -11542,7 +11542,7 @@
         <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E34" t="s">
         <v>278</v>
@@ -11554,10 +11554,10 @@
         <v>2.0</v>
       </c>
       <c r="H34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J34" t="s">
         <v>34</v>
@@ -11610,10 +11610,10 @@
         <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F35" t="s">
         <v>34</v>
@@ -11622,10 +11622,10 @@
         <v>1.0</v>
       </c>
       <c r="H35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J35" t="s">
         <v>34</v>
@@ -11678,7 +11678,7 @@
         <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E36" t="s">
         <v>283</v>
@@ -11690,10 +11690,10 @@
         <v>2.0</v>
       </c>
       <c r="H36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J36" t="s">
         <v>34</v>
@@ -11746,10 +11746,10 @@
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F37" t="s">
         <v>34</v>
@@ -11758,10 +11758,10 @@
         <v>1.0</v>
       </c>
       <c r="H37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J37" t="s">
         <v>34</v>
@@ -11814,10 +11814,10 @@
         <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F38" t="s">
         <v>34</v>
@@ -11826,10 +11826,10 @@
         <v>2.0</v>
       </c>
       <c r="H38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J38" t="s">
         <v>34</v>
@@ -11882,7 +11882,7 @@
         <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E39" t="s">
         <v>290</v>
@@ -11894,10 +11894,10 @@
         <v>3.0</v>
       </c>
       <c r="H39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J39" t="s">
         <v>34</v>
@@ -11953,7 +11953,7 @@
         <v>293</v>
       </c>
       <c r="E40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F40" t="s">
         <v>34</v>
@@ -11962,10 +11962,10 @@
         <v>1.0</v>
       </c>
       <c r="H40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J40" t="s">
         <v>34</v>
@@ -12018,10 +12018,10 @@
         <v>36</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F41" t="s">
         <v>34</v>
@@ -12033,7 +12033,7 @@
         <v>296</v>
       </c>
       <c r="I41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J41" t="s">
         <v>34</v>
@@ -12089,7 +12089,7 @@
         <v>299</v>
       </c>
       <c r="E42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F42" t="s">
         <v>34</v>
@@ -12098,10 +12098,10 @@
         <v>1.0</v>
       </c>
       <c r="H42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J42" t="s">
         <v>34</v>
@@ -12154,10 +12154,10 @@
         <v>36</v>
       </c>
       <c r="D43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F43" t="s">
         <v>34</v>
@@ -12166,10 +12166,10 @@
         <v>1.0</v>
       </c>
       <c r="H43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J43" t="s">
         <v>34</v>
@@ -12222,22 +12222,22 @@
         <v>36</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G44" t="n">
         <v>3.0</v>
       </c>
       <c r="H44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J44" t="s">
         <v>34</v>
@@ -12302,10 +12302,10 @@
         <v>3.0</v>
       </c>
       <c r="H45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J45" t="s">
         <v>34</v>
@@ -12358,10 +12358,10 @@
         <v>36</v>
       </c>
       <c r="D46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F46" t="s">
         <v>34</v>
@@ -12370,10 +12370,10 @@
         <v>1.0</v>
       </c>
       <c r="H46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J46" t="s">
         <v>34</v>
@@ -12429,7 +12429,7 @@
         <v>312</v>
       </c>
       <c r="E47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F47" t="s">
         <v>313</v>
@@ -12438,10 +12438,10 @@
         <v>3.0</v>
       </c>
       <c r="H47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J47" t="s">
         <v>34</v>
@@ -12494,10 +12494,10 @@
         <v>36</v>
       </c>
       <c r="D48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F48" t="s">
         <v>34</v>
@@ -12509,7 +12509,7 @@
         <v>316</v>
       </c>
       <c r="I48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J48" t="s">
         <v>34</v>
@@ -12565,7 +12565,7 @@
         <v>319</v>
       </c>
       <c r="E49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F49" t="s">
         <v>34</v>
@@ -12574,10 +12574,10 @@
         <v>3.0</v>
       </c>
       <c r="H49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J49" t="s">
         <v>34</v>
@@ -12633,7 +12633,7 @@
         <v>322</v>
       </c>
       <c r="E50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F50" t="s">
         <v>34</v>
@@ -12642,10 +12642,10 @@
         <v>3.0</v>
       </c>
       <c r="H50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J50" t="s">
         <v>34</v>
@@ -12701,7 +12701,7 @@
         <v>325</v>
       </c>
       <c r="E51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F51" t="s">
         <v>34</v>
@@ -12710,10 +12710,10 @@
         <v>1.0</v>
       </c>
       <c r="H51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J51" t="s">
         <v>34</v>
@@ -12766,10 +12766,10 @@
         <v>36</v>
       </c>
       <c r="D52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E52" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F52" t="s">
         <v>34</v>
@@ -12778,10 +12778,10 @@
         <v>3.0</v>
       </c>
       <c r="H52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J52" t="s">
         <v>34</v>
@@ -12834,10 +12834,10 @@
         <v>36</v>
       </c>
       <c r="D53" t="s">
+        <v>174</v>
+      </c>
+      <c r="E53" t="s">
         <v>175</v>
-      </c>
-      <c r="E53" t="s">
-        <v>176</v>
       </c>
       <c r="F53" t="s">
         <v>34</v>
@@ -12846,10 +12846,10 @@
         <v>3.0</v>
       </c>
       <c r="H53" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J53" t="s">
         <v>34</v>
@@ -12902,22 +12902,22 @@
         <v>36</v>
       </c>
       <c r="D54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E54" t="s">
         <v>332</v>
       </c>
       <c r="F54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G54" t="n">
         <v>1.0</v>
       </c>
       <c r="H54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J54" t="s">
         <v>34</v>
@@ -12973,7 +12973,7 @@
         <v>335</v>
       </c>
       <c r="E55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F55" t="s">
         <v>34</v>
@@ -12982,10 +12982,10 @@
         <v>2.0</v>
       </c>
       <c r="H55" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J55" t="s">
         <v>34</v>
@@ -13038,10 +13038,10 @@
         <v>36</v>
       </c>
       <c r="D56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F56" t="s">
         <v>34</v>
@@ -13050,10 +13050,10 @@
         <v>1.0</v>
       </c>
       <c r="H56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J56" t="s">
         <v>34</v>
@@ -13109,7 +13109,7 @@
         <v>340</v>
       </c>
       <c r="E57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F57" t="s">
         <v>34</v>
@@ -13118,10 +13118,10 @@
         <v>1.0</v>
       </c>
       <c r="H57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J57" t="s">
         <v>34</v>
@@ -13174,10 +13174,10 @@
         <v>36</v>
       </c>
       <c r="D58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E58" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F58" t="s">
         <v>34</v>
@@ -13186,10 +13186,10 @@
         <v>2.0</v>
       </c>
       <c r="H58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J58" t="s">
         <v>34</v>
@@ -13242,22 +13242,22 @@
         <v>36</v>
       </c>
       <c r="D59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F59" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G59" t="n">
         <v>1.0</v>
       </c>
       <c r="H59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J59" t="s">
         <v>34</v>
@@ -13310,7 +13310,7 @@
         <v>36</v>
       </c>
       <c r="D60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E60" t="s">
         <v>347</v>
@@ -13325,7 +13325,7 @@
         <v>296</v>
       </c>
       <c r="I60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J60" t="s">
         <v>34</v>
@@ -13378,7 +13378,7 @@
         <v>36</v>
       </c>
       <c r="D61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E61" t="s">
         <v>350</v>
@@ -13390,10 +13390,10 @@
         <v>2.0</v>
       </c>
       <c r="H61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J61" t="s">
         <v>34</v>
@@ -13446,10 +13446,10 @@
         <v>36</v>
       </c>
       <c r="D62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F62" t="s">
         <v>34</v>
@@ -13458,10 +13458,10 @@
         <v>2.0</v>
       </c>
       <c r="H62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J62" t="s">
         <v>34</v>
@@ -13526,10 +13526,10 @@
         <v>3.0</v>
       </c>
       <c r="H63" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J63" t="s">
         <v>34</v>
@@ -13582,22 +13582,22 @@
         <v>36</v>
       </c>
       <c r="D64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E64" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F64" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G64" t="n">
         <v>3.0</v>
       </c>
       <c r="H64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I64" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J64" t="s">
         <v>34</v>
@@ -13650,22 +13650,22 @@
         <v>36</v>
       </c>
       <c r="D65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G65" t="n">
         <v>1.0</v>
       </c>
       <c r="H65" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J65" t="s">
         <v>34</v>
@@ -13718,10 +13718,10 @@
         <v>36</v>
       </c>
       <c r="D66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F66" t="s">
         <v>34</v>
@@ -13730,10 +13730,10 @@
         <v>1.0</v>
       </c>
       <c r="H66" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J66" t="s">
         <v>34</v>
@@ -13801,7 +13801,7 @@
         <v>316</v>
       </c>
       <c r="I67" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J67" t="s">
         <v>34</v>
@@ -13854,10 +13854,10 @@
         <v>36</v>
       </c>
       <c r="D68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E68" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F68" t="s">
         <v>34</v>
@@ -13866,10 +13866,10 @@
         <v>1.0</v>
       </c>
       <c r="H68" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J68" t="s">
         <v>34</v>
@@ -13922,10 +13922,10 @@
         <v>36</v>
       </c>
       <c r="D69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E69" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F69" t="s">
         <v>34</v>
@@ -13934,10 +13934,10 @@
         <v>2.0</v>
       </c>
       <c r="H69" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J69" t="s">
         <v>34</v>
@@ -13993,7 +13993,7 @@
         <v>372</v>
       </c>
       <c r="E70" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F70" t="s">
         <v>34</v>
@@ -14002,10 +14002,10 @@
         <v>2.0</v>
       </c>
       <c r="H70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I70" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J70" t="s">
         <v>34</v>
@@ -14058,10 +14058,10 @@
         <v>36</v>
       </c>
       <c r="D71" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E71" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F71" t="s">
         <v>313</v>
@@ -14070,10 +14070,10 @@
         <v>2.0</v>
       </c>
       <c r="H71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J71" t="s">
         <v>34</v>
@@ -14126,7 +14126,7 @@
         <v>36</v>
       </c>
       <c r="D72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E72" t="s">
         <v>377</v>
@@ -14138,10 +14138,10 @@
         <v>1.0</v>
       </c>
       <c r="H72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J72" t="s">
         <v>34</v>
@@ -14197,7 +14197,7 @@
         <v>380</v>
       </c>
       <c r="E73" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F73" t="s">
         <v>34</v>
@@ -14206,10 +14206,10 @@
         <v>1.0</v>
       </c>
       <c r="H73" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J73" t="s">
         <v>34</v>
@@ -14262,10 +14262,10 @@
         <v>36</v>
       </c>
       <c r="D74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E74" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F74" t="s">
         <v>34</v>
@@ -14274,10 +14274,10 @@
         <v>3.0</v>
       </c>
       <c r="H74" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I74" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J74" t="s">
         <v>34</v>
@@ -14333,7 +14333,7 @@
         <v>385</v>
       </c>
       <c r="E75" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F75" t="s">
         <v>34</v>
@@ -14342,10 +14342,10 @@
         <v>1.0</v>
       </c>
       <c r="H75" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I75" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J75" t="s">
         <v>34</v>
@@ -14401,7 +14401,7 @@
         <v>388</v>
       </c>
       <c r="E76" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F76" t="s">
         <v>34</v>
@@ -14410,10 +14410,10 @@
         <v>2.0</v>
       </c>
       <c r="H76" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I76" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J76" t="s">
         <v>34</v>
@@ -14466,10 +14466,10 @@
         <v>36</v>
       </c>
       <c r="D77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E77" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F77" t="s">
         <v>34</v>
@@ -14478,10 +14478,10 @@
         <v>3.0</v>
       </c>
       <c r="H77" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I77" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J77" t="s">
         <v>34</v>
@@ -14534,10 +14534,10 @@
         <v>36</v>
       </c>
       <c r="D78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E78" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F78" t="s">
         <v>34</v>
@@ -14546,10 +14546,10 @@
         <v>1.0</v>
       </c>
       <c r="H78" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I78" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J78" t="s">
         <v>34</v>
@@ -14605,7 +14605,7 @@
         <v>395</v>
       </c>
       <c r="E79" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F79" t="s">
         <v>34</v>
@@ -14617,7 +14617,7 @@
         <v>296</v>
       </c>
       <c r="I79" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J79" t="s">
         <v>34</v>
@@ -14673,7 +14673,7 @@
         <v>398</v>
       </c>
       <c r="E80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F80" t="s">
         <v>313</v>
@@ -14682,10 +14682,10 @@
         <v>2.0</v>
       </c>
       <c r="H80" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J80" t="s">
         <v>34</v>
@@ -14738,10 +14738,10 @@
         <v>36</v>
       </c>
       <c r="D81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E81" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F81" t="s">
         <v>34</v>
@@ -14750,10 +14750,10 @@
         <v>3.0</v>
       </c>
       <c r="H81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J81" t="s">
         <v>34</v>
@@ -14806,10 +14806,10 @@
         <v>36</v>
       </c>
       <c r="D82" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
         <v>34</v>
@@ -14818,10 +14818,10 @@
         <v>1.0</v>
       </c>
       <c r="H82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J82" t="s">
         <v>34</v>
@@ -14874,7 +14874,7 @@
         <v>36</v>
       </c>
       <c r="D83" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E83" t="s">
         <v>405</v>
@@ -14886,10 +14886,10 @@
         <v>1.0</v>
       </c>
       <c r="H83" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J83" t="s">
         <v>34</v>
@@ -14945,7 +14945,7 @@
         <v>408</v>
       </c>
       <c r="E84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F84" t="s">
         <v>34</v>
@@ -14954,10 +14954,10 @@
         <v>3.0</v>
       </c>
       <c r="H84" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I84" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J84" t="s">
         <v>34</v>
@@ -15010,10 +15010,10 @@
         <v>36</v>
       </c>
       <c r="D85" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E85" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F85" t="s">
         <v>34</v>
@@ -15022,10 +15022,10 @@
         <v>2.0</v>
       </c>
       <c r="H85" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J85" t="s">
         <v>34</v>
@@ -15078,7 +15078,7 @@
         <v>36</v>
       </c>
       <c r="D86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E86" t="s">
         <v>413</v>
@@ -15090,10 +15090,10 @@
         <v>2.0</v>
       </c>
       <c r="H86" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J86" t="s">
         <v>34</v>
@@ -15149,7 +15149,7 @@
         <v>416</v>
       </c>
       <c r="E87" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F87" t="s">
         <v>34</v>
@@ -15158,10 +15158,10 @@
         <v>1.0</v>
       </c>
       <c r="H87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J87" t="s">
         <v>34</v>
@@ -15217,19 +15217,19 @@
         <v>419</v>
       </c>
       <c r="E88" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F88" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G88" t="n">
         <v>3.0</v>
       </c>
       <c r="H88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I88" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J88" t="s">
         <v>34</v>
@@ -15285,19 +15285,19 @@
         <v>299</v>
       </c>
       <c r="E89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F89" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G89" t="n">
         <v>3.0</v>
       </c>
       <c r="H89" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J89" t="s">
         <v>34</v>
@@ -15353,19 +15353,19 @@
         <v>424</v>
       </c>
       <c r="E90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F90" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G90" t="n">
         <v>3.0</v>
       </c>
       <c r="H90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J90" t="s">
         <v>34</v>
@@ -15418,22 +15418,22 @@
         <v>36</v>
       </c>
       <c r="D91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F91" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G91" t="n">
         <v>2.0</v>
       </c>
       <c r="H91" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I91" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J91" t="s">
         <v>34</v>
@@ -15486,10 +15486,10 @@
         <v>36</v>
       </c>
       <c r="D92" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E92" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F92" t="s">
         <v>34</v>
@@ -15498,10 +15498,10 @@
         <v>1.0</v>
       </c>
       <c r="H92" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I92" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J92" t="s">
         <v>34</v>
@@ -15554,10 +15554,10 @@
         <v>36</v>
       </c>
       <c r="D93" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F93" t="s">
         <v>34</v>
@@ -15566,10 +15566,10 @@
         <v>3.0</v>
       </c>
       <c r="H93" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I93" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J93" t="s">
         <v>34</v>
@@ -15622,10 +15622,10 @@
         <v>36</v>
       </c>
       <c r="D94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E94" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F94" t="s">
         <v>34</v>
@@ -15634,10 +15634,10 @@
         <v>1.0</v>
       </c>
       <c r="H94" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I94" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J94" t="s">
         <v>34</v>
@@ -15696,16 +15696,16 @@
         <v>436</v>
       </c>
       <c r="F95" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G95" t="n">
         <v>1.0</v>
       </c>
       <c r="H95" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I95" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J95" t="s">
         <v>34</v>
@@ -15761,7 +15761,7 @@
         <v>439</v>
       </c>
       <c r="E96" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F96" t="s">
         <v>34</v>
@@ -15770,10 +15770,10 @@
         <v>2.0</v>
       </c>
       <c r="H96" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I96" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J96" t="s">
         <v>34</v>
@@ -15829,7 +15829,7 @@
         <v>442</v>
       </c>
       <c r="E97" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F97" t="s">
         <v>34</v>
@@ -15838,10 +15838,10 @@
         <v>3.0</v>
       </c>
       <c r="H97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I97" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J97" t="s">
         <v>34</v>
@@ -15894,13 +15894,13 @@
         <v>36</v>
       </c>
       <c r="D98" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E98" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F98" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G98" t="n">
         <v>2.0</v>
@@ -15909,7 +15909,7 @@
         <v>296</v>
       </c>
       <c r="I98" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J98" t="s">
         <v>34</v>
@@ -15962,10 +15962,10 @@
         <v>36</v>
       </c>
       <c r="D99" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E99" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F99" t="s">
         <v>34</v>
@@ -15974,10 +15974,10 @@
         <v>3.0</v>
       </c>
       <c r="H99" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I99" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J99" t="s">
         <v>34</v>
@@ -16033,7 +16033,7 @@
         <v>449</v>
       </c>
       <c r="E100" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F100" t="s">
         <v>34</v>
@@ -16042,10 +16042,10 @@
         <v>3.0</v>
       </c>
       <c r="H100" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I100" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J100" t="s">
         <v>34</v>
@@ -16098,7 +16098,7 @@
         <v>36</v>
       </c>
       <c r="D101" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E101" t="s">
         <v>452</v>
@@ -16110,10 +16110,10 @@
         <v>2.0</v>
       </c>
       <c r="H101" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I101" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J101" t="s">
         <v>34</v>
@@ -16166,10 +16166,10 @@
         <v>36</v>
       </c>
       <c r="D102" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E102" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F102" t="s">
         <v>34</v>
@@ -16178,10 +16178,10 @@
         <v>1.0</v>
       </c>
       <c r="H102" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I102" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J102" t="s">
         <v>34</v>
@@ -16234,22 +16234,22 @@
         <v>36</v>
       </c>
       <c r="D103" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E103" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F103" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G103" t="n">
         <v>3.0</v>
       </c>
       <c r="H103" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J103" t="s">
         <v>34</v>
@@ -16302,10 +16302,10 @@
         <v>36</v>
       </c>
       <c r="D104" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F104" t="s">
         <v>34</v>
@@ -16314,10 +16314,10 @@
         <v>1.0</v>
       </c>
       <c r="H104" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J104" t="s">
         <v>34</v>
@@ -16370,22 +16370,22 @@
         <v>36</v>
       </c>
       <c r="D105" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E105" t="s">
         <v>461</v>
       </c>
       <c r="F105" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G105" t="n">
         <v>1.0</v>
       </c>
       <c r="H105" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I105" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J105" t="s">
         <v>34</v>
@@ -16441,19 +16441,19 @@
         <v>340</v>
       </c>
       <c r="E106" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F106" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G106" t="n">
         <v>1.0</v>
       </c>
       <c r="H106" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I106" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J106" t="s">
         <v>34</v>
@@ -16506,10 +16506,10 @@
         <v>36</v>
       </c>
       <c r="D107" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E107" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F107" t="s">
         <v>34</v>
@@ -16518,10 +16518,10 @@
         <v>2.0</v>
       </c>
       <c r="H107" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I107" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J107" t="s">
         <v>34</v>
@@ -16577,7 +16577,7 @@
         <v>468</v>
       </c>
       <c r="E108" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F108" t="s">
         <v>34</v>
@@ -16586,10 +16586,10 @@
         <v>1.0</v>
       </c>
       <c r="H108" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I108" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J108" t="s">
         <v>34</v>
@@ -16642,22 +16642,22 @@
         <v>36</v>
       </c>
       <c r="D109" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E109" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F109" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>1.0</v>
       </c>
       <c r="H109" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I109" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J109" t="s">
         <v>34</v>
@@ -16798,7 +16798,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>47</v>
@@ -16862,8 +16862,8 @@
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
-        <v>55</v>
+      <c r="C3" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
@@ -16916,7 +16916,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>34</v>
@@ -16975,7 +16975,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>34</v>
@@ -17034,7 +17034,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>34</v>
@@ -17093,7 +17093,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -17152,7 +17152,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>34</v>
@@ -17211,7 +17211,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>34</v>
@@ -17270,7 +17270,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>34</v>
@@ -17329,7 +17329,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>34</v>
@@ -17388,7 +17388,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -17608,7 +17608,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -17667,7 +17667,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -17726,7 +17726,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -17785,7 +17785,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -17844,7 +17844,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -17903,7 +17903,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -17962,7 +17962,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>34</v>
@@ -18021,7 +18021,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -18080,7 +18080,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
@@ -18139,7 +18139,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -18198,7 +18198,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -18257,7 +18257,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -18316,7 +18316,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -18375,7 +18375,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -18434,7 +18434,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -18493,7 +18493,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
@@ -18552,7 +18552,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -18611,7 +18611,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -18670,7 +18670,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -18729,7 +18729,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
@@ -18788,7 +18788,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
@@ -18847,7 +18847,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
@@ -18906,7 +18906,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
@@ -18965,7 +18965,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
@@ -19024,7 +19024,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
@@ -19083,7 +19083,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
@@ -19142,7 +19142,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
@@ -19201,7 +19201,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
@@ -19260,7 +19260,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
@@ -19319,7 +19319,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
@@ -19378,7 +19378,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -19437,7 +19437,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
@@ -19496,7 +19496,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
@@ -19555,7 +19555,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
@@ -19614,7 +19614,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B37" t="s">
         <v>34</v>
@@ -19673,7 +19673,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
@@ -19732,7 +19732,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s">
         <v>34</v>
@@ -19791,7 +19791,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>34</v>
@@ -19850,7 +19850,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B41" t="s">
         <v>34</v>
@@ -19909,7 +19909,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B42" t="s">
         <v>34</v>
@@ -19968,7 +19968,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B43" t="s">
         <v>34</v>
@@ -20027,7 +20027,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B44" t="s">
         <v>34</v>
@@ -20086,13 +20086,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s">
         <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>266</v>
       </c>
       <c r="D45" t="s">
         <v>34</v>
@@ -20145,7 +20145,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B46" t="s">
         <v>34</v>
@@ -20204,7 +20204,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B47" t="s">
         <v>34</v>
@@ -20263,7 +20263,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B48" t="s">
         <v>34</v>
@@ -20322,7 +20322,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B49" t="s">
         <v>34</v>
@@ -20381,7 +20381,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B50" t="s">
         <v>34</v>
@@ -20440,7 +20440,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B51" t="s">
         <v>34</v>
@@ -20499,7 +20499,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B52" t="s">
         <v>34</v>
@@ -20558,7 +20558,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B53" t="s">
         <v>34</v>
@@ -20617,7 +20617,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B54" t="s">
         <v>34</v>
@@ -20676,7 +20676,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B55" t="s">
         <v>34</v>
@@ -20735,7 +20735,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B56" t="s">
         <v>34</v>
@@ -20794,7 +20794,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B57" t="s">
         <v>34</v>
@@ -20853,7 +20853,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B58" t="s">
         <v>34</v>
@@ -20912,7 +20912,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B59" t="s">
         <v>34</v>
@@ -20971,7 +20971,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B60" t="s">
         <v>34</v>
@@ -21030,7 +21030,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B61" t="s">
         <v>34</v>
@@ -21089,7 +21089,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B62" t="s">
         <v>34</v>
@@ -21148,7 +21148,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B63" t="s">
         <v>34</v>
@@ -21207,7 +21207,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B64" t="s">
         <v>34</v>
@@ -21266,7 +21266,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B65" t="s">
         <v>34</v>
@@ -21325,7 +21325,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B66" t="s">
         <v>34</v>
@@ -21384,7 +21384,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B67" t="s">
         <v>34</v>
@@ -21443,7 +21443,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B68" t="s">
         <v>34</v>
@@ -21502,7 +21502,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B69" t="s">
         <v>34</v>
@@ -21561,7 +21561,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B70" t="s">
         <v>34</v>
@@ -21620,7 +21620,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B71" t="s">
         <v>34</v>
@@ -21679,7 +21679,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B72" t="s">
         <v>34</v>
@@ -21738,7 +21738,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>34</v>
@@ -21797,7 +21797,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B74" t="s">
         <v>34</v>
@@ -21876,7 +21876,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.71875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.82421875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
@@ -22017,11 +22017,11 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>266</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -22042,11 +22042,11 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4"/>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>266</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
@@ -20,8 +20,83 @@
 </workbook>
 </file>
 
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <t>S028: Securing scalable Hibernate
+  Chad Poe
+  PINNED BY USER</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <t>S028: Securing scalable Hibernate
+  Chad Poe
+  PINNED BY USER</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C45" authorId="0">
+      <text>
+        <t>S028: Securing scalable Hibernate
+  Chad Poe
+  PINNED BY USER</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <t>S028: Securing scalable Hibernate
+  Chad Poe
+  PINNED BY USER</t>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0">
+      <text>
+        <t>S028: Securing scalable Hibernate
+  Chad Poe
+  PINNED BY USER</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6300" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6351" uniqueCount="479">
   <si>
     <t>Conference name</t>
   </si>
@@ -1776,6 +1851,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1928,26 +2006,60 @@
       <c r="A3" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="D3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells>
@@ -1957,6 +2069,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -16743,6 +16856,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17508,11 +17624,15 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21917,11 +22037,15 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22074,51 +22198,119 @@
       <c r="A3" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="D3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="C4" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="D4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells>
@@ -22128,11 +22320,15 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6619" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6619" uniqueCount="522">
   <si>
     <t>Conference name</t>
   </si>
@@ -311,367 +311,370 @@
     <t>End</t>
   </si>
   <si>
+    <t>Talk types</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Mon 2018-10-01</t>
+  </si>
+  <si>
+    <t>10:15</t>
+  </si>
+  <si>
+    <t>12:15</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>Breakout</t>
+  </si>
+  <si>
+    <t>11:30</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>16:15</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>17:15</t>
+  </si>
+  <si>
+    <t>Tue 2018-10-02</t>
+  </si>
+  <si>
+    <t>Wed 2018-10-03</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>10:15-12:15</t>
+  </si>
+  <si>
+    <t>10:15-11:00</t>
+  </si>
+  <si>
+    <t>11:30-12:15</t>
+  </si>
+  <si>
+    <t>13:00-15:00</t>
+  </si>
+  <si>
+    <t>15:30-16:15</t>
+  </si>
+  <si>
+    <t>16:30-17:15</t>
+  </si>
+  <si>
+    <t>R 1</t>
+  </si>
+  <si>
+    <t>Large, Recorded</t>
+  </si>
+  <si>
+    <t>R 2</t>
+  </si>
+  <si>
+    <t>R 3</t>
+  </si>
+  <si>
+    <t>Recorded</t>
+  </si>
+  <si>
+    <t>R 4</t>
+  </si>
+  <si>
+    <t>R 5</t>
+  </si>
+  <si>
+    <t>Lab_room, Large, Recorded</t>
+  </si>
+  <si>
+    <t>R 6</t>
+  </si>
+  <si>
+    <t>R 7</t>
+  </si>
+  <si>
+    <t>R 8</t>
+  </si>
+  <si>
+    <t>R 9</t>
+  </si>
+  <si>
+    <t>R 10</t>
+  </si>
+  <si>
+    <t>Lab_room</t>
+  </si>
+  <si>
+    <t>Required timeslot tags</t>
+  </si>
+  <si>
+    <t>Preferred timeslot tags</t>
+  </si>
+  <si>
+    <t>Prohibited timeslot tags</t>
+  </si>
+  <si>
+    <t>Undesired timeslot tags</t>
+  </si>
+  <si>
+    <t>Required room tags</t>
+  </si>
+  <si>
+    <t>Preferred room tags</t>
+  </si>
+  <si>
+    <t>Prohibited room tags</t>
+  </si>
+  <si>
+    <t>Undesired room tags</t>
+  </si>
+  <si>
+    <t>Amy Cole</t>
+  </si>
+  <si>
+    <t>Beth Fox</t>
+  </si>
+  <si>
+    <t>Chad Green</t>
+  </si>
+  <si>
+    <t>Dan Jones</t>
+  </si>
+  <si>
+    <t>Elsa King</t>
+  </si>
+  <si>
+    <t>Flo Li</t>
+  </si>
+  <si>
+    <t>Gus Poe</t>
+  </si>
+  <si>
+    <t>Hugo Rye</t>
+  </si>
+  <si>
+    <t>Ivy Smith</t>
+  </si>
+  <si>
+    <t>Jay Watt</t>
+  </si>
+  <si>
+    <t>Amy Fox</t>
+  </si>
+  <si>
+    <t>Beth Green</t>
+  </si>
+  <si>
+    <t>Chad Jones</t>
+  </si>
+  <si>
+    <t>Dan King</t>
+  </si>
+  <si>
+    <t>Elsa Li</t>
+  </si>
+  <si>
+    <t>Flo Poe</t>
+  </si>
+  <si>
+    <t>Gus Rye</t>
+  </si>
+  <si>
+    <t>Hugo Smith</t>
+  </si>
+  <si>
+    <t>Ivy Watt</t>
+  </si>
+  <si>
+    <t>Jay Cole</t>
+  </si>
+  <si>
+    <t>Amy Green</t>
+  </si>
+  <si>
+    <t>Beth Jones</t>
+  </si>
+  <si>
+    <t>Chad King</t>
+  </si>
+  <si>
+    <t>Dan Li</t>
+  </si>
+  <si>
+    <t>Elsa Poe</t>
+  </si>
+  <si>
+    <t>Flo Rye</t>
+  </si>
+  <si>
+    <t>Gus Smith</t>
+  </si>
+  <si>
+    <t>Hugo Watt</t>
+  </si>
+  <si>
+    <t>Ivy Cole</t>
+  </si>
+  <si>
+    <t>Jay Fox</t>
+  </si>
+  <si>
+    <t>Amy Jones</t>
+  </si>
+  <si>
+    <t>Beth King</t>
+  </si>
+  <si>
+    <t>Chad Li</t>
+  </si>
+  <si>
+    <t>Dan Poe</t>
+  </si>
+  <si>
+    <t>Elsa Rye</t>
+  </si>
+  <si>
+    <t>Flo Smith</t>
+  </si>
+  <si>
+    <t>Gus Watt</t>
+  </si>
+  <si>
+    <t>Hugo Cole</t>
+  </si>
+  <si>
+    <t>Ivy Fox</t>
+  </si>
+  <si>
+    <t>Jay Green</t>
+  </si>
+  <si>
+    <t>Amy King</t>
+  </si>
+  <si>
+    <t>Beth Li</t>
+  </si>
+  <si>
+    <t>Chad Poe</t>
+  </si>
+  <si>
+    <t>Dan Rye</t>
+  </si>
+  <si>
+    <t>Elsa Smith</t>
+  </si>
+  <si>
+    <t>Flo Watt</t>
+  </si>
+  <si>
+    <t>Gus Cole</t>
+  </si>
+  <si>
+    <t>Hugo Fox</t>
+  </si>
+  <si>
+    <t>Ivy Green</t>
+  </si>
+  <si>
+    <t>Jay Jones</t>
+  </si>
+  <si>
+    <t>Amy Li</t>
+  </si>
+  <si>
+    <t>Beth Poe</t>
+  </si>
+  <si>
+    <t>Chad Rye</t>
+  </si>
+  <si>
+    <t>Dan Smith</t>
+  </si>
+  <si>
+    <t>Elsa Watt</t>
+  </si>
+  <si>
+    <t>Flo Cole</t>
+  </si>
+  <si>
+    <t>Gus Fox</t>
+  </si>
+  <si>
+    <t>Hugo Green</t>
+  </si>
+  <si>
+    <t>Ivy Jones</t>
+  </si>
+  <si>
+    <t>Jay King</t>
+  </si>
+  <si>
+    <t>Amy Poe</t>
+  </si>
+  <si>
+    <t>Beth Rye</t>
+  </si>
+  <si>
+    <t>Chad Smith</t>
+  </si>
+  <si>
+    <t>Dan Watt</t>
+  </si>
+  <si>
+    <t>Elsa Cole</t>
+  </si>
+  <si>
+    <t>Flo Fox</t>
+  </si>
+  <si>
+    <t>Gus Green</t>
+  </si>
+  <si>
+    <t>Hugo Jones</t>
+  </si>
+  <si>
+    <t>Ivy King</t>
+  </si>
+  <si>
+    <t>Jay Li</t>
+  </si>
+  <si>
+    <t>Amy Rye</t>
+  </si>
+  <si>
+    <t>Beth Smith</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
     <t>Talk type</t>
-  </si>
-  <si>
-    <t>Tags</t>
-  </si>
-  <si>
-    <t>Mon 2018-10-01</t>
-  </si>
-  <si>
-    <t>10:15</t>
-  </si>
-  <si>
-    <t>12:15</t>
-  </si>
-  <si>
-    <t>Lab</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>Breakout</t>
-  </si>
-  <si>
-    <t>11:30</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>15:30</t>
-  </si>
-  <si>
-    <t>16:15</t>
-  </si>
-  <si>
-    <t>16:30</t>
-  </si>
-  <si>
-    <t>17:15</t>
-  </si>
-  <si>
-    <t>Tue 2018-10-02</t>
-  </si>
-  <si>
-    <t>Wed 2018-10-03</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>10:15-12:15</t>
-  </si>
-  <si>
-    <t>10:15-11:00</t>
-  </si>
-  <si>
-    <t>11:30-12:15</t>
-  </si>
-  <si>
-    <t>13:00-15:00</t>
-  </si>
-  <si>
-    <t>15:30-16:15</t>
-  </si>
-  <si>
-    <t>16:30-17:15</t>
-  </si>
-  <si>
-    <t>R 1</t>
-  </si>
-  <si>
-    <t>Large, Recorded</t>
-  </si>
-  <si>
-    <t>R 2</t>
-  </si>
-  <si>
-    <t>R 3</t>
-  </si>
-  <si>
-    <t>Recorded</t>
-  </si>
-  <si>
-    <t>R 4</t>
-  </si>
-  <si>
-    <t>R 5</t>
-  </si>
-  <si>
-    <t>Lab_room, Large, Recorded</t>
-  </si>
-  <si>
-    <t>R 6</t>
-  </si>
-  <si>
-    <t>R 7</t>
-  </si>
-  <si>
-    <t>R 8</t>
-  </si>
-  <si>
-    <t>R 9</t>
-  </si>
-  <si>
-    <t>R 10</t>
-  </si>
-  <si>
-    <t>Lab_room</t>
-  </si>
-  <si>
-    <t>Required timeslot tags</t>
-  </si>
-  <si>
-    <t>Preferred timeslot tags</t>
-  </si>
-  <si>
-    <t>Prohibited timeslot tags</t>
-  </si>
-  <si>
-    <t>Undesired timeslot tags</t>
-  </si>
-  <si>
-    <t>Required room tags</t>
-  </si>
-  <si>
-    <t>Preferred room tags</t>
-  </si>
-  <si>
-    <t>Prohibited room tags</t>
-  </si>
-  <si>
-    <t>Undesired room tags</t>
-  </si>
-  <si>
-    <t>Amy Cole</t>
-  </si>
-  <si>
-    <t>Beth Fox</t>
-  </si>
-  <si>
-    <t>Chad Green</t>
-  </si>
-  <si>
-    <t>Dan Jones</t>
-  </si>
-  <si>
-    <t>Elsa King</t>
-  </si>
-  <si>
-    <t>Flo Li</t>
-  </si>
-  <si>
-    <t>Gus Poe</t>
-  </si>
-  <si>
-    <t>Hugo Rye</t>
-  </si>
-  <si>
-    <t>Ivy Smith</t>
-  </si>
-  <si>
-    <t>Jay Watt</t>
-  </si>
-  <si>
-    <t>Amy Fox</t>
-  </si>
-  <si>
-    <t>Beth Green</t>
-  </si>
-  <si>
-    <t>Chad Jones</t>
-  </si>
-  <si>
-    <t>Dan King</t>
-  </si>
-  <si>
-    <t>Elsa Li</t>
-  </si>
-  <si>
-    <t>Flo Poe</t>
-  </si>
-  <si>
-    <t>Gus Rye</t>
-  </si>
-  <si>
-    <t>Hugo Smith</t>
-  </si>
-  <si>
-    <t>Ivy Watt</t>
-  </si>
-  <si>
-    <t>Jay Cole</t>
-  </si>
-  <si>
-    <t>Amy Green</t>
-  </si>
-  <si>
-    <t>Beth Jones</t>
-  </si>
-  <si>
-    <t>Chad King</t>
-  </si>
-  <si>
-    <t>Dan Li</t>
-  </si>
-  <si>
-    <t>Elsa Poe</t>
-  </si>
-  <si>
-    <t>Flo Rye</t>
-  </si>
-  <si>
-    <t>Gus Smith</t>
-  </si>
-  <si>
-    <t>Hugo Watt</t>
-  </si>
-  <si>
-    <t>Ivy Cole</t>
-  </si>
-  <si>
-    <t>Jay Fox</t>
-  </si>
-  <si>
-    <t>Amy Jones</t>
-  </si>
-  <si>
-    <t>Beth King</t>
-  </si>
-  <si>
-    <t>Chad Li</t>
-  </si>
-  <si>
-    <t>Dan Poe</t>
-  </si>
-  <si>
-    <t>Elsa Rye</t>
-  </si>
-  <si>
-    <t>Flo Smith</t>
-  </si>
-  <si>
-    <t>Gus Watt</t>
-  </si>
-  <si>
-    <t>Hugo Cole</t>
-  </si>
-  <si>
-    <t>Ivy Fox</t>
-  </si>
-  <si>
-    <t>Jay Green</t>
-  </si>
-  <si>
-    <t>Amy King</t>
-  </si>
-  <si>
-    <t>Beth Li</t>
-  </si>
-  <si>
-    <t>Chad Poe</t>
-  </si>
-  <si>
-    <t>Dan Rye</t>
-  </si>
-  <si>
-    <t>Elsa Smith</t>
-  </si>
-  <si>
-    <t>Flo Watt</t>
-  </si>
-  <si>
-    <t>Gus Cole</t>
-  </si>
-  <si>
-    <t>Hugo Fox</t>
-  </si>
-  <si>
-    <t>Ivy Green</t>
-  </si>
-  <si>
-    <t>Jay Jones</t>
-  </si>
-  <si>
-    <t>Amy Li</t>
-  </si>
-  <si>
-    <t>Beth Poe</t>
-  </si>
-  <si>
-    <t>Chad Rye</t>
-  </si>
-  <si>
-    <t>Dan Smith</t>
-  </si>
-  <si>
-    <t>Elsa Watt</t>
-  </si>
-  <si>
-    <t>Flo Cole</t>
-  </si>
-  <si>
-    <t>Gus Fox</t>
-  </si>
-  <si>
-    <t>Hugo Green</t>
-  </si>
-  <si>
-    <t>Ivy Jones</t>
-  </si>
-  <si>
-    <t>Jay King</t>
-  </si>
-  <si>
-    <t>Amy Poe</t>
-  </si>
-  <si>
-    <t>Beth Rye</t>
-  </si>
-  <si>
-    <t>Chad Smith</t>
-  </si>
-  <si>
-    <t>Dan Watt</t>
-  </si>
-  <si>
-    <t>Elsa Cole</t>
-  </si>
-  <si>
-    <t>Flo Fox</t>
-  </si>
-  <si>
-    <t>Gus Green</t>
-  </si>
-  <si>
-    <t>Hugo Jones</t>
-  </si>
-  <si>
-    <t>Ivy King</t>
-  </si>
-  <si>
-    <t>Jay Li</t>
-  </si>
-  <si>
-    <t>Amy Rye</t>
-  </si>
-  <si>
-    <t>Beth Smith</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Title</t>
   </si>
   <si>
     <t>Speakers</t>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>78</v>
@@ -2352,13 +2355,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -2517,7 +2520,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>78</v>
@@ -2576,13 +2579,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -2741,7 +2744,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>78</v>
@@ -2800,13 +2803,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -2883,7 +2886,7 @@
     <col min="1" max="1" width="16.0078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="6.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="6.0859375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.41796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.29296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="5.1484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -10241,28 +10244,28 @@
         <v>179</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>98</v>
@@ -10289,10 +10292,10 @@
         <v>105</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>57</v>
@@ -10301,39 +10304,39 @@
         <v>58</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>65</v>
@@ -10377,34 +10380,34 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>65</v>
@@ -10448,34 +10451,34 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>65</v>
@@ -10519,10 +10522,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>64</v>
@@ -10531,22 +10534,22 @@
         <v>112</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>65</v>
@@ -10590,10 +10593,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>64</v>
@@ -10602,22 +10605,22 @@
         <v>113</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>65</v>
@@ -10661,10 +10664,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>64</v>
@@ -10673,22 +10676,22 @@
         <v>114</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>65</v>
@@ -10732,34 +10735,34 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>65</v>
@@ -10803,10 +10806,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>64</v>
@@ -10815,22 +10818,22 @@
         <v>117</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>65</v>
@@ -10874,10 +10877,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>64</v>
@@ -10886,22 +10889,22 @@
         <v>118</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>65</v>
@@ -10945,10 +10948,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>64</v>
@@ -10957,22 +10960,22 @@
         <v>119</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>65</v>
@@ -11016,34 +11019,34 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>65</v>
@@ -11087,10 +11090,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>64</v>
@@ -11099,22 +11102,22 @@
         <v>122</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>65</v>
@@ -11158,34 +11161,34 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>65</v>
@@ -11229,10 +11232,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>67</v>
@@ -11241,22 +11244,22 @@
         <v>125</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>65</v>
@@ -11300,10 +11303,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>67</v>
@@ -11312,22 +11315,22 @@
         <v>126</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>65</v>
@@ -11371,10 +11374,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>67</v>
@@ -11383,22 +11386,22 @@
         <v>127</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>65</v>
@@ -11442,34 +11445,34 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>65</v>
@@ -11513,10 +11516,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>67</v>
@@ -11525,22 +11528,22 @@
         <v>130</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>65</v>
@@ -11584,10 +11587,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>67</v>
@@ -11596,22 +11599,22 @@
         <v>131</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>65</v>
@@ -11655,10 +11658,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>67</v>
@@ -11667,22 +11670,22 @@
         <v>132</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>65</v>
@@ -11726,10 +11729,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>67</v>
@@ -11738,22 +11741,22 @@
         <v>133</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>65</v>
@@ -11797,10 +11800,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>67</v>
@@ -11809,22 +11812,22 @@
         <v>134</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>65</v>
@@ -11868,34 +11871,34 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>65</v>
@@ -11939,10 +11942,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>67</v>
@@ -11951,22 +11954,22 @@
         <v>137</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>65</v>
@@ -12010,34 +12013,34 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>65</v>
@@ -12081,10 +12084,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>67</v>
@@ -12093,22 +12096,22 @@
         <v>140</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>65</v>
@@ -12152,10 +12155,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>67</v>
@@ -12164,22 +12167,22 @@
         <v>141</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>65</v>
@@ -12223,34 +12226,34 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>65</v>
@@ -12294,34 +12297,34 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>65</v>
@@ -12365,10 +12368,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>67</v>
@@ -12377,22 +12380,22 @@
         <v>146</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>65</v>
@@ -12436,10 +12439,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>67</v>
@@ -12448,22 +12451,22 @@
         <v>147</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>65</v>
@@ -12507,10 +12510,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>67</v>
@@ -12519,22 +12522,22 @@
         <v>148</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>65</v>
@@ -12578,10 +12581,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>67</v>
@@ -12590,22 +12593,22 @@
         <v>149</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>65</v>
@@ -12649,10 +12652,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>67</v>
@@ -12661,22 +12664,22 @@
         <v>150</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>65</v>
@@ -12720,34 +12723,34 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>65</v>
@@ -12791,10 +12794,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>67</v>
@@ -12803,22 +12806,22 @@
         <v>153</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>65</v>
@@ -12862,34 +12865,34 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>65</v>
@@ -12933,34 +12936,34 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>65</v>
@@ -13004,10 +13007,10 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>67</v>
@@ -13016,22 +13019,22 @@
         <v>158</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>65</v>
@@ -13075,34 +13078,34 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>65</v>
@@ -13146,10 +13149,10 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>67</v>
@@ -13158,22 +13161,22 @@
         <v>161</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>65</v>
@@ -13217,34 +13220,34 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>65</v>
@@ -13288,10 +13291,10 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>67</v>
@@ -13300,22 +13303,22 @@
         <v>166</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>65</v>
@@ -13359,10 +13362,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>67</v>
@@ -13371,22 +13374,22 @@
         <v>167</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>65</v>
@@ -13430,10 +13433,10 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>67</v>
@@ -13442,22 +13445,22 @@
         <v>168</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>65</v>
@@ -13501,10 +13504,10 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>67</v>
@@ -13513,22 +13516,22 @@
         <v>169</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>65</v>
@@ -13572,10 +13575,10 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>67</v>
@@ -13584,22 +13587,22 @@
         <v>170</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>65</v>
@@ -13643,10 +13646,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>67</v>
@@ -13655,22 +13658,22 @@
         <v>171</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>65</v>
@@ -13714,34 +13717,34 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>65</v>
@@ -13785,10 +13788,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>67</v>
@@ -13797,22 +13800,22 @@
         <v>174</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>65</v>
@@ -13856,34 +13859,34 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>65</v>
@@ -13927,34 +13930,34 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>65</v>
@@ -13998,34 +14001,34 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>65</v>
@@ -14069,10 +14072,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>67</v>
@@ -14081,22 +14084,22 @@
         <v>109</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>65</v>
@@ -14140,10 +14143,10 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>67</v>
@@ -14152,22 +14155,22 @@
         <v>110</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>65</v>
@@ -14211,34 +14214,34 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>65</v>
@@ -14282,34 +14285,34 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>65</v>
@@ -14353,10 +14356,10 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>67</v>
@@ -14365,22 +14368,22 @@
         <v>115</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>65</v>
@@ -14424,34 +14427,34 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>65</v>
@@ -14495,10 +14498,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>67</v>
@@ -14507,22 +14510,22 @@
         <v>118</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>65</v>
@@ -14566,34 +14569,34 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>65</v>
@@ -14637,10 +14640,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>67</v>
@@ -14649,22 +14652,22 @@
         <v>121</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>65</v>
@@ -14708,10 +14711,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>67</v>
@@ -14720,22 +14723,22 @@
         <v>122</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>65</v>
@@ -14779,10 +14782,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>67</v>
@@ -14791,22 +14794,22 @@
         <v>123</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>65</v>
@@ -14850,34 +14853,34 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>65</v>
@@ -14921,10 +14924,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>67</v>
@@ -14933,22 +14936,22 @@
         <v>126</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H67" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>65</v>
@@ -14992,34 +14995,34 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>65</v>
@@ -15063,10 +15066,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>67</v>
@@ -15075,22 +15078,22 @@
         <v>129</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H69" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>65</v>
@@ -15134,10 +15137,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>67</v>
@@ -15146,22 +15149,22 @@
         <v>130</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>65</v>
@@ -15205,34 +15208,34 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>65</v>
@@ -15276,34 +15279,34 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>65</v>
@@ -15347,10 +15350,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>67</v>
@@ -15359,22 +15362,22 @@
         <v>135</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>65</v>
@@ -15418,10 +15421,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>67</v>
@@ -15430,22 +15433,22 @@
         <v>136</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H74" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>65</v>
@@ -15489,10 +15492,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>67</v>
@@ -15501,22 +15504,22 @@
         <v>137</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H75" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>65</v>
@@ -15560,10 +15563,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>67</v>
@@ -15572,22 +15575,22 @@
         <v>138</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H76" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>65</v>
@@ -15631,10 +15634,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>67</v>
@@ -15643,22 +15646,22 @@
         <v>139</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H77" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>65</v>
@@ -15702,10 +15705,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>67</v>
@@ -15714,22 +15717,22 @@
         <v>140</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H78" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>65</v>
@@ -15773,34 +15776,34 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H79" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>65</v>
@@ -15844,34 +15847,34 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H80" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>65</v>
@@ -15915,10 +15918,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>67</v>
@@ -15927,22 +15930,22 @@
         <v>145</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H81" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>65</v>
@@ -15986,34 +15989,34 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H82" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>65</v>
@@ -16057,10 +16060,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>67</v>
@@ -16069,22 +16072,22 @@
         <v>148</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H83" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>65</v>
@@ -16128,10 +16131,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>67</v>
@@ -16140,22 +16143,22 @@
         <v>149</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H84" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>65</v>
@@ -16199,34 +16202,34 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H85" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>65</v>
@@ -16270,34 +16273,34 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H86" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>65</v>
@@ -16341,34 +16344,34 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H87" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>65</v>
@@ -16412,34 +16415,34 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H88" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>65</v>
@@ -16483,10 +16486,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>67</v>
@@ -16495,22 +16498,22 @@
         <v>159</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H89" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>65</v>
@@ -16554,10 +16557,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>67</v>
@@ -16566,22 +16569,22 @@
         <v>160</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H90" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>65</v>
@@ -16625,34 +16628,34 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H91" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>65</v>
@@ -16696,10 +16699,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>67</v>
@@ -16708,22 +16711,22 @@
         <v>164</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H92" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>65</v>
@@ -16767,34 +16770,34 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H93" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>65</v>
@@ -16838,10 +16841,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>67</v>
@@ -16850,22 +16853,22 @@
         <v>167</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H94" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>65</v>
@@ -16909,34 +16912,34 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H95" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>65</v>
@@ -16980,34 +16983,34 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H96" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>65</v>
@@ -17051,10 +17054,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>67</v>
@@ -17063,22 +17066,22 @@
         <v>172</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H97" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>65</v>
@@ -17122,34 +17125,34 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H98" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>65</v>
@@ -17193,34 +17196,34 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H99" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>65</v>
@@ -17264,10 +17267,10 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>67</v>
@@ -17276,22 +17279,22 @@
         <v>177</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H100" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>65</v>
@@ -17335,10 +17338,10 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>67</v>
@@ -17347,22 +17350,22 @@
         <v>106</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H101" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>65</v>
@@ -17406,34 +17409,34 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H102" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>65</v>
@@ -17477,10 +17480,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>67</v>
@@ -17489,22 +17492,22 @@
         <v>109</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H103" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K103" s="2" t="s">
         <v>65</v>
@@ -17548,10 +17551,10 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>67</v>
@@ -17560,22 +17563,22 @@
         <v>110</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H104" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>65</v>
@@ -17619,34 +17622,34 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H105" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>65</v>
@@ -17690,10 +17693,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>67</v>
@@ -17702,22 +17705,22 @@
         <v>113</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H106" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>65</v>
@@ -17761,34 +17764,34 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H107" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>65</v>
@@ -17832,10 +17835,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>67</v>
@@ -17844,22 +17847,22 @@
         <v>116</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H108" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>65</v>
@@ -17903,10 +17906,10 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>67</v>
@@ -17915,22 +17918,22 @@
         <v>117</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H109" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>65</v>
@@ -18093,7 +18096,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>78</v>
@@ -18158,7 +18161,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -18848,7 +18851,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>78</v>
@@ -20742,7 +20745,7 @@
         <v>65</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>65</v>
@@ -23261,7 +23264,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>78</v>
@@ -23320,13 +23323,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -23379,13 +23382,13 @@
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>65</v>
@@ -23544,7 +23547,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>78</v>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
@@ -11,32 +11,16 @@
     <sheet name="Rooms" r:id="rId5" sheetId="3"/>
     <sheet name="Speakers" r:id="rId6" sheetId="4"/>
     <sheet name="Talks" r:id="rId7" sheetId="5"/>
-    <sheet name="Rooms view" r:id="rId8" sheetId="6"/>
-    <sheet name="Speakers view" r:id="rId9" sheetId="7"/>
-    <sheet name="Theme tracks view" r:id="rId10" sheetId="8"/>
-    <sheet name="Sectors view" r:id="rId11" sheetId="9"/>
-    <sheet name="Audience type view" r:id="rId12" sheetId="10"/>
-    <sheet name="Audience level view" r:id="rId13" sheetId="11"/>
-    <sheet name="Contents view" r:id="rId14" sheetId="12"/>
+    <sheet name="Score view" r:id="rId8" sheetId="6"/>
+    <sheet name="Rooms view" r:id="rId9" sheetId="7"/>
+    <sheet name="Speakers view" r:id="rId10" sheetId="8"/>
+    <sheet name="Theme tracks view" r:id="rId11" sheetId="9"/>
+    <sheet name="Sectors view" r:id="rId12" sheetId="10"/>
+    <sheet name="Audience type view" r:id="rId13" sheetId="11"/>
+    <sheet name="Audience level view" r:id="rId14" sheetId="12"/>
+    <sheet name="Contents view" r:id="rId15" sheetId="13"/>
   </sheets>
 </workbook>
-</file>
-
-<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="C3" authorId="0">
-      <text>
-        <t>S073: Grok distributed Tensorflow
-  Beth King
-  PINNED BY USER</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -73,7 +57,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -96,6 +80,23 @@
     <author/>
   </authors>
   <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <t>S073: Grok distributed Tensorflow
+  Beth King
+  PINNED BY USER</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
     <comment ref="C34" authorId="0">
       <text>
         <t>S073: Grok distributed Tensorflow
@@ -107,7 +108,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -132,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6619" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6640" uniqueCount="526">
   <si>
     <t>Conference name</t>
   </si>
@@ -407,9 +408,6 @@
     <t>R 5</t>
   </si>
   <si>
-    <t>Lab_room, Large, Recorded</t>
-  </si>
-  <si>
     <t>R 6</t>
   </si>
   <si>
@@ -425,9 +423,6 @@
     <t>R 10</t>
   </si>
   <si>
-    <t>Lab_room</t>
-  </si>
-  <si>
     <t>Required timeslot tags</t>
   </si>
   <si>
@@ -1674,6 +1669,24 @@
   </si>
   <si>
     <t>Building deep learning Angular</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>-214init</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Usable timeslots</t>
+  </si>
+  <si>
+    <t>Usable rooms</t>
+  </si>
+  <si>
+    <t>Usable sessions</t>
   </si>
   <si>
     <t>S073: Grok distributed Tensorflow
@@ -1806,6 +1819,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
@@ -2214,6 +2231,170 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
+    <col min="1" max="1" width="10.23828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="11.86328125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:S1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
     <col min="1" max="1" width="14.1953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
@@ -2296,7 +2477,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>78</v>
@@ -2355,13 +2536,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -2424,7 +2605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FCE94F"/>
@@ -2520,7 +2701,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>78</v>
@@ -2579,13 +2760,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -2648,7 +2829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FCE94F"/>
@@ -2744,7 +2925,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>78</v>
@@ -2803,13 +2984,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -3231,8 +3412,8 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="6.48828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.6328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="10.29296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.51171875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
@@ -3250,6 +3431,7 @@
     <col min="18" max="18" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="11.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3260,11 +3442,11 @@
         <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E1" s="1" t="s">
         <v>65</v>
       </c>
@@ -3278,11 +3460,11 @@
         <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="K1" s="1" t="s">
         <v>65</v>
       </c>
@@ -3296,11 +3478,11 @@
         <v>65</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="Q1" s="1" t="s">
         <v>65</v>
       </c>
@@ -3311,6 +3493,9 @@
         <v>65</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3319,60 +3504,63 @@
         <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3381,60 +3569,63 @@
         <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>65</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="O3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>65</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S3" s="2" t="s">
+      <c r="R3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>65</v>
       </c>
       <c r="T3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3443,60 +3634,63 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>65</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="L4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" s="2" t="s">
+      <c r="O4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>65</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="R4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S4" s="2" t="s">
+      <c r="R4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>65</v>
       </c>
       <c r="T4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U4" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3505,60 +3699,63 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="I5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>65</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="L5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P5" s="2" t="s">
+      <c r="O5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>65</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S5" s="2" t="s">
+      <c r="R5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S5" s="3" t="s">
         <v>65</v>
       </c>
       <c r="T5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U5" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3567,60 +3764,63 @@
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="I6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>65</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="L6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P6" s="2" t="s">
+      <c r="O6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>65</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="R6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S6" s="2" t="s">
+      <c r="R6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S6" s="3" t="s">
         <v>65</v>
       </c>
       <c r="T6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U6" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3629,378 +3829,396 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="I7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" s="3" t="s">
+      <c r="L7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7" s="3" t="s">
+      <c r="O7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="S7" s="3" t="s">
+      <c r="R7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="T7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="U7" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="I8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>65</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M8" s="2" t="s">
+      <c r="L8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P8" s="2" t="s">
+      <c r="O8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>65</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S8" s="2" t="s">
+      <c r="R8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S8" s="3" t="s">
         <v>65</v>
       </c>
       <c r="T8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U8" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="I9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>65</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M9" s="2" t="s">
+      <c r="L9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P9" s="2" t="s">
+      <c r="O9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>65</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S9" s="2" t="s">
+      <c r="R9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S9" s="3" t="s">
         <v>65</v>
       </c>
       <c r="T9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U9" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="I10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>65</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M10" s="2" t="s">
+      <c r="L10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P10" s="2" t="s">
+      <c r="O10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>65</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S10" s="2" t="s">
+      <c r="R10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S10" s="3" t="s">
         <v>65</v>
       </c>
       <c r="T10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U10" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="I11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>65</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="2" t="s">
+      <c r="L11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P11" s="2" t="s">
+      <c r="O11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>65</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="R11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S11" s="2" t="s">
+      <c r="R11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S11" s="3" t="s">
         <v>65</v>
       </c>
       <c r="T11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U11" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="I12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M12" s="3" t="s">
+      <c r="L12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P12" s="3" t="s">
+      <c r="O12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="R12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="S12" s="3" t="s">
+      <c r="R12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="S12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="T12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="U12" s="3" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="P1:U1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -4135,28 +4353,28 @@
         <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>78</v>
@@ -4215,7 +4433,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>65</v>
@@ -4298,7 +4516,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>65</v>
@@ -4381,7 +4599,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>65</v>
@@ -4464,7 +4682,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>65</v>
@@ -4547,7 +4765,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>65</v>
@@ -4630,7 +4848,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>65</v>
@@ -4713,7 +4931,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>65</v>
@@ -4796,7 +5014,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>65</v>
@@ -4879,7 +5097,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>65</v>
@@ -4962,7 +5180,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>65</v>
@@ -5045,7 +5263,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>65</v>
@@ -5128,7 +5346,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>65</v>
@@ -5211,7 +5429,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>65</v>
@@ -5294,7 +5512,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>65</v>
@@ -5377,7 +5595,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>65</v>
@@ -5460,7 +5678,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>65</v>
@@ -5543,7 +5761,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>65</v>
@@ -5626,7 +5844,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>65</v>
@@ -5709,7 +5927,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>65</v>
@@ -5792,7 +6010,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>65</v>
@@ -5875,7 +6093,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>65</v>
@@ -5958,7 +6176,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>65</v>
@@ -6041,7 +6259,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>65</v>
@@ -6124,7 +6342,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
@@ -6207,7 +6425,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>65</v>
@@ -6290,7 +6508,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>65</v>
@@ -6373,7 +6591,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>65</v>
@@ -6456,7 +6674,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>65</v>
@@ -6539,7 +6757,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>65</v>
@@ -6622,7 +6840,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>65</v>
@@ -6705,7 +6923,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>65</v>
@@ -6788,7 +7006,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>65</v>
@@ -6871,7 +7089,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>65</v>
@@ -6954,7 +7172,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>65</v>
@@ -7037,7 +7255,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>65</v>
@@ -7120,7 +7338,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>65</v>
@@ -7203,7 +7421,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>65</v>
@@ -7286,7 +7504,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>65</v>
@@ -7369,7 +7587,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>65</v>
@@ -7452,7 +7670,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>65</v>
@@ -7535,7 +7753,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>65</v>
@@ -7618,7 +7836,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>65</v>
@@ -7701,7 +7919,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>65</v>
@@ -7784,7 +8002,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>65</v>
@@ -7867,7 +8085,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>65</v>
@@ -7950,7 +8168,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>65</v>
@@ -8033,7 +8251,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>65</v>
@@ -8116,7 +8334,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>65</v>
@@ -8199,7 +8417,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>65</v>
@@ -8282,7 +8500,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>65</v>
@@ -8365,7 +8583,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>65</v>
@@ -8448,7 +8666,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>65</v>
@@ -8531,7 +8749,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>65</v>
@@ -8614,7 +8832,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>65</v>
@@ -8697,7 +8915,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>65</v>
@@ -8780,7 +8998,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>65</v>
@@ -8863,7 +9081,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>65</v>
@@ -8946,7 +9164,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>65</v>
@@ -9029,7 +9247,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>65</v>
@@ -9112,7 +9330,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>65</v>
@@ -9195,7 +9413,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>65</v>
@@ -9278,7 +9496,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>65</v>
@@ -9361,7 +9579,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>65</v>
@@ -9444,7 +9662,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>65</v>
@@ -9527,7 +9745,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>65</v>
@@ -9610,7 +9828,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>65</v>
@@ -9693,7 +9911,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>65</v>
@@ -9776,7 +9994,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>65</v>
@@ -9859,7 +10077,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>65</v>
@@ -9942,7 +10160,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>65</v>
@@ -10025,7 +10243,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>65</v>
@@ -10108,7 +10326,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>65</v>
@@ -10238,64 +10456,64 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>57</v>
@@ -10304,39 +10522,39 @@
         <v>58</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>65</v>
@@ -10351,7 +10569,7 @@
         <v>65</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>65</v>
@@ -10380,34 +10598,34 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>65</v>
@@ -10422,7 +10640,7 @@
         <v>65</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>65</v>
@@ -10451,34 +10669,34 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>65</v>
@@ -10493,7 +10711,7 @@
         <v>65</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>65</v>
@@ -10522,34 +10740,34 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>65</v>
@@ -10564,7 +10782,7 @@
         <v>65</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>65</v>
@@ -10593,34 +10811,34 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>65</v>
@@ -10635,7 +10853,7 @@
         <v>65</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>65</v>
@@ -10664,34 +10882,34 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>65</v>
@@ -10706,7 +10924,7 @@
         <v>65</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>65</v>
@@ -10735,34 +10953,34 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>65</v>
@@ -10777,7 +10995,7 @@
         <v>65</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>65</v>
@@ -10806,34 +11024,34 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>65</v>
@@ -10848,7 +11066,7 @@
         <v>65</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>65</v>
@@ -10877,34 +11095,34 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>65</v>
@@ -10919,7 +11137,7 @@
         <v>65</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>65</v>
@@ -10948,34 +11166,34 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>65</v>
@@ -10990,7 +11208,7 @@
         <v>65</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>65</v>
@@ -11019,34 +11237,34 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>65</v>
@@ -11061,7 +11279,7 @@
         <v>65</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>65</v>
@@ -11090,34 +11308,34 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>65</v>
@@ -11132,7 +11350,7 @@
         <v>65</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>65</v>
@@ -11161,34 +11379,34 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>65</v>
@@ -11232,34 +11450,34 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>65</v>
@@ -11303,34 +11521,34 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>65</v>
@@ -11374,34 +11592,34 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>65</v>
@@ -11445,34 +11663,34 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>65</v>
@@ -11516,34 +11734,34 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>65</v>
@@ -11587,34 +11805,34 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>65</v>
@@ -11658,34 +11876,34 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>65</v>
@@ -11729,34 +11947,34 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>65</v>
@@ -11800,34 +12018,34 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>65</v>
@@ -11871,34 +12089,34 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>65</v>
@@ -11942,34 +12160,34 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>65</v>
@@ -12013,34 +12231,34 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>65</v>
@@ -12084,34 +12302,34 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>65</v>
@@ -12155,34 +12373,34 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>65</v>
@@ -12226,34 +12444,34 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>65</v>
@@ -12297,34 +12515,34 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>65</v>
@@ -12368,34 +12586,34 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>65</v>
@@ -12439,34 +12657,34 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>65</v>
@@ -12510,34 +12728,34 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>65</v>
@@ -12581,34 +12799,34 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>65</v>
@@ -12652,34 +12870,34 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>65</v>
@@ -12723,34 +12941,34 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>65</v>
@@ -12794,34 +13012,34 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>65</v>
@@ -12865,34 +13083,34 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>65</v>
@@ -12936,34 +13154,34 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>65</v>
@@ -13007,34 +13225,34 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>65</v>
@@ -13078,34 +13296,34 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>65</v>
@@ -13149,34 +13367,34 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>65</v>
@@ -13220,34 +13438,34 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>65</v>
@@ -13291,34 +13509,34 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>65</v>
@@ -13362,34 +13580,34 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>65</v>
@@ -13433,34 +13651,34 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>65</v>
@@ -13504,34 +13722,34 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>65</v>
@@ -13575,34 +13793,34 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>65</v>
@@ -13646,34 +13864,34 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>65</v>
@@ -13717,34 +13935,34 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>65</v>
@@ -13788,34 +14006,34 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>65</v>
@@ -13859,34 +14077,34 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>65</v>
@@ -13930,34 +14148,34 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>65</v>
@@ -14001,34 +14219,34 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>65</v>
@@ -14072,34 +14290,34 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>65</v>
@@ -14143,34 +14361,34 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>65</v>
@@ -14214,34 +14432,34 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>65</v>
@@ -14285,34 +14503,34 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>65</v>
@@ -14356,34 +14574,34 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>65</v>
@@ -14427,34 +14645,34 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>65</v>
@@ -14498,34 +14716,34 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>65</v>
@@ -14569,34 +14787,34 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>65</v>
@@ -14640,34 +14858,34 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>65</v>
@@ -14711,34 +14929,34 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>65</v>
@@ -14782,34 +15000,34 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>65</v>
@@ -14853,34 +15071,34 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>65</v>
@@ -14924,34 +15142,34 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H67" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>65</v>
@@ -14995,34 +15213,34 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>65</v>
@@ -15066,34 +15284,34 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H69" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>65</v>
@@ -15137,34 +15355,34 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>65</v>
@@ -15208,34 +15426,34 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>65</v>
@@ -15279,34 +15497,34 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>65</v>
@@ -15350,34 +15568,34 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>65</v>
@@ -15421,34 +15639,34 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H74" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>65</v>
@@ -15492,34 +15710,34 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H75" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>65</v>
@@ -15563,34 +15781,34 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H76" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>65</v>
@@ -15634,34 +15852,34 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H77" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>65</v>
@@ -15705,34 +15923,34 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H78" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>65</v>
@@ -15776,34 +15994,34 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H79" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>65</v>
@@ -15847,34 +16065,34 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H80" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>65</v>
@@ -15918,34 +16136,34 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H81" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>65</v>
@@ -15989,34 +16207,34 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H82" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>65</v>
@@ -16060,34 +16278,34 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H83" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>65</v>
@@ -16131,34 +16349,34 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H84" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>65</v>
@@ -16202,34 +16420,34 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H85" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>65</v>
@@ -16273,34 +16491,34 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H86" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>65</v>
@@ -16344,34 +16562,34 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H87" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>65</v>
@@ -16415,34 +16633,34 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H88" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>65</v>
@@ -16486,34 +16704,34 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H89" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>65</v>
@@ -16557,34 +16775,34 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H90" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>65</v>
@@ -16628,34 +16846,34 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H91" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>65</v>
@@ -16699,34 +16917,34 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H92" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>65</v>
@@ -16770,34 +16988,34 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H93" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>65</v>
@@ -16841,34 +17059,34 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H94" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>65</v>
@@ -16912,34 +17130,34 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H95" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>65</v>
@@ -16983,34 +17201,34 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H96" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>65</v>
@@ -17054,34 +17272,34 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H97" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>65</v>
@@ -17125,34 +17343,34 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H98" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>65</v>
@@ -17196,34 +17414,34 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H99" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>65</v>
@@ -17267,34 +17485,34 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H100" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>65</v>
@@ -17338,34 +17556,34 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H101" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>65</v>
@@ -17409,34 +17627,34 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H102" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>65</v>
@@ -17480,34 +17698,34 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H103" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K103" s="2" t="s">
         <v>65</v>
@@ -17551,34 +17769,34 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H104" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>65</v>
@@ -17622,34 +17840,34 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H105" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>65</v>
@@ -17693,34 +17911,34 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H106" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>65</v>
@@ -17764,34 +17982,34 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H107" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>65</v>
@@ -17835,34 +18053,34 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H108" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>65</v>
@@ -17906,34 +18124,34 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H109" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>65</v>
@@ -17982,6 +18200,93 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="9.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.95703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.22265625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.59375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="15.30078125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>96.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FCE94F"/>
@@ -18096,7 +18401,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>78</v>
@@ -18161,7 +18466,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -18450,7 +18755,7 @@
     </row>
     <row r="8" ht="60.0" customHeight="true">
       <c r="A8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>65</v>
@@ -18509,7 +18814,7 @@
     </row>
     <row r="9" ht="60.0" customHeight="true">
       <c r="A9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>65</v>
@@ -18568,7 +18873,7 @@
     </row>
     <row r="10" ht="60.0" customHeight="true">
       <c r="A10" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>65</v>
@@ -18627,7 +18932,7 @@
     </row>
     <row r="11" ht="60.0" customHeight="true">
       <c r="A11" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>65</v>
@@ -18686,7 +18991,7 @@
     </row>
     <row r="12" ht="60.0" customHeight="true">
       <c r="A12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>65</v>
@@ -18755,7 +19060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FCE94F"/>
@@ -18851,7 +19156,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>78</v>
@@ -18910,7 +19215,7 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
@@ -18969,7 +19274,7 @@
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>65</v>
@@ -19028,7 +19333,7 @@
     </row>
     <row r="5" ht="15.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>65</v>
@@ -19087,7 +19392,7 @@
     </row>
     <row r="6" ht="15.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>65</v>
@@ -19146,7 +19451,7 @@
     </row>
     <row r="7" ht="15.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>65</v>
@@ -19205,7 +19510,7 @@
     </row>
     <row r="8" ht="15.0" customHeight="true">
       <c r="A8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>65</v>
@@ -19264,7 +19569,7 @@
     </row>
     <row r="9" ht="15.0" customHeight="true">
       <c r="A9" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>65</v>
@@ -19323,7 +19628,7 @@
     </row>
     <row r="10" ht="15.0" customHeight="true">
       <c r="A10" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>65</v>
@@ -19382,7 +19687,7 @@
     </row>
     <row r="11" ht="15.0" customHeight="true">
       <c r="A11" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>65</v>
@@ -19441,7 +19746,7 @@
     </row>
     <row r="12" ht="15.0" customHeight="true">
       <c r="A12" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>65</v>
@@ -19500,7 +19805,7 @@
     </row>
     <row r="13" ht="15.0" customHeight="true">
       <c r="A13" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>65</v>
@@ -19559,7 +19864,7 @@
     </row>
     <row r="14" ht="15.0" customHeight="true">
       <c r="A14" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>65</v>
@@ -19618,7 +19923,7 @@
     </row>
     <row r="15" ht="15.0" customHeight="true">
       <c r="A15" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>65</v>
@@ -19677,7 +19982,7 @@
     </row>
     <row r="16" ht="15.0" customHeight="true">
       <c r="A16" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>65</v>
@@ -19736,7 +20041,7 @@
     </row>
     <row r="17" ht="15.0" customHeight="true">
       <c r="A17" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>65</v>
@@ -19795,7 +20100,7 @@
     </row>
     <row r="18" ht="15.0" customHeight="true">
       <c r="A18" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>65</v>
@@ -19854,7 +20159,7 @@
     </row>
     <row r="19" ht="15.0" customHeight="true">
       <c r="A19" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>65</v>
@@ -19913,7 +20218,7 @@
     </row>
     <row r="20" ht="15.0" customHeight="true">
       <c r="A20" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>65</v>
@@ -19972,7 +20277,7 @@
     </row>
     <row r="21" ht="15.0" customHeight="true">
       <c r="A21" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>65</v>
@@ -20031,7 +20336,7 @@
     </row>
     <row r="22" ht="15.0" customHeight="true">
       <c r="A22" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>65</v>
@@ -20090,7 +20395,7 @@
     </row>
     <row r="23" ht="15.0" customHeight="true">
       <c r="A23" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>65</v>
@@ -20149,7 +20454,7 @@
     </row>
     <row r="24" ht="15.0" customHeight="true">
       <c r="A24" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>65</v>
@@ -20208,7 +20513,7 @@
     </row>
     <row r="25" ht="15.0" customHeight="true">
       <c r="A25" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>65</v>
@@ -20267,7 +20572,7 @@
     </row>
     <row r="26" ht="15.0" customHeight="true">
       <c r="A26" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>65</v>
@@ -20326,7 +20631,7 @@
     </row>
     <row r="27" ht="15.0" customHeight="true">
       <c r="A27" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>65</v>
@@ -20385,7 +20690,7 @@
     </row>
     <row r="28" ht="15.0" customHeight="true">
       <c r="A28" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>65</v>
@@ -20444,7 +20749,7 @@
     </row>
     <row r="29" ht="15.0" customHeight="true">
       <c r="A29" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>65</v>
@@ -20503,7 +20808,7 @@
     </row>
     <row r="30" ht="15.0" customHeight="true">
       <c r="A30" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>65</v>
@@ -20562,7 +20867,7 @@
     </row>
     <row r="31" ht="15.0" customHeight="true">
       <c r="A31" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>65</v>
@@ -20621,7 +20926,7 @@
     </row>
     <row r="32" ht="15.0" customHeight="true">
       <c r="A32" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>65</v>
@@ -20680,7 +20985,7 @@
     </row>
     <row r="33" ht="15.0" customHeight="true">
       <c r="A33" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>65</v>
@@ -20739,13 +21044,13 @@
     </row>
     <row r="34" ht="15.0" customHeight="true">
       <c r="A34" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>65</v>
@@ -20798,7 +21103,7 @@
     </row>
     <row r="35" ht="15.0" customHeight="true">
       <c r="A35" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>65</v>
@@ -20857,7 +21162,7 @@
     </row>
     <row r="36" ht="15.0" customHeight="true">
       <c r="A36" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>65</v>
@@ -20916,7 +21221,7 @@
     </row>
     <row r="37" ht="15.0" customHeight="true">
       <c r="A37" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>65</v>
@@ -20975,7 +21280,7 @@
     </row>
     <row r="38" ht="15.0" customHeight="true">
       <c r="A38" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>65</v>
@@ -21034,7 +21339,7 @@
     </row>
     <row r="39" ht="15.0" customHeight="true">
       <c r="A39" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>65</v>
@@ -21093,7 +21398,7 @@
     </row>
     <row r="40" ht="15.0" customHeight="true">
       <c r="A40" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>65</v>
@@ -21152,7 +21457,7 @@
     </row>
     <row r="41" ht="15.0" customHeight="true">
       <c r="A41" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>65</v>
@@ -21211,7 +21516,7 @@
     </row>
     <row r="42" ht="15.0" customHeight="true">
       <c r="A42" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>65</v>
@@ -21270,7 +21575,7 @@
     </row>
     <row r="43" ht="15.0" customHeight="true">
       <c r="A43" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>65</v>
@@ -21329,7 +21634,7 @@
     </row>
     <row r="44" ht="15.0" customHeight="true">
       <c r="A44" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>65</v>
@@ -21388,7 +21693,7 @@
     </row>
     <row r="45" ht="15.0" customHeight="true">
       <c r="A45" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>65</v>
@@ -21447,7 +21752,7 @@
     </row>
     <row r="46" ht="15.0" customHeight="true">
       <c r="A46" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>65</v>
@@ -21506,7 +21811,7 @@
     </row>
     <row r="47" ht="15.0" customHeight="true">
       <c r="A47" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>65</v>
@@ -21565,7 +21870,7 @@
     </row>
     <row r="48" ht="15.0" customHeight="true">
       <c r="A48" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>65</v>
@@ -21624,7 +21929,7 @@
     </row>
     <row r="49" ht="15.0" customHeight="true">
       <c r="A49" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>65</v>
@@ -21683,7 +21988,7 @@
     </row>
     <row r="50" ht="15.0" customHeight="true">
       <c r="A50" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>65</v>
@@ -21742,7 +22047,7 @@
     </row>
     <row r="51" ht="15.0" customHeight="true">
       <c r="A51" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>65</v>
@@ -21801,7 +22106,7 @@
     </row>
     <row r="52" ht="15.0" customHeight="true">
       <c r="A52" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>65</v>
@@ -21860,7 +22165,7 @@
     </row>
     <row r="53" ht="15.0" customHeight="true">
       <c r="A53" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>65</v>
@@ -21919,7 +22224,7 @@
     </row>
     <row r="54" ht="15.0" customHeight="true">
       <c r="A54" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>65</v>
@@ -21978,7 +22283,7 @@
     </row>
     <row r="55" ht="15.0" customHeight="true">
       <c r="A55" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>65</v>
@@ -22037,7 +22342,7 @@
     </row>
     <row r="56" ht="15.0" customHeight="true">
       <c r="A56" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>65</v>
@@ -22096,7 +22401,7 @@
     </row>
     <row r="57" ht="15.0" customHeight="true">
       <c r="A57" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>65</v>
@@ -22155,7 +22460,7 @@
     </row>
     <row r="58" ht="15.0" customHeight="true">
       <c r="A58" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>65</v>
@@ -22214,7 +22519,7 @@
     </row>
     <row r="59" ht="15.0" customHeight="true">
       <c r="A59" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>65</v>
@@ -22273,7 +22578,7 @@
     </row>
     <row r="60" ht="15.0" customHeight="true">
       <c r="A60" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>65</v>
@@ -22332,7 +22637,7 @@
     </row>
     <row r="61" ht="15.0" customHeight="true">
       <c r="A61" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>65</v>
@@ -22391,7 +22696,7 @@
     </row>
     <row r="62" ht="15.0" customHeight="true">
       <c r="A62" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>65</v>
@@ -22450,7 +22755,7 @@
     </row>
     <row r="63" ht="15.0" customHeight="true">
       <c r="A63" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>65</v>
@@ -22509,7 +22814,7 @@
     </row>
     <row r="64" ht="15.0" customHeight="true">
       <c r="A64" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>65</v>
@@ -22568,7 +22873,7 @@
     </row>
     <row r="65" ht="15.0" customHeight="true">
       <c r="A65" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>65</v>
@@ -22627,7 +22932,7 @@
     </row>
     <row r="66" ht="15.0" customHeight="true">
       <c r="A66" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>65</v>
@@ -22686,7 +22991,7 @@
     </row>
     <row r="67" ht="15.0" customHeight="true">
       <c r="A67" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>65</v>
@@ -22745,7 +23050,7 @@
     </row>
     <row r="68" ht="15.0" customHeight="true">
       <c r="A68" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>65</v>
@@ -22804,7 +23109,7 @@
     </row>
     <row r="69" ht="15.0" customHeight="true">
       <c r="A69" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>65</v>
@@ -22863,7 +23168,7 @@
     </row>
     <row r="70" ht="15.0" customHeight="true">
       <c r="A70" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>65</v>
@@ -22922,7 +23227,7 @@
     </row>
     <row r="71" ht="15.0" customHeight="true">
       <c r="A71" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>65</v>
@@ -22981,7 +23286,7 @@
     </row>
     <row r="72" ht="15.0" customHeight="true">
       <c r="A72" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>65</v>
@@ -23040,7 +23345,7 @@
     </row>
     <row r="73" ht="15.0" customHeight="true">
       <c r="A73" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>65</v>
@@ -23099,7 +23404,7 @@
     </row>
     <row r="74" ht="15.0" customHeight="true">
       <c r="A74" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>65</v>
@@ -23168,7 +23473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FCE94F"/>
@@ -23264,7 +23569,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>78</v>
@@ -23323,13 +23628,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -23382,13 +23687,13 @@
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>65</v>
@@ -23449,168 +23754,4 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FCE94F"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="10.23828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="11.86328125" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:S1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6640" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6641" uniqueCount="528">
   <si>
     <t>Conference name</t>
   </si>
@@ -681,7 +681,7 @@
     <t>Sector tags</t>
   </si>
   <si>
-    <t>Audience type</t>
+    <t>Audience types</t>
   </si>
   <si>
     <t>Audience level</t>
@@ -1687,6 +1687,9 @@
   </si>
   <si>
     <t>Usable sessions</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
   <si>
     <t>S073: Grok distributed Tensorflow
@@ -1703,6 +1706,9 @@
   </si>
   <si>
     <t>Sector tag</t>
+  </si>
+  <si>
+    <t>Audience type</t>
   </si>
   <si>
     <t>1</t>
@@ -2313,7 +2319,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>78</v>
@@ -2477,7 +2483,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>182</v>
+        <v>524</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>78</v>
@@ -2542,7 +2548,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -2760,13 +2766,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -2925,7 +2931,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>78</v>
@@ -2990,7 +2996,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -18278,6 +18284,24 @@
       </c>
       <c r="E5" s="2" t="n">
         <v>96.0</v>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>180.0</v>
       </c>
     </row>
   </sheetData>
@@ -18466,7 +18490,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -19156,7 +19180,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>78</v>
@@ -21050,7 +21074,7 @@
         <v>65</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>65</v>
@@ -23569,7 +23593,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>78</v>
@@ -23634,7 +23658,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -23693,7 +23717,7 @@
         <v>65</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>65</v>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
@@ -3580,7 +3580,7 @@
       <c r="C3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -3589,7 +3589,7 @@
       <c r="F3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -3598,7 +3598,7 @@
       <c r="I3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -3607,7 +3607,7 @@
       <c r="L3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N3" s="2" t="s">
@@ -3616,7 +3616,7 @@
       <c r="O3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="Q3" s="2" t="s">
@@ -3625,7 +3625,7 @@
       <c r="R3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="T3" s="2" t="s">
@@ -3645,7 +3645,7 @@
       <c r="C4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -3654,7 +3654,7 @@
       <c r="F4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -3663,7 +3663,7 @@
       <c r="I4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -3672,7 +3672,7 @@
       <c r="L4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N4" s="2" t="s">
@@ -3681,7 +3681,7 @@
       <c r="O4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="Q4" s="2" t="s">
@@ -3690,7 +3690,7 @@
       <c r="R4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="T4" s="2" t="s">
@@ -3710,7 +3710,7 @@
       <c r="C5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -3719,7 +3719,7 @@
       <c r="F5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -3728,7 +3728,7 @@
       <c r="I5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -3737,7 +3737,7 @@
       <c r="L5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N5" s="2" t="s">
@@ -3746,7 +3746,7 @@
       <c r="O5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="Q5" s="2" t="s">
@@ -3755,7 +3755,7 @@
       <c r="R5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="T5" s="2" t="s">
@@ -3775,7 +3775,7 @@
       <c r="C6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -3784,7 +3784,7 @@
       <c r="F6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -3793,7 +3793,7 @@
       <c r="I6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -3802,7 +3802,7 @@
       <c r="L6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -3811,7 +3811,7 @@
       <c r="O6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="Q6" s="2" t="s">
@@ -3820,7 +3820,7 @@
       <c r="R6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="S6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="T6" s="2" t="s">
@@ -3843,55 +3843,55 @@
       <c r="D7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="H7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L7" s="3" t="s">
+      <c r="K7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O7" s="3" t="s">
+      <c r="N7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R7" s="3" t="s">
+      <c r="Q7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="T7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="U7" s="3" t="s">
+      <c r="T7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U7" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       <c r="C8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -3914,7 +3914,7 @@
       <c r="F8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -3923,7 +3923,7 @@
       <c r="I8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -3932,7 +3932,7 @@
       <c r="L8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N8" s="2" t="s">
@@ -3941,7 +3941,7 @@
       <c r="O8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="Q8" s="2" t="s">
@@ -3950,7 +3950,7 @@
       <c r="R8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="S8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="T8" s="2" t="s">
@@ -3970,7 +3970,7 @@
       <c r="C9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -3979,7 +3979,7 @@
       <c r="F9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -3988,7 +3988,7 @@
       <c r="I9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -3997,7 +3997,7 @@
       <c r="L9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N9" s="2" t="s">
@@ -4006,7 +4006,7 @@
       <c r="O9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="Q9" s="2" t="s">
@@ -4015,7 +4015,7 @@
       <c r="R9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="S9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="T9" s="2" t="s">
@@ -4035,7 +4035,7 @@
       <c r="C10" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -4044,7 +4044,7 @@
       <c r="F10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -4053,7 +4053,7 @@
       <c r="I10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K10" s="2" t="s">
@@ -4062,7 +4062,7 @@
       <c r="L10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N10" s="2" t="s">
@@ -4071,7 +4071,7 @@
       <c r="O10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="Q10" s="2" t="s">
@@ -4080,7 +4080,7 @@
       <c r="R10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="S10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="T10" s="2" t="s">
@@ -4100,7 +4100,7 @@
       <c r="C11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -4109,7 +4109,7 @@
       <c r="F11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -4118,7 +4118,7 @@
       <c r="I11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K11" s="2" t="s">
@@ -4127,7 +4127,7 @@
       <c r="L11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N11" s="2" t="s">
@@ -4136,7 +4136,7 @@
       <c r="O11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="Q11" s="2" t="s">
@@ -4145,7 +4145,7 @@
       <c r="R11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="S11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="T11" s="2" t="s">
@@ -4168,55 +4168,55 @@
       <c r="D12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" s="3" t="s">
+      <c r="H12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12" s="3" t="s">
+      <c r="K12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O12" s="3" t="s">
+      <c r="N12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R12" s="3" t="s">
+      <c r="Q12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="S12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="U12" s="3" t="s">
+      <c r="T12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U12" s="2" t="s">
         <v>65</v>
       </c>
     </row>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
@@ -1924,7 +1924,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -1946,7 +1946,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -1968,7 +1968,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>10.0</v>
+        <v>100.0</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -1990,7 +1990,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>22</v>
@@ -2001,7 +2001,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
@@ -2012,7 +2012,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -2023,7 +2023,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>24</v>
@@ -2034,7 +2034,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
@@ -2045,7 +2045,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>30</v>
@@ -2056,7 +2056,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
@@ -2067,7 +2067,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>30</v>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
@@ -11,14 +11,16 @@
     <sheet name="Rooms" r:id="rId5" sheetId="3"/>
     <sheet name="Speakers" r:id="rId6" sheetId="4"/>
     <sheet name="Talks" r:id="rId7" sheetId="5"/>
-    <sheet name="Score view" r:id="rId8" sheetId="6"/>
+    <sheet name="Infeasible view" r:id="rId8" sheetId="6"/>
     <sheet name="Rooms view" r:id="rId9" sheetId="7"/>
     <sheet name="Speakers view" r:id="rId10" sheetId="8"/>
     <sheet name="Theme tracks view" r:id="rId11" sheetId="9"/>
     <sheet name="Sectors view" r:id="rId12" sheetId="10"/>
-    <sheet name="Audience type view" r:id="rId13" sheetId="11"/>
-    <sheet name="Audience level view" r:id="rId14" sheetId="12"/>
+    <sheet name="Audience types view" r:id="rId13" sheetId="11"/>
+    <sheet name="Audience levels view" r:id="rId14" sheetId="12"/>
     <sheet name="Contents view" r:id="rId15" sheetId="13"/>
+    <sheet name="Languages view" r:id="rId16" sheetId="14"/>
+    <sheet name="Score view" r:id="rId17" sheetId="15"/>
   </sheets>
 </workbook>
 </file>
@@ -31,9 +33,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t>S073: Grok distributed Tensorflow
-  Beth King
-  PINNED BY USER</t>
+        <t xml:space="preserve">S073: Grok distributed Tensorflow
+    Beth King
+PINNED BY USER
+</t>
       </text>
     </comment>
   </commentList>
@@ -48,9 +51,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t>S073: Grok distributed Tensorflow
-  Beth King
-  PINNED BY USER</t>
+        <t xml:space="preserve">S073: Grok distributed Tensorflow
+    Beth King
+PINNED BY USER
+</t>
       </text>
     </comment>
   </commentList>
@@ -65,9 +69,28 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t>S073: Grok distributed Tensorflow
-  Beth King
-  PINNED BY USER</t>
+        <t xml:space="preserve">S073: Grok distributed Tensorflow
+    Beth King
+PINNED BY USER
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <t xml:space="preserve">S073: Grok distributed Tensorflow
+    Beth King
+PINNED BY USER
+</t>
       </text>
     </comment>
   </commentList>
@@ -82,9 +105,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t>S073: Grok distributed Tensorflow
-  Beth King
-  PINNED BY USER</t>
+        <t xml:space="preserve">S073: Grok distributed Tensorflow
+    Beth King
+PINNED BY USER
+</t>
       </text>
     </comment>
   </commentList>
@@ -99,9 +123,10 @@
   <commentList>
     <comment ref="C34" authorId="0">
       <text>
-        <t>S073: Grok distributed Tensorflow
-  Beth King
-  PINNED BY USER</t>
+        <t xml:space="preserve">S073: Grok distributed Tensorflow
+    Beth King
+PINNED BY USER
+</t>
       </text>
     </comment>
   </commentList>
@@ -116,16 +141,18 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t>S073: Grok distributed Tensorflow
-  Beth King
-  PINNED BY USER</t>
+        <t xml:space="preserve">S073: Grok distributed Tensorflow
+    Beth King
+PINNED BY USER
+</t>
       </text>
     </comment>
     <comment ref="C4" authorId="0">
       <text>
-        <t>S073: Grok distributed Tensorflow
-  Beth King
-  PINNED BY USER</t>
+        <t xml:space="preserve">S073: Grok distributed Tensorflow
+    Beth King
+PINNED BY USER
+</t>
       </text>
     </comment>
   </commentList>
@@ -133,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6641" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6703" uniqueCount="531">
   <si>
     <t>Conference name</t>
   </si>
@@ -1718,6 +1745,15 @@
   </si>
   <si>
     <t>S073 (level 1)</t>
+  </si>
+  <si>
+    <t>Constraint match</t>
+  </si>
+  <si>
+    <t>Match score</t>
+  </si>
+  <si>
+    <t>Total score</t>
   </si>
 </sst>
 </file>
@@ -1829,6 +1865,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
@@ -3056,6 +3100,273 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="11.86328125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" ht="15.0" customHeight="true">
+      <c r="A3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:S1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="16.8125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.08203125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1"/>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18301,7 +18612,7 @@
         <v>10.0</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>180.0</v>
+        <v>108.0</v>
       </c>
     </row>
   </sheetData>
@@ -18482,7 +18793,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" ht="60.0" customHeight="true">
+    <row r="3" ht="45.0" customHeight="true">
       <c r="A3" s="2" t="s">
         <v>84</v>
       </c>
@@ -18541,7 +18852,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" ht="60.0" customHeight="true">
+    <row r="4" ht="45.0" customHeight="true">
       <c r="A4" s="2" t="s">
         <v>86</v>
       </c>
@@ -18600,7 +18911,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" ht="60.0" customHeight="true">
+    <row r="5" ht="45.0" customHeight="true">
       <c r="A5" s="2" t="s">
         <v>87</v>
       </c>
@@ -18659,7 +18970,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" ht="60.0" customHeight="true">
+    <row r="6" ht="45.0" customHeight="true">
       <c r="A6" s="2" t="s">
         <v>89</v>
       </c>
@@ -18718,7 +19029,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" ht="60.0" customHeight="true">
+    <row r="7" ht="45.0" customHeight="true">
       <c r="A7" s="2" t="s">
         <v>90</v>
       </c>
@@ -18777,7 +19088,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" ht="60.0" customHeight="true">
+    <row r="8" ht="45.0" customHeight="true">
       <c r="A8" s="2" t="s">
         <v>91</v>
       </c>
@@ -18836,7 +19147,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" ht="60.0" customHeight="true">
+    <row r="9" ht="45.0" customHeight="true">
       <c r="A9" s="2" t="s">
         <v>92</v>
       </c>
@@ -18895,7 +19206,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" ht="60.0" customHeight="true">
+    <row r="10" ht="45.0" customHeight="true">
       <c r="A10" s="2" t="s">
         <v>93</v>
       </c>
@@ -18954,7 +19265,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" ht="60.0" customHeight="true">
+    <row r="11" ht="45.0" customHeight="true">
       <c r="A11" s="2" t="s">
         <v>94</v>
       </c>
@@ -19013,7 +19324,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" ht="60.0" customHeight="true">
+    <row r="12" ht="45.0" customHeight="true">
       <c r="A12" s="2" t="s">
         <v>95</v>
       </c>
@@ -19099,24 +19410,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="11.75390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.0" customWidth="true"/>
+    <col min="3" max="3" width="20.0" customWidth="true"/>
+    <col min="4" max="4" width="20.0" customWidth="true"/>
+    <col min="5" max="5" width="20.0" customWidth="true"/>
+    <col min="6" max="6" width="20.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
+    <col min="8" max="8" width="20.0" customWidth="true"/>
+    <col min="9" max="9" width="20.0" customWidth="true"/>
+    <col min="10" max="10" width="20.0" customWidth="true"/>
+    <col min="11" max="11" width="20.0" customWidth="true"/>
+    <col min="12" max="12" width="20.0" customWidth="true"/>
+    <col min="13" max="13" width="20.0" customWidth="true"/>
+    <col min="14" max="14" width="20.0" customWidth="true"/>
+    <col min="15" max="15" width="20.0" customWidth="true"/>
+    <col min="16" max="16" width="20.0" customWidth="true"/>
+    <col min="17" max="17" width="20.0" customWidth="true"/>
+    <col min="18" max="18" width="20.0" customWidth="true"/>
+    <col min="19" max="19" width="20.0" customWidth="true"/>
+    <col min="20" max="20" width="20.0" customWidth="true"/>
+    <col min="21" max="21" width="20.0" customWidth="true"/>
+    <col min="22" max="22" width="20.0" customWidth="true"/>
+    <col min="23" max="23" width="20.0" customWidth="true"/>
+    <col min="24" max="24" width="20.0" customWidth="true"/>
+    <col min="25" max="25" width="20.0" customWidth="true"/>
+    <col min="26" max="26" width="20.0" customWidth="true"/>
+    <col min="27" max="27" width="20.0" customWidth="true"/>
+    <col min="28" max="28" width="20.0" customWidth="true"/>
+    <col min="29" max="29" width="20.0" customWidth="true"/>
+    <col min="30" max="30" width="20.0" customWidth="true"/>
+    <col min="31" max="31" width="20.0" customWidth="true"/>
+    <col min="32" max="32" width="20.0" customWidth="true"/>
+    <col min="33" max="33" width="20.0" customWidth="true"/>
+    <col min="34" max="34" width="20.0" customWidth="true"/>
+    <col min="35" max="35" width="20.0" customWidth="true"/>
+    <col min="36" max="36" width="20.0" customWidth="true"/>
+    <col min="37" max="37" width="20.0" customWidth="true"/>
+    <col min="38" max="38" width="20.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
@@ -225,40 +225,40 @@
     <t>Soft reward per 2 talks that have the same timeslot and a different language</t>
   </si>
   <si>
-    <t>Speaker preferred timeslot tag</t>
+    <t>Speaker preferred timeslot tags</t>
   </si>
   <si>
     <t>Soft penalty per missing preferred tag in a talk's timeslot</t>
   </si>
   <si>
-    <t>Speaker undesired timeslot tag</t>
+    <t>Speaker undesired timeslot tags</t>
   </si>
   <si>
     <t>Soft penalty per undesired tag in a talk's timeslot</t>
   </si>
   <si>
-    <t>Talk preferred timeslot tag</t>
-  </si>
-  <si>
-    <t>Talk undesired timeslot tag</t>
-  </si>
-  <si>
-    <t>Speaker preferred room tag</t>
+    <t>Talk preferred timeslot tags</t>
+  </si>
+  <si>
+    <t>Talk undesired timeslot tags</t>
+  </si>
+  <si>
+    <t>Speaker preferred room tags</t>
   </si>
   <si>
     <t>Soft penalty per missing preferred tag in a talk's room</t>
   </si>
   <si>
-    <t>Speaker undesired room tag</t>
+    <t>Speaker undesired room tags</t>
   </si>
   <si>
     <t>Soft penalty per undesired tag in a talk's room</t>
   </si>
   <si>
-    <t>Talk preferred room tag</t>
-  </si>
-  <si>
-    <t>Talk undesired room tag</t>
+    <t>Talk preferred room tags</t>
+  </si>
+  <si>
+    <t>Talk undesired room tags</t>
   </si>
   <si>
     <t>Same day talks</t>
@@ -309,43 +309,43 @@
     <t>Hard penalty per pair of talks with the same speaker in overlapping timeslots</t>
   </si>
   <si>
-    <t>Speaker required timeslot tag</t>
+    <t>Speaker required timeslot tags</t>
   </si>
   <si>
     <t>Hard penalty per missing required tag in a talk's timeslot</t>
   </si>
   <si>
-    <t>Speaker prohibited timeslot tag</t>
+    <t>Speaker prohibited timeslot tags</t>
   </si>
   <si>
     <t>Hard penalty per prohibited tag in a talk's timeslot</t>
   </si>
   <si>
-    <t>Talk required timeslot tag</t>
-  </si>
-  <si>
-    <t>Talk prohibited timeslot tag</t>
-  </si>
-  <si>
-    <t>Speaker required room tag</t>
+    <t>Talk required timeslot tags</t>
+  </si>
+  <si>
+    <t>Talk prohibited timeslot tags</t>
+  </si>
+  <si>
+    <t>Speaker required room tags</t>
   </si>
   <si>
     <t>Hard penalty per missing required tag in a talk's room</t>
   </si>
   <si>
-    <t>Speaker prohibited room tag</t>
+    <t>Speaker prohibited room tags</t>
   </si>
   <si>
     <t>Hard penalty per prohibited tag in a talk's room</t>
   </si>
   <si>
-    <t>Talk required room tag</t>
-  </si>
-  <si>
-    <t>Talk prohibited room tag</t>
-  </si>
-  <si>
-    <t>Talk mutually-exclusive-talks tag</t>
+    <t>Talk required room tags</t>
+  </si>
+  <si>
+    <t>Talk prohibited room tags</t>
+  </si>
+  <si>
+    <t>Talk mutually-exclusive-talks tags</t>
   </si>
   <si>
     <t>Hard penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
@@ -286,7 +286,7 @@
     <t>Popular talks</t>
   </si>
   <si>
-    <t>Soft penalty per 2 talks where the less popular one (has lower number of likes) is assigned a larger room than the more popular talk</t>
+    <t>Soft penalty per 2 talks where the less popular one (has lower favorite count) is assigned a larger room than the more popular talk</t>
   </si>
   <si>
     <t>Crowd control</t>
@@ -778,7 +778,7 @@
     <t>Prerequisite talks codes</t>
   </si>
   <si>
-    <t>Number of likes</t>
+    <t>Favorite count</t>
   </si>
   <si>
     <t>Crowd control risk</t>
@@ -10933,7 +10933,7 @@
     <col min="18" max="18" width="22.84375" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="31.2734375" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="26.23046875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.5390625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.25390625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="20.140625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.65234375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.14453125" customWidth="true" bestFit="true"/>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
@@ -295,6 +295,12 @@
     <t>Soft penalty per talks with crowd control risk greater than zero that are not in pairs</t>
   </si>
   <si>
+    <t>Talk mutually-exclusive-talks tags</t>
+  </si>
+  <si>
+    <t>Hard penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
+  </si>
+  <si>
     <t>Talk type of timeslot</t>
   </si>
   <si>
@@ -365,12 +371,6 @@
   </si>
   <si>
     <t>Talk prohibited room tags</t>
-  </si>
-  <si>
-    <t>Talk mutually-exclusive-talks tags</t>
-  </si>
-  <si>
-    <t>Hard penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
   </si>
   <si>
     <t>Talk prerequisite talks</t>
@@ -1952,7 +1952,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
@@ -2201,109 +2201,99 @@
         <v>39</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>10000.0</v>
+        <v>1.0</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
+    <row r="25"/>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>10000.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>10.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
@@ -2314,40 +2304,40 @@
         <v>1.0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38">
@@ -2358,17 +2348,28 @@
         <v>1.0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2383,7 +2384,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2547,7 +2548,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2771,7 +2772,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2995,7 +2996,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -3219,7 +3220,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -3425,12 +3426,6 @@
       <c r="S3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>518</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells>
@@ -3449,50 +3444,58 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.0703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.73828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.15625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3502,7 +3505,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3.0" ySplit="1.0" state="frozen" topLeftCell="D2" activePane="bottomRight"/>
@@ -3849,7 +3852,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -4711,7 +4714,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AB74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -10904,7 +10907,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AB109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -20000,7 +20003,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
@@ -20105,7 +20108,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -20879,7 +20882,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -25311,7 +25314,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6909" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7345" uniqueCount="542">
   <si>
     <t>Conference name</t>
   </si>
@@ -791,6 +791,18 @@
   </si>
   <si>
     <t>Room</t>
+  </si>
+  <si>
+    <t>Published Timeslot</t>
+  </si>
+  <si>
+    <t>Published Start</t>
+  </si>
+  <si>
+    <t>Published End</t>
+  </si>
+  <si>
+    <t>Published Room</t>
   </si>
   <si>
     <t>S000</t>
@@ -1952,7 +1964,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
@@ -2383,7 +2395,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2474,7 +2486,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>90</v>
@@ -2547,7 +2559,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2638,7 +2650,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>90</v>
@@ -2697,13 +2709,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>76</v>
@@ -2771,7 +2783,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2921,13 +2933,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>530</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>526</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>76</v>
@@ -2995,7 +3007,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -3086,7 +3098,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>90</v>
@@ -3145,13 +3157,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>76</v>
@@ -3219,7 +3231,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -3369,13 +3381,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>76</v>
@@ -3424,12 +3436,6 @@
       </c>
       <c r="S3" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -3449,50 +3455,58 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.0703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.73828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.15625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3502,7 +3516,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3.0" ySplit="1.0" state="frozen" topLeftCell="D2" activePane="bottomRight"/>
@@ -3849,7 +3863,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -4711,7 +4725,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AB74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -10904,7 +10918,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AF109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -10940,6 +10954,10 @@
     <col min="25" max="25" width="6.3984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.32421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.8828125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.20703125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.86328125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="17.8359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11024,13 +11042,25 @@
       <c r="AA1" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="AB1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>75</v>
@@ -11039,22 +11069,22 @@
         <v>116</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>76</v>
@@ -11107,37 +11137,49 @@
       <c r="AA2" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>76</v>
@@ -11190,13 +11232,25 @@
       <c r="AA3" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>75</v>
@@ -11205,22 +11259,22 @@
         <v>119</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>76</v>
@@ -11273,13 +11327,25 @@
       <c r="AA4" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>75</v>
@@ -11288,22 +11354,22 @@
         <v>120</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>76</v>
@@ -11356,13 +11422,25 @@
       <c r="AA5" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>75</v>
@@ -11371,22 +11449,22 @@
         <v>121</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>76</v>
@@ -11439,37 +11517,49 @@
       <c r="AA6" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>76</v>
@@ -11522,13 +11612,25 @@
       <c r="AA7" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>75</v>
@@ -11537,22 +11639,22 @@
         <v>124</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>76</v>
@@ -11605,13 +11707,25 @@
       <c r="AA8" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>75</v>
@@ -11620,22 +11734,22 @@
         <v>125</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>76</v>
@@ -11688,13 +11802,25 @@
       <c r="AA9" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>75</v>
@@ -11703,22 +11829,22 @@
         <v>126</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>76</v>
@@ -11771,13 +11897,25 @@
       <c r="AA10" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>75</v>
@@ -11786,22 +11924,22 @@
         <v>127</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>76</v>
@@ -11854,37 +11992,49 @@
       <c r="AA11" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>76</v>
@@ -11937,13 +12087,25 @@
       <c r="AA12" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>75</v>
@@ -11952,22 +12114,22 @@
         <v>130</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>76</v>
@@ -12020,13 +12182,25 @@
       <c r="AA13" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>78</v>
@@ -12035,22 +12209,22 @@
         <v>131</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>76</v>
@@ -12103,37 +12277,49 @@
       <c r="AA14" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>76</v>
@@ -12186,13 +12372,25 @@
       <c r="AA15" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE15" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>78</v>
@@ -12201,22 +12399,22 @@
         <v>134</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>76</v>
@@ -12269,37 +12467,49 @@
       <c r="AA16" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE16" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>76</v>
@@ -12352,13 +12562,25 @@
       <c r="AA17" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>78</v>
@@ -12367,22 +12589,22 @@
         <v>137</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>76</v>
@@ -12435,13 +12657,25 @@
       <c r="AA18" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>78</v>
@@ -12450,22 +12684,22 @@
         <v>138</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>76</v>
@@ -12518,13 +12752,25 @@
       <c r="AA19" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE19" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>78</v>
@@ -12533,22 +12779,22 @@
         <v>139</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>76</v>
@@ -12601,37 +12847,49 @@
       <c r="AA20" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE20" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>76</v>
@@ -12684,37 +12942,49 @@
       <c r="AA21" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE21" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>76</v>
@@ -12767,37 +13037,49 @@
       <c r="AA22" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>76</v>
@@ -12850,37 +13132,49 @@
       <c r="AA23" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE23" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>76</v>
@@ -12933,13 +13227,25 @@
       <c r="AA24" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE24" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>78</v>
@@ -12948,22 +13254,22 @@
         <v>149</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>76</v>
@@ -13016,13 +13322,25 @@
       <c r="AA25" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>78</v>
@@ -13031,22 +13349,22 @@
         <v>150</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>76</v>
@@ -13099,37 +13417,49 @@
       <c r="AA26" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE26" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>76</v>
@@ -13182,13 +13512,25 @@
       <c r="AA27" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE27" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>78</v>
@@ -13197,22 +13539,22 @@
         <v>153</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>76</v>
@@ -13265,37 +13607,49 @@
       <c r="AA28" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>76</v>
@@ -13348,13 +13702,25 @@
       <c r="AA29" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE29" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>78</v>
@@ -13363,22 +13729,22 @@
         <v>156</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>76</v>
@@ -13431,37 +13797,49 @@
       <c r="AA30" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE30" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>76</v>
@@ -13514,13 +13892,25 @@
       <c r="AA31" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE31" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>78</v>
@@ -13529,22 +13919,22 @@
         <v>159</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>76</v>
@@ -13597,13 +13987,25 @@
       <c r="AA32" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE32" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>78</v>
@@ -13612,22 +14014,22 @@
         <v>160</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>76</v>
@@ -13680,37 +14082,49 @@
       <c r="AA33" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE33" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>76</v>
@@ -13763,13 +14177,25 @@
       <c r="AA34" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE34" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>78</v>
@@ -13778,22 +14204,22 @@
         <v>163</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>76</v>
@@ -13846,13 +14272,25 @@
       <c r="AA35" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE35" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>78</v>
@@ -13861,22 +14299,22 @@
         <v>164</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>76</v>
@@ -13929,37 +14367,49 @@
       <c r="AA36" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE36" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>76</v>
@@ -14012,13 +14462,25 @@
       <c r="AA37" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE37" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>78</v>
@@ -14027,22 +14489,22 @@
         <v>167</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>76</v>
@@ -14095,13 +14557,25 @@
       <c r="AA38" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE38" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>78</v>
@@ -14110,22 +14584,22 @@
         <v>168</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>76</v>
@@ -14178,13 +14652,25 @@
       <c r="AA39" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE39" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>78</v>
@@ -14193,22 +14679,22 @@
         <v>169</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>76</v>
@@ -14261,37 +14747,49 @@
       <c r="AA40" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE40" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>76</v>
@@ -14344,13 +14842,25 @@
       <c r="AA41" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE41" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>78</v>
@@ -14359,22 +14869,22 @@
         <v>172</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>76</v>
@@ -14427,13 +14937,25 @@
       <c r="AA42" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE42" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>78</v>
@@ -14442,22 +14964,22 @@
         <v>173</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>76</v>
@@ -14510,13 +15032,25 @@
       <c r="AA43" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE43" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>78</v>
@@ -14525,22 +15059,22 @@
         <v>174</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>76</v>
@@ -14593,37 +15127,49 @@
       <c r="AA44" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE44" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>76</v>
@@ -14676,13 +15222,25 @@
       <c r="AA45" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE45" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>78</v>
@@ -14691,22 +15249,22 @@
         <v>177</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>76</v>
@@ -14759,13 +15317,25 @@
       <c r="AA46" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB46" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC46" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD46" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE46" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>78</v>
@@ -14774,22 +15344,22 @@
         <v>178</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>76</v>
@@ -14842,13 +15412,25 @@
       <c r="AA47" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE47" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>78</v>
@@ -14857,22 +15439,22 @@
         <v>179</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>76</v>
@@ -14925,13 +15507,25 @@
       <c r="AA48" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB48" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC48" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD48" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE48" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>78</v>
@@ -14940,22 +15534,22 @@
         <v>180</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>76</v>
@@ -15008,13 +15602,25 @@
       <c r="AA49" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE49" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>78</v>
@@ -15023,22 +15629,22 @@
         <v>181</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>76</v>
@@ -15091,13 +15697,25 @@
       <c r="AA50" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB50" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC50" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD50" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE50" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>78</v>
@@ -15106,22 +15724,22 @@
         <v>182</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>76</v>
@@ -15174,37 +15792,49 @@
       <c r="AA51" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB51" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC51" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD51" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE51" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>76</v>
@@ -15257,37 +15887,49 @@
       <c r="AA52" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB52" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC52" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD52" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE52" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>76</v>
@@ -15340,37 +15982,49 @@
       <c r="AA53" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB53" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC53" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD53" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE53" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>76</v>
@@ -15423,13 +16077,25 @@
       <c r="AA54" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE54" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>78</v>
@@ -15438,22 +16104,22 @@
         <v>117</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>76</v>
@@ -15506,37 +16172,49 @@
       <c r="AA55" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB55" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC55" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD55" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE55" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>76</v>
@@ -15589,37 +16267,49 @@
       <c r="AA56" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE56" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>76</v>
@@ -15672,37 +16362,49 @@
       <c r="AA57" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB57" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC57" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD57" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE57" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>76</v>
@@ -15755,37 +16457,49 @@
       <c r="AA58" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB58" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC58" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD58" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE58" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>76</v>
@@ -15838,13 +16552,25 @@
       <c r="AA59" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE59" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>78</v>
@@ -15853,22 +16579,22 @@
         <v>126</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>76</v>
@@ -15921,13 +16647,25 @@
       <c r="AA60" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB60" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC60" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD60" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE60" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>78</v>
@@ -15936,22 +16674,22 @@
         <v>127</v>
       </c>
       <c r="E61" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>76</v>
@@ -16004,37 +16742,49 @@
       <c r="AA61" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE61" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>76</v>
@@ -16087,37 +16837,49 @@
       <c r="AA62" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB62" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC62" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD62" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE62" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>76</v>
@@ -16170,37 +16932,49 @@
       <c r="AA63" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB63" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC63" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD63" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE63" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>76</v>
@@ -16253,13 +17027,25 @@
       <c r="AA64" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB64" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC64" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD64" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE64" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>78</v>
@@ -16268,22 +17054,22 @@
         <v>134</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>76</v>
@@ -16336,37 +17122,49 @@
       <c r="AA65" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB65" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC65" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD65" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE65" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>76</v>
@@ -16419,13 +17217,25 @@
       <c r="AA66" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB66" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC66" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD66" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE66" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>78</v>
@@ -16434,22 +17244,22 @@
         <v>137</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H67" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>76</v>
@@ -16502,37 +17312,49 @@
       <c r="AA67" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB67" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC67" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD67" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE67" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>76</v>
@@ -16585,13 +17407,25 @@
       <c r="AA68" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB68" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC68" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD68" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE68" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>78</v>
@@ -16600,22 +17434,22 @@
         <v>140</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H69" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>76</v>
@@ -16668,13 +17502,25 @@
       <c r="AA69" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB69" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC69" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD69" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE69" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>78</v>
@@ -16683,22 +17529,22 @@
         <v>141</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>76</v>
@@ -16751,37 +17597,49 @@
       <c r="AA70" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB70" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC70" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD70" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE70" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>76</v>
@@ -16834,37 +17692,49 @@
       <c r="AA71" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB71" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC71" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD71" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE71" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>76</v>
@@ -16917,37 +17787,49 @@
       <c r="AA72" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB72" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC72" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD72" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE72" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>76</v>
@@ -17000,13 +17882,25 @@
       <c r="AA73" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB73" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC73" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD73" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE73" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>78</v>
@@ -17015,22 +17909,22 @@
         <v>149</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H74" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>76</v>
@@ -17083,37 +17977,49 @@
       <c r="AA74" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB74" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC74" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD74" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE74" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H75" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>76</v>
@@ -17166,13 +18072,25 @@
       <c r="AA75" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB75" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC75" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD75" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE75" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>78</v>
@@ -17181,22 +18099,22 @@
         <v>152</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H76" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>76</v>
@@ -17249,13 +18167,25 @@
       <c r="AA76" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB76" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC76" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD76" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE76" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>78</v>
@@ -17264,22 +18194,22 @@
         <v>153</v>
       </c>
       <c r="E77" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="H77" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>76</v>
@@ -17332,13 +18262,25 @@
       <c r="AA77" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB77" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC77" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD77" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE77" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>78</v>
@@ -17347,22 +18289,22 @@
         <v>154</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H78" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>76</v>
@@ -17415,37 +18357,49 @@
       <c r="AA78" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB78" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC78" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD78" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE78" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H79" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>76</v>
@@ -17498,13 +18452,25 @@
       <c r="AA79" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB79" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC79" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD79" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE79" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>78</v>
@@ -17513,22 +18479,22 @@
         <v>157</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H80" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>76</v>
@@ -17581,13 +18547,25 @@
       <c r="AA80" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB80" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC80" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD80" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE80" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>78</v>
@@ -17596,22 +18574,22 @@
         <v>158</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H81" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>76</v>
@@ -17664,37 +18642,49 @@
       <c r="AA81" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB81" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC81" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD81" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE81" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H82" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>76</v>
@@ -17747,37 +18737,49 @@
       <c r="AA82" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB82" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC82" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD82" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE82" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H83" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>76</v>
@@ -17830,13 +18832,25 @@
       <c r="AA83" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB83" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC83" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD83" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE83" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>78</v>
@@ -17845,22 +18859,22 @@
         <v>164</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H84" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>76</v>
@@ -17913,37 +18927,49 @@
       <c r="AA84" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB84" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC84" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD84" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE84" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H85" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>76</v>
@@ -17996,13 +19022,25 @@
       <c r="AA85" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB85" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC85" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD85" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE85" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>78</v>
@@ -18011,22 +19049,22 @@
         <v>167</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H86" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>76</v>
@@ -18079,13 +19117,25 @@
       <c r="AA86" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB86" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC86" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD86" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE86" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>78</v>
@@ -18094,22 +19144,22 @@
         <v>168</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H87" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>76</v>
@@ -18162,13 +19212,25 @@
       <c r="AA87" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB87" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC87" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD87" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE87" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>78</v>
@@ -18177,22 +19239,22 @@
         <v>169</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H88" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>76</v>
@@ -18245,13 +19307,25 @@
       <c r="AA88" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB88" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC88" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD88" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE88" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>78</v>
@@ -18260,22 +19334,22 @@
         <v>170</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H89" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>76</v>
@@ -18328,13 +19402,25 @@
       <c r="AA89" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB89" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC89" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD89" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE89" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>78</v>
@@ -18343,22 +19429,22 @@
         <v>171</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H90" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>76</v>
@@ -18411,13 +19497,25 @@
       <c r="AA90" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB90" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC90" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD90" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE90" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>78</v>
@@ -18426,22 +19524,22 @@
         <v>172</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H91" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>76</v>
@@ -18494,37 +19592,49 @@
       <c r="AA91" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB91" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC91" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD91" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE91" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H92" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>76</v>
@@ -18577,37 +19687,49 @@
       <c r="AA92" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB92" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC92" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD92" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE92" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H93" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>76</v>
@@ -18660,13 +19782,25 @@
       <c r="AA93" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB93" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC93" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD93" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE93" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>78</v>
@@ -18675,22 +19809,22 @@
         <v>178</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H94" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>76</v>
@@ -18743,37 +19877,49 @@
       <c r="AA94" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB94" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC94" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD94" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE94" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H95" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>76</v>
@@ -18826,37 +19972,49 @@
       <c r="AA95" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB95" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC95" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD95" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE95" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H96" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>76</v>
@@ -18909,13 +20067,25 @@
       <c r="AA96" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB96" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC96" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD96" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE96" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>78</v>
@@ -18924,22 +20094,22 @@
         <v>183</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H97" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>76</v>
@@ -18992,13 +20162,25 @@
       <c r="AA97" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB97" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC97" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD97" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE97" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>78</v>
@@ -19007,22 +20189,22 @@
         <v>184</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H98" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>76</v>
@@ -19075,37 +20257,49 @@
       <c r="AA98" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB98" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC98" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD98" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE98" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E99" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="H99" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>76</v>
@@ -19158,37 +20352,49 @@
       <c r="AA99" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB99" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC99" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD99" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE99" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H100" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>76</v>
@@ -19241,13 +20447,25 @@
       <c r="AA100" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="AB100" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC100" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD100" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE100" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>78</v>
@@ -19256,22 +20474,22 @@
         <v>117</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H101" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>76</v>
@@ -19324,13 +20542,25 @@
       <c r="AA101" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB101" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC101" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD101" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE101" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>78</v>
@@ -19339,22 +20569,22 @@
         <v>118</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H102" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>76</v>
@@ -19407,37 +20637,49 @@
       <c r="AA102" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB102" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC102" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD102" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE102" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H103" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K103" s="2" t="s">
         <v>76</v>
@@ -19490,37 +20732,49 @@
       <c r="AA103" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB103" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC103" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD103" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE103" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H104" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>76</v>
@@ -19573,13 +20827,25 @@
       <c r="AA104" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB104" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC104" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD104" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE104" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>78</v>
@@ -19588,22 +20854,22 @@
         <v>123</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H105" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>76</v>
@@ -19656,13 +20922,25 @@
       <c r="AA105" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB105" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC105" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD105" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE105" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>78</v>
@@ -19671,22 +20949,22 @@
         <v>124</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H106" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>76</v>
@@ -19739,13 +21017,25 @@
       <c r="AA106" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB106" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC106" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD106" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE106" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>78</v>
@@ -19754,22 +21044,22 @@
         <v>125</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H107" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>76</v>
@@ -19822,13 +21112,25 @@
       <c r="AA107" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB107" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC107" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD107" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE107" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>78</v>
@@ -19837,22 +21139,22 @@
         <v>126</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H108" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>76</v>
@@ -19905,37 +21207,49 @@
       <c r="AA108" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB108" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC108" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD108" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE108" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H109" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>76</v>
@@ -19986,6 +21300,18 @@
         <v>76</v>
       </c>
       <c r="AA109" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB109" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC109" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD109" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE109" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -20000,7 +21326,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
@@ -20018,10 +21344,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2"/>
@@ -20030,16 +21356,16 @@
         <v>190</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4">
@@ -20079,7 +21405,7 @@
     <row r="6"/>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>108.0</v>
@@ -20105,7 +21431,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -20280,7 +21606,7 @@
         <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>76</v>
@@ -20879,7 +22205,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -20989,7 +22315,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>90</v>
@@ -21054,7 +22380,7 @@
         <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>76</v>
@@ -25243,7 +26569,7 @@
         <v>76</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>76</v>
@@ -25311,7 +26637,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -25402,7 +26728,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>90</v>
@@ -25461,13 +26787,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>76</v>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
@@ -21,6 +21,9 @@
     <sheet name="Contents view" r:id="rId15" sheetId="13"/>
     <sheet name="Languages view" r:id="rId16" sheetId="14"/>
     <sheet name="Score view" r:id="rId17" sheetId="15"/>
+    <sheet name="Mon 2018-10-01" r:id="rId18" sheetId="16"/>
+    <sheet name="Tue 2018-10-02" r:id="rId19" sheetId="17"/>
+    <sheet name="Wed 2018-10-03" r:id="rId20" sheetId="18"/>
   </sheets>
 </workbook>
 </file>
@@ -33,11 +36,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S098: Program flexible Spring
+        <t xml:space="preserve">S098-Mobile: Program flexible Spring
     Beth Smith, Amy Cole
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -53,11 +55,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S098: Program flexible Spring
+        <t xml:space="preserve">S098-Mobile: Program flexible Spring
     Beth Smith, Amy Cole
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -73,11 +74,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S098: Program flexible Spring
+        <t xml:space="preserve">S098-Mobile: Program flexible Spring
     Beth Smith, Amy Cole
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -93,7 +93,26 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S098: Program flexible Spring
+        <t xml:space="preserve">S098-Mobile: Program flexible Spring
+    Beth Smith, Amy Cole
+PINNED BY USER
+-10soft total
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0">
+      <text>
+        <t xml:space="preserve">S098-Mobile: Program flexible Spring
     Beth Smith, Amy Cole
 PINNED BY USER
 -10soft total
@@ -113,7 +132,7 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S098: Program flexible Spring
+        <t xml:space="preserve">S098-Mobile: Program flexible Spring
     Beth Smith, Amy Cole
 PINNED BY USER
 -10soft total
@@ -133,21 +152,19 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S098: Program flexible Spring
+        <t xml:space="preserve">S098-Mobile: Program flexible Spring
     Beth Smith, Amy Cole
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
     <comment ref="C74" authorId="0">
       <text>
-        <t xml:space="preserve">S098: Program flexible Spring
+        <t xml:space="preserve">S098-Mobile: Program flexible Spring
     Beth Smith, Amy Cole
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -163,11 +180,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S098: Program flexible Spring
+        <t xml:space="preserve">S098-Mobile: Program flexible Spring
     Beth Smith, Amy Cole
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -176,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6909" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6937" uniqueCount="539">
   <si>
     <t>Conference name</t>
   </si>
@@ -298,7 +314,7 @@
     <t>Talk mutually-exclusive-talks tags</t>
   </si>
   <si>
-    <t>Hard penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
+    <t>Medium penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
   </si>
   <si>
     <t>Talk type of timeslot</t>
@@ -1791,6 +1807,10 @@
   </si>
   <si>
     <t xml:space="preserve">    S098</t>
+  </si>
+  <si>
+    <t>Program flexible Spring
+Beth Smith, Amy Cole</t>
   </si>
 </sst>
 </file>
@@ -1812,7 +1832,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1847,6 +1867,46 @@
         <fgColor rgb="FCAF3E"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="8AE234"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FCE94F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="729FCF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E9B96E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="73D216"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EDD400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="3465A4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C17D11"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1860,7 +1920,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment wrapText="true" vertical="center"/>
@@ -1884,6 +1944,33 @@
       <alignment wrapText="true" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1915,6 +2002,18 @@
 </file>
 
 <file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
@@ -3496,6 +3595,203 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="17.94140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" ht="45.0" customHeight="true">
+      <c r="A2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" ht="45.0" customHeight="true">
+      <c r="A3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="4" ht="45.0" customHeight="true">
+      <c r="A4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" ht="45.0" customHeight="true">
+      <c r="A5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" ht="45.0" customHeight="true">
+      <c r="A6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" ht="45.0" customHeight="true">
+      <c r="A7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="17.3515625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" ht="45.0" customHeight="true">
+      <c r="A2" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" ht="45.0" customHeight="true">
+      <c r="A3" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" ht="45.0" customHeight="true">
+      <c r="A4" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" ht="45.0" customHeight="true">
+      <c r="A5" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" ht="45.0" customHeight="true">
+      <c r="A6" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" ht="45.0" customHeight="true">
+      <c r="A7" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="18.12890625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" ht="45.0" customHeight="true">
+      <c r="A2" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" ht="45.0" customHeight="true">
+      <c r="A3" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" ht="45.0" customHeight="true">
+      <c r="A4" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" ht="45.0" customHeight="true">
+      <c r="A5" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" ht="45.0" customHeight="true">
+      <c r="A6" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" ht="45.0" customHeight="true">
+      <c r="A7" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
@@ -21,6 +21,9 @@
     <sheet name="Contents view" r:id="rId15" sheetId="13"/>
     <sheet name="Languages view" r:id="rId16" sheetId="14"/>
     <sheet name="Score view" r:id="rId17" sheetId="15"/>
+    <sheet name="Mon 2018-10-01" r:id="rId18" sheetId="16"/>
+    <sheet name="Tue 2018-10-02" r:id="rId19" sheetId="17"/>
+    <sheet name="Wed 2018-10-03" r:id="rId20" sheetId="18"/>
   </sheets>
 </workbook>
 </file>
@@ -33,11 +36,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S098: Program flexible Spring
+        <t xml:space="preserve">S098-Mobile: Program flexible Spring
     Beth Smith, Amy Cole
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -53,11 +55,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S098: Program flexible Spring
+        <t xml:space="preserve">S098-Mobile: Program flexible Spring
     Beth Smith, Amy Cole
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -73,11 +74,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S098: Program flexible Spring
+        <t xml:space="preserve">S098-Mobile: Program flexible Spring
     Beth Smith, Amy Cole
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -93,7 +93,26 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S098: Program flexible Spring
+        <t xml:space="preserve">S098-Mobile: Program flexible Spring
+    Beth Smith, Amy Cole
+PINNED BY USER
+-10soft total
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0">
+      <text>
+        <t xml:space="preserve">S098-Mobile: Program flexible Spring
     Beth Smith, Amy Cole
 PINNED BY USER
 -10soft total
@@ -113,7 +132,7 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S098: Program flexible Spring
+        <t xml:space="preserve">S098-Mobile: Program flexible Spring
     Beth Smith, Amy Cole
 PINNED BY USER
 -10soft total
@@ -133,21 +152,19 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S098: Program flexible Spring
+        <t xml:space="preserve">S098-Mobile: Program flexible Spring
     Beth Smith, Amy Cole
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
     <comment ref="C74" authorId="0">
       <text>
-        <t xml:space="preserve">S098: Program flexible Spring
+        <t xml:space="preserve">S098-Mobile: Program flexible Spring
     Beth Smith, Amy Cole
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -163,11 +180,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S098: Program flexible Spring
+        <t xml:space="preserve">S098-Mobile: Program flexible Spring
     Beth Smith, Amy Cole
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -176,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6909" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6937" uniqueCount="539">
   <si>
     <t>Conference name</t>
   </si>
@@ -295,6 +311,12 @@
     <t>Soft penalty per talks with crowd control risk greater than zero that are not in pairs</t>
   </si>
   <si>
+    <t>Talk mutually-exclusive-talks tags</t>
+  </si>
+  <si>
+    <t>Medium penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
+  </si>
+  <si>
     <t>Talk type of timeslot</t>
   </si>
   <si>
@@ -365,12 +387,6 @@
   </si>
   <si>
     <t>Talk prohibited room tags</t>
-  </si>
-  <si>
-    <t>Talk mutually-exclusive-talks tags</t>
-  </si>
-  <si>
-    <t>Hard penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
   </si>
   <si>
     <t>Talk prerequisite talks</t>
@@ -1791,6 +1807,10 @@
   </si>
   <si>
     <t xml:space="preserve">    S098</t>
+  </si>
+  <si>
+    <t>Program flexible Spring
+Beth Smith, Amy Cole</t>
   </si>
 </sst>
 </file>
@@ -1812,7 +1832,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1847,6 +1867,46 @@
         <fgColor rgb="FCAF3E"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="8AE234"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FCE94F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="729FCF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E9B96E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="73D216"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EDD400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="3465A4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C17D11"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1860,7 +1920,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment wrapText="true" vertical="center"/>
@@ -1884,6 +1944,33 @@
       <alignment wrapText="true" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1915,6 +2002,18 @@
 </file>
 
 <file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
@@ -1952,7 +2051,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
@@ -2201,109 +2300,99 @@
         <v>39</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>10000.0</v>
+        <v>1.0</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
+    <row r="25"/>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>10000.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>10.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
@@ -2314,40 +2403,40 @@
         <v>1.0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38">
@@ -2358,17 +2447,28 @@
         <v>1.0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2383,7 +2483,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2547,7 +2647,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2771,7 +2871,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2995,7 +3095,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -3219,7 +3319,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -3425,12 +3525,6 @@
       <c r="S3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>518</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells>
@@ -3449,7 +3543,71 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="19.0703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.15625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
@@ -3458,41 +3616,182 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.0703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.73828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.94140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.0" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="4">
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" ht="45.0" customHeight="true">
+      <c r="A2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" ht="45.0" customHeight="true">
+      <c r="A3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="4" ht="45.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" ht="45.0" customHeight="true">
+      <c r="A5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" ht="45.0" customHeight="true">
+      <c r="A6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" ht="45.0" customHeight="true">
+      <c r="A7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="17.3515625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" ht="45.0" customHeight="true">
+      <c r="A2" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" ht="45.0" customHeight="true">
+      <c r="A3" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" ht="45.0" customHeight="true">
+      <c r="A4" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" ht="45.0" customHeight="true">
+      <c r="A5" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" ht="45.0" customHeight="true">
+      <c r="A6" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" ht="45.0" customHeight="true">
+      <c r="A7" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="18.12890625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" ht="45.0" customHeight="true">
+      <c r="A2" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" ht="45.0" customHeight="true">
+      <c r="A3" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" ht="45.0" customHeight="true">
+      <c r="A4" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" ht="45.0" customHeight="true">
+      <c r="A5" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" ht="45.0" customHeight="true">
+      <c r="A6" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" ht="45.0" customHeight="true">
+      <c r="A7" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3502,7 +3801,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3.0" ySplit="1.0" state="frozen" topLeftCell="D2" activePane="bottomRight"/>
@@ -3849,7 +4148,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -4711,7 +5010,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AB74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -10904,7 +11203,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AB109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -20000,7 +20299,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
@@ -20105,7 +20404,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -20879,7 +21178,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -25311,7 +25610,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
@@ -2137,7 +2137,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
-      <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
+      <pane xSplit="1.0" ySplit="4.0" state="frozen" topLeftCell="B5" activePane="bottomRight"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/108talks-18timeslots-10rooms.xlsx
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7716" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7716" uniqueCount="584">
   <si>
     <t>Conference name</t>
   </si>
@@ -934,9 +934,6 @@
   </si>
   <si>
     <t>en</t>
-  </si>
-  <si>
-    <t>Large, Recorded</t>
   </si>
   <si>
     <t>S001</t>
@@ -2803,7 +2800,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>108</v>
@@ -2967,7 +2964,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>108</v>
@@ -3026,13 +3023,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>93</v>
@@ -3088,7 +3085,7 @@
         <v>232</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>93</v>
@@ -3309,13 +3306,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>93</v>
@@ -3368,10 +3365,10 @@
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>93</v>
@@ -3533,7 +3530,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>108</v>
@@ -3592,10 +3589,10 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>93</v>
@@ -3651,13 +3648,13 @@
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>93</v>
@@ -3878,10 +3875,10 @@
         <v>234</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>93</v>
@@ -3969,39 +3966,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -4014,13 +4011,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6">
@@ -4028,13 +4025,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7">
@@ -4042,13 +4039,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8">
@@ -4056,13 +4053,13 @@
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="9">
@@ -4070,13 +4067,13 @@
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10">
@@ -4084,13 +4081,13 @@
         <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11">
@@ -4098,13 +4095,13 @@
         <v>37</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="12">
@@ -4112,13 +4109,13 @@
         <v>31</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="13">
@@ -4126,13 +4123,13 @@
         <v>35</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="14">
@@ -4140,13 +4137,13 @@
         <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15">
@@ -4154,13 +4151,13 @@
         <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="16">
@@ -4168,13 +4165,13 @@
         <v>40</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17">
@@ -4182,13 +4179,13 @@
         <v>34</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="18">
@@ -4196,13 +4193,13 @@
         <v>39</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="19">
@@ -4210,13 +4207,13 @@
         <v>33</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="20">
@@ -4224,13 +4221,13 @@
         <v>41</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21">
@@ -4238,13 +4235,13 @@
         <v>62</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="22">
@@ -4252,13 +4249,13 @@
         <v>78</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="23">
@@ -4266,13 +4263,13 @@
         <v>71</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="24">
@@ -4280,13 +4277,13 @@
         <v>80</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="25">
@@ -4294,13 +4291,13 @@
         <v>74</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="26">
@@ -4308,13 +4305,13 @@
         <v>82</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="27">
@@ -4322,13 +4319,13 @@
         <v>76</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="28">
@@ -4336,13 +4333,13 @@
         <v>83</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="29">
@@ -4350,13 +4347,13 @@
         <v>77</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="30">
@@ -4364,13 +4361,13 @@
         <v>60</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="31">
@@ -4378,13 +4375,13 @@
         <v>65</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="32">
@@ -4392,13 +4389,13 @@
         <v>69</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="33">
@@ -4406,13 +4403,13 @@
         <v>44</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="34">
@@ -4420,13 +4417,13 @@
         <v>67</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="35">
@@ -4434,13 +4431,13 @@
         <v>51</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="36">
@@ -4448,13 +4445,13 @@
         <v>47</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="37">
@@ -4462,13 +4459,13 @@
         <v>49</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="38">
@@ -4476,13 +4473,13 @@
         <v>58</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="39">
@@ -4490,13 +4487,13 @@
         <v>53</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="40">
@@ -4504,13 +4501,13 @@
         <v>56</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="41">
@@ -4518,13 +4515,13 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="42"/>
@@ -4534,13 +4531,13 @@
         <v>58</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="45">
@@ -4548,13 +4545,13 @@
         <v>53</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="46">
@@ -4562,13 +4559,13 @@
         <v>56</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="47">
@@ -4576,13 +4573,13 @@
         <v>24</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="48">
@@ -4590,13 +4587,13 @@
         <v>60</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="49">
@@ -4604,13 +4601,13 @@
         <v>62</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="50">
@@ -4618,13 +4615,13 @@
         <v>26</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="51">
@@ -4632,13 +4629,13 @@
         <v>65</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="52">
@@ -4646,13 +4643,13 @@
         <v>69</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="53">
@@ -4660,13 +4657,13 @@
         <v>44</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="54">
@@ -4674,13 +4671,13 @@
         <v>41</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="55">
@@ -4688,13 +4685,13 @@
         <v>10</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="56">
@@ -4702,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="57">
@@ -4716,13 +4713,13 @@
         <v>67</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="58">
@@ -4730,13 +4727,13 @@
         <v>51</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="59">
@@ -4744,13 +4741,13 @@
         <v>16</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="60">
@@ -4758,13 +4755,13 @@
         <v>78</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="61">
@@ -4772,13 +4769,13 @@
         <v>71</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="62">
@@ -4786,13 +4783,13 @@
         <v>37</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="63">
@@ -4800,13 +4797,13 @@
         <v>31</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="64">
@@ -4814,13 +4811,13 @@
         <v>35</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="65">
@@ -4828,13 +4825,13 @@
         <v>29</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="66">
@@ -4842,13 +4839,13 @@
         <v>13</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="67">
@@ -4856,13 +4853,13 @@
         <v>80</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="68">
@@ -4870,13 +4867,13 @@
         <v>74</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="69">
@@ -4884,13 +4881,13 @@
         <v>21</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="70">
@@ -4898,13 +4895,13 @@
         <v>82</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="71">
@@ -4912,13 +4909,13 @@
         <v>76</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="72">
@@ -4926,13 +4923,13 @@
         <v>19</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="73">
@@ -4940,13 +4937,13 @@
         <v>40</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="74">
@@ -4954,13 +4951,13 @@
         <v>34</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="75">
@@ -4968,13 +4965,13 @@
         <v>39</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="76">
@@ -4982,13 +4979,13 @@
         <v>33</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="77">
@@ -4996,13 +4993,13 @@
         <v>83</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="78">
@@ -5010,13 +5007,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="79">
@@ -5024,13 +5021,13 @@
         <v>47</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="80">
@@ -5038,13 +5035,13 @@
         <v>49</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -5091,7 +5088,7 @@
         <v>93</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="3" ht="45.0" customHeight="true">
@@ -5099,7 +5096,7 @@
         <v>109</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -12859,7 +12856,7 @@
         <v>93</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>235</v>
+        <v>93</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>93</v>
@@ -12909,31 +12906,31 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>234</v>
@@ -13004,31 +13001,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>234</v>
@@ -13049,7 +13046,7 @@
         <v>93</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>93</v>
@@ -13099,10 +13096,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>92</v>
@@ -13111,19 +13108,19 @@
         <v>142</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>234</v>
@@ -13144,7 +13141,7 @@
         <v>93</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>235</v>
+        <v>93</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>93</v>
@@ -13194,10 +13191,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>92</v>
@@ -13218,7 +13215,7 @@
         <v>3.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>234</v>
@@ -13289,10 +13286,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>92</v>
@@ -13301,7 +13298,7 @@
         <v>144</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>93</v>
@@ -13313,7 +13310,7 @@
         <v>2.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>234</v>
@@ -13334,7 +13331,7 @@
         <v>93</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>93</v>
@@ -13384,10 +13381,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>92</v>
@@ -13396,19 +13393,19 @@
         <v>145</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>234</v>
@@ -13441,7 +13438,7 @@
         <v>93</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="U8" s="2" t="n">
         <v>799.0</v>
@@ -13479,10 +13476,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>92</v>
@@ -13491,19 +13488,19 @@
         <v>146</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>234</v>
@@ -13524,7 +13521,7 @@
         <v>93</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>93</v>
@@ -13574,31 +13571,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="F10" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>234</v>
@@ -13669,10 +13666,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>92</v>
@@ -13693,7 +13690,7 @@
         <v>3.0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>234</v>
@@ -13764,31 +13761,31 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>234</v>
@@ -13809,7 +13806,7 @@
         <v>93</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>93</v>
@@ -13859,10 +13856,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>92</v>
@@ -13871,19 +13868,19 @@
         <v>152</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>234</v>
@@ -13954,10 +13951,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>95</v>
@@ -13972,13 +13969,13 @@
         <v>93</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>234</v>
@@ -13999,7 +13996,7 @@
         <v>93</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>93</v>
@@ -14049,31 +14046,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>290</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>234</v>
@@ -14144,10 +14141,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>95</v>
@@ -14156,19 +14153,19 @@
         <v>156</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>234</v>
@@ -14189,7 +14186,7 @@
         <v>93</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>93</v>
@@ -14239,19 +14236,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>93</v>
@@ -14263,7 +14260,7 @@
         <v>1.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>234</v>
@@ -14284,7 +14281,7 @@
         <v>93</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>93</v>
@@ -14334,10 +14331,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>95</v>
@@ -14346,7 +14343,7 @@
         <v>159</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>93</v>
@@ -14358,7 +14355,7 @@
         <v>1.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>234</v>
@@ -14429,10 +14426,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>95</v>
@@ -14441,7 +14438,7 @@
         <v>160</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>93</v>
@@ -14453,7 +14450,7 @@
         <v>2.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>234</v>
@@ -14474,7 +14471,7 @@
         <v>93</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>93</v>
@@ -14524,10 +14521,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>95</v>
@@ -14536,19 +14533,19 @@
         <v>161</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>234</v>
@@ -14619,19 +14616,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>93</v>
@@ -14643,7 +14640,7 @@
         <v>3.0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>234</v>
@@ -14664,7 +14661,7 @@
         <v>93</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>93</v>
@@ -14714,10 +14711,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>95</v>
@@ -14726,19 +14723,19 @@
         <v>164</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>234</v>
@@ -14809,10 +14806,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>95</v>
@@ -14821,19 +14818,19 @@
         <v>165</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>234</v>
@@ -14854,7 +14851,7 @@
         <v>93</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>93</v>
@@ -14904,31 +14901,31 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>234</v>
@@ -14961,7 +14958,7 @@
         <v>93</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U24" s="2" t="n">
         <v>617.0</v>
@@ -14999,31 +14996,31 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>325</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>234</v>
@@ -15044,7 +15041,7 @@
         <v>93</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>93</v>
@@ -15094,10 +15091,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>327</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>95</v>
@@ -15106,19 +15103,19 @@
         <v>170</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>234</v>
@@ -15139,7 +15136,7 @@
         <v>93</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>93</v>
@@ -15189,31 +15186,31 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>234</v>
@@ -15234,7 +15231,7 @@
         <v>93</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q27" s="2" t="s">
         <v>93</v>
@@ -15284,31 +15281,31 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>234</v>
@@ -15329,7 +15326,7 @@
         <v>93</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="Q28" s="2" t="s">
         <v>93</v>
@@ -15338,7 +15335,7 @@
         <v>93</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="T28" s="2" t="s">
         <v>93</v>
@@ -15379,31 +15376,31 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="G29" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>234</v>
@@ -15424,7 +15421,7 @@
         <v>93</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q29" s="2" t="s">
         <v>93</v>
@@ -15474,10 +15471,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>95</v>
@@ -15486,7 +15483,7 @@
         <v>177</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>93</v>
@@ -15498,7 +15495,7 @@
         <v>2.0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>234</v>
@@ -15519,7 +15516,7 @@
         <v>93</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>93</v>
@@ -15569,19 +15566,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>93</v>
@@ -15593,7 +15590,7 @@
         <v>3.0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>234</v>
@@ -15614,7 +15611,7 @@
         <v>93</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>93</v>
@@ -15664,31 +15661,31 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>234</v>
@@ -15709,7 +15706,7 @@
         <v>93</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>93</v>
@@ -15759,31 +15756,31 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>234</v>
@@ -15816,7 +15813,7 @@
         <v>93</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="U33" s="2" t="n">
         <v>894.0</v>
@@ -15854,10 +15851,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>95</v>
@@ -15866,7 +15863,7 @@
         <v>185</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>93</v>
@@ -15878,7 +15875,7 @@
         <v>2.0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>234</v>
@@ -15949,31 +15946,31 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>359</v>
-      </c>
       <c r="G35" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>234</v>
@@ -16044,10 +16041,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>361</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>95</v>
@@ -16056,7 +16053,7 @@
         <v>188</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>93</v>
@@ -16068,7 +16065,7 @@
         <v>1.0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>234</v>
@@ -16089,7 +16086,7 @@
         <v>93</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q36" s="2" t="s">
         <v>93</v>
@@ -16139,10 +16136,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>95</v>
@@ -16151,19 +16148,19 @@
         <v>189</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>234</v>
@@ -16193,7 +16190,7 @@
         <v>93</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="T37" s="2" t="s">
         <v>93</v>
@@ -16234,10 +16231,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>95</v>
@@ -16246,7 +16243,7 @@
         <v>190</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>93</v>
@@ -16258,7 +16255,7 @@
         <v>2.0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>234</v>
@@ -16329,16 +16326,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>231</v>
@@ -16353,7 +16350,7 @@
         <v>3.0</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>234</v>
@@ -16374,7 +16371,7 @@
         <v>93</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q39" s="2" t="s">
         <v>93</v>
@@ -16386,7 +16383,7 @@
         <v>93</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U39" s="2" t="n">
         <v>591.0</v>
@@ -16424,10 +16421,10 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>95</v>
@@ -16442,13 +16439,13 @@
         <v>93</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>234</v>
@@ -16519,10 +16516,10 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>95</v>
@@ -16531,10 +16528,10 @@
         <v>194</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>232</v>
@@ -16543,7 +16540,7 @@
         <v>2.0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>234</v>
@@ -16614,10 +16611,10 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>95</v>
@@ -16632,13 +16629,13 @@
         <v>93</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>234</v>
@@ -16659,7 +16656,7 @@
         <v>93</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>235</v>
+        <v>93</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>93</v>
@@ -16709,10 +16706,10 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>95</v>
@@ -16721,10 +16718,10 @@
         <v>196</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>232</v>
@@ -16733,7 +16730,7 @@
         <v>2.0</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>234</v>
@@ -16804,10 +16801,10 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>382</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>95</v>
@@ -16816,7 +16813,7 @@
         <v>197</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>93</v>
@@ -16828,7 +16825,7 @@
         <v>3.0</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>234</v>
@@ -16849,7 +16846,7 @@
         <v>93</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q44" s="2" t="s">
         <v>93</v>
@@ -16899,19 +16896,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>384</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>93</v>
@@ -16923,7 +16920,7 @@
         <v>3.0</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>234</v>
@@ -16994,19 +16991,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>93</v>
@@ -17018,7 +17015,7 @@
         <v>1.0</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>234</v>
@@ -17089,10 +17086,10 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>390</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>95</v>
@@ -17101,19 +17098,19 @@
         <v>202</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>234</v>
@@ -17184,10 +17181,10 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>393</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>95</v>
@@ -17196,19 +17193,19 @@
         <v>203</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>234</v>
@@ -17279,19 +17276,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>93</v>
@@ -17303,7 +17300,7 @@
         <v>2.0</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>234</v>
@@ -17324,7 +17321,7 @@
         <v>93</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="Q49" s="2" t="s">
         <v>93</v>
@@ -17374,10 +17371,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>95</v>
@@ -17386,19 +17383,19 @@
         <v>206</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>234</v>
@@ -17419,7 +17416,7 @@
         <v>93</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="Q50" s="2" t="s">
         <v>93</v>
@@ -17469,10 +17466,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>95</v>
@@ -17481,10 +17478,10 @@
         <v>230</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>232</v>
@@ -17493,7 +17490,7 @@
         <v>3.0</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>234</v>
@@ -17514,7 +17511,7 @@
         <v>93</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>235</v>
+        <v>93</v>
       </c>
       <c r="Q51" s="2" t="s">
         <v>93</v>
@@ -17526,7 +17523,7 @@
         <v>93</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U51" s="2" t="n">
         <v>307.0</v>
@@ -17564,10 +17561,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>95</v>
@@ -17576,7 +17573,7 @@
         <v>136</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>93</v>
@@ -17588,7 +17585,7 @@
         <v>3.0</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>234</v>
@@ -17659,19 +17656,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>93</v>
@@ -17683,7 +17680,7 @@
         <v>3.0</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>234</v>
@@ -17704,7 +17701,7 @@
         <v>93</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q53" s="2" t="s">
         <v>93</v>
@@ -17754,19 +17751,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>93</v>
@@ -17778,7 +17775,7 @@
         <v>1.0</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>234</v>
@@ -17849,10 +17846,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>95</v>
@@ -17861,19 +17858,19 @@
         <v>143</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>234</v>
@@ -17894,7 +17891,7 @@
         <v>93</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q55" s="2" t="s">
         <v>93</v>
@@ -17944,31 +17941,31 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>231</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>234</v>
@@ -17989,7 +17986,7 @@
         <v>93</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q56" s="2" t="s">
         <v>93</v>
@@ -18039,10 +18036,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>95</v>
@@ -18051,19 +18048,19 @@
         <v>147</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>234</v>
@@ -18084,7 +18081,7 @@
         <v>93</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="Q57" s="2" t="s">
         <v>93</v>
@@ -18134,22 +18131,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>232</v>
@@ -18158,7 +18155,7 @@
         <v>3.0</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>234</v>
@@ -18179,7 +18176,7 @@
         <v>93</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q58" s="2" t="s">
         <v>93</v>
@@ -18229,31 +18226,31 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>234</v>
@@ -18274,7 +18271,7 @@
         <v>93</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q59" s="2" t="s">
         <v>93</v>
@@ -18324,10 +18321,10 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>95</v>
@@ -18342,13 +18339,13 @@
         <v>93</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>234</v>
@@ -18369,7 +18366,7 @@
         <v>93</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q60" s="2" t="s">
         <v>93</v>
@@ -18378,7 +18375,7 @@
         <v>93</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="T60" s="2" t="s">
         <v>93</v>
@@ -18419,31 +18416,31 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>426</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>234</v>
@@ -18514,10 +18511,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>95</v>
@@ -18526,19 +18523,19 @@
         <v>156</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>234</v>
@@ -18559,7 +18556,7 @@
         <v>93</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>235</v>
+        <v>93</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>93</v>
@@ -18609,31 +18606,31 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E63" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>234</v>
@@ -18704,10 +18701,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>95</v>
@@ -18716,10 +18713,10 @@
         <v>159</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>232</v>
@@ -18728,7 +18725,7 @@
         <v>2.0</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>234</v>
@@ -18746,7 +18743,7 @@
         <v>93</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="P64" s="2" t="s">
         <v>93</v>
@@ -18755,7 +18752,7 @@
         <v>93</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="S64" s="2" t="s">
         <v>93</v>
@@ -18799,31 +18796,31 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>436</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>234</v>
@@ -18894,10 +18891,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>438</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>95</v>
@@ -18906,7 +18903,7 @@
         <v>162</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>93</v>
@@ -18918,7 +18915,7 @@
         <v>2.0</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>234</v>
@@ -18939,7 +18936,7 @@
         <v>93</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q66" s="2" t="s">
         <v>93</v>
@@ -18989,31 +18986,31 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H67" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>234</v>
@@ -19084,10 +19081,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>95</v>
@@ -19096,19 +19093,19 @@
         <v>165</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>234</v>
@@ -19179,31 +19176,31 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H69" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>234</v>
@@ -19224,7 +19221,7 @@
         <v>93</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q69" s="2" t="s">
         <v>93</v>
@@ -19274,10 +19271,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>95</v>
@@ -19286,10 +19283,10 @@
         <v>168</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>232</v>
@@ -19298,7 +19295,7 @@
         <v>3.0</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>234</v>
@@ -19319,7 +19316,7 @@
         <v>93</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q70" s="2" t="s">
         <v>93</v>
@@ -19369,10 +19366,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>95</v>
@@ -19381,7 +19378,7 @@
         <v>169</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>93</v>
@@ -19393,7 +19390,7 @@
         <v>2.0</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>234</v>
@@ -19414,7 +19411,7 @@
         <v>93</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q71" s="2" t="s">
         <v>93</v>
@@ -19464,10 +19461,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>451</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>95</v>
@@ -19476,19 +19473,19 @@
         <v>170</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>234</v>
@@ -19521,7 +19518,7 @@
         <v>93</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U72" s="2" t="n">
         <v>309.0</v>
@@ -19559,10 +19556,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>95</v>
@@ -19571,19 +19568,19 @@
         <v>171</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>234</v>
@@ -19604,13 +19601,13 @@
         <v>93</v>
       </c>
       <c r="P73" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R73" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="Q73" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="R73" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="S73" s="2" t="s">
         <v>93</v>
@@ -19654,16 +19651,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>456</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>231</v>
@@ -19678,7 +19675,7 @@
         <v>1.0</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>234</v>
@@ -19699,7 +19696,7 @@
         <v>93</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q74" s="2" t="s">
         <v>93</v>
@@ -19749,10 +19746,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>95</v>
@@ -19761,19 +19758,19 @@
         <v>174</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H75" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>234</v>
@@ -19844,31 +19841,31 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H76" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>234</v>
@@ -19939,16 +19936,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>464</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>231</v>
@@ -19957,13 +19954,13 @@
         <v>93</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H77" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>234</v>
@@ -19984,7 +19981,7 @@
         <v>93</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q77" s="2" t="s">
         <v>93</v>
@@ -20034,10 +20031,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>467</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>95</v>
@@ -20046,19 +20043,19 @@
         <v>179</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H78" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>234</v>
@@ -20079,7 +20076,7 @@
         <v>93</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q78" s="2" t="s">
         <v>93</v>
@@ -20129,22 +20126,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>471</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>232</v>
@@ -20174,7 +20171,7 @@
         <v>93</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="Q79" s="2" t="s">
         <v>93</v>
@@ -20224,10 +20221,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>473</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>95</v>
@@ -20236,19 +20233,19 @@
         <v>182</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H80" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>234</v>
@@ -20319,10 +20316,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>475</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>95</v>
@@ -20331,19 +20328,19 @@
         <v>183</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H81" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>234</v>
@@ -20414,19 +20411,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>93</v>
@@ -20438,7 +20435,7 @@
         <v>3.0</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>234</v>
@@ -20471,7 +20468,7 @@
         <v>93</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U82" s="2" t="n">
         <v>947.0</v>
@@ -20509,10 +20506,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>481</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>95</v>
@@ -20521,19 +20518,19 @@
         <v>186</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H83" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>234</v>
@@ -20554,7 +20551,7 @@
         <v>93</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q83" s="2" t="s">
         <v>93</v>
@@ -20604,10 +20601,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>95</v>
@@ -20616,7 +20613,7 @@
         <v>187</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>93</v>
@@ -20628,7 +20625,7 @@
         <v>3.0</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>234</v>
@@ -20699,10 +20696,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>95</v>
@@ -20711,19 +20708,19 @@
         <v>188</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H85" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>234</v>
@@ -20794,10 +20791,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>488</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>95</v>
@@ -20806,19 +20803,19 @@
         <v>189</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H86" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>234</v>
@@ -20839,7 +20836,7 @@
         <v>93</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q86" s="2" t="s">
         <v>93</v>
@@ -20889,10 +20886,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>490</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>95</v>
@@ -20901,7 +20898,7 @@
         <v>190</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>93</v>
@@ -20913,7 +20910,7 @@
         <v>3.0</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>234</v>
@@ -20934,7 +20931,7 @@
         <v>93</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q87" s="2" t="s">
         <v>93</v>
@@ -20984,10 +20981,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>492</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>95</v>
@@ -20996,19 +20993,19 @@
         <v>191</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H88" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>234</v>
@@ -21029,7 +21026,7 @@
         <v>93</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="Q88" s="2" t="s">
         <v>93</v>
@@ -21079,10 +21076,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>494</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>95</v>
@@ -21091,7 +21088,7 @@
         <v>192</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>93</v>
@@ -21103,7 +21100,7 @@
         <v>3.0</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>234</v>
@@ -21124,7 +21121,7 @@
         <v>93</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q89" s="2" t="s">
         <v>93</v>
@@ -21174,31 +21171,31 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>497</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H90" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>234</v>
@@ -21269,31 +21266,31 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>500</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>502</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H91" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>234</v>
@@ -21314,7 +21311,7 @@
         <v>93</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q91" s="2" t="s">
         <v>93</v>
@@ -21364,10 +21361,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>95</v>
@@ -21376,19 +21373,19 @@
         <v>197</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H92" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>234</v>
@@ -21459,19 +21456,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>506</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>93</v>
@@ -21483,7 +21480,7 @@
         <v>2.0</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>234</v>
@@ -21554,31 +21551,31 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H94" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>234</v>
@@ -21649,10 +21646,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>510</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>95</v>
@@ -21661,19 +21658,19 @@
         <v>202</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H95" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>234</v>
@@ -21744,31 +21741,31 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H96" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>234</v>
@@ -21789,7 +21786,7 @@
         <v>93</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q96" s="2" t="s">
         <v>93</v>
@@ -21839,31 +21836,31 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>516</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H97" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>234</v>
@@ -21884,7 +21881,7 @@
         <v>93</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>235</v>
+        <v>93</v>
       </c>
       <c r="Q97" s="2" t="s">
         <v>93</v>
@@ -21934,10 +21931,10 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>519</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>95</v>
@@ -21946,19 +21943,19 @@
         <v>134</v>
       </c>
       <c r="E98" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="H98" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>234</v>
@@ -21979,7 +21976,7 @@
         <v>93</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q98" s="2" t="s">
         <v>93</v>
@@ -21991,7 +21988,7 @@
         <v>93</v>
       </c>
       <c r="T98" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="U98" s="2" t="n">
         <v>947.0</v>
@@ -22029,10 +22026,10 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>521</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>95</v>
@@ -22041,19 +22038,19 @@
         <v>135</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H99" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>234</v>
@@ -22074,7 +22071,7 @@
         <v>93</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q99" s="2" t="s">
         <v>93</v>
@@ -22124,10 +22121,10 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>522</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>523</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>95</v>
@@ -22136,19 +22133,19 @@
         <v>136</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H100" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>234</v>
@@ -22219,10 +22216,10 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>95</v>
@@ -22231,19 +22228,19 @@
         <v>137</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H101" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>234</v>
@@ -22314,10 +22311,10 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>527</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>95</v>
@@ -22326,19 +22323,19 @@
         <v>138</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H102" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>234</v>
@@ -22409,10 +22406,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>528</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>529</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>95</v>
@@ -22421,7 +22418,7 @@
         <v>139</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>93</v>
@@ -22433,7 +22430,7 @@
         <v>1.0</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>234</v>
@@ -22454,7 +22451,7 @@
         <v>93</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q103" s="2" t="s">
         <v>93</v>
@@ -22504,19 +22501,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>530</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>531</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>93</v>
@@ -22528,7 +22525,7 @@
         <v>1.0</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>234</v>
@@ -22599,10 +22596,10 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>534</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>95</v>
@@ -22611,19 +22608,19 @@
         <v>143</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H105" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>234</v>
@@ -22644,7 +22641,7 @@
         <v>93</v>
       </c>
       <c r="P105" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q105" s="2" t="s">
         <v>93</v>
@@ -22694,19 +22691,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>536</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>93</v>
@@ -22718,7 +22715,7 @@
         <v>3.0</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>234</v>
@@ -22739,7 +22736,7 @@
         <v>93</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q106" s="2" t="s">
         <v>93</v>
@@ -22789,19 +22786,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>539</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>93</v>
@@ -22813,7 +22810,7 @@
         <v>2.0</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>234</v>
@@ -22834,7 +22831,7 @@
         <v>93</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>235</v>
+        <v>93</v>
       </c>
       <c r="Q107" s="2" t="s">
         <v>93</v>
@@ -22884,10 +22881,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>542</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>95</v>
@@ -22896,19 +22893,19 @@
         <v>148</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H108" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>234</v>
@@ -22979,10 +22976,10 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>544</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>95</v>
@@ -22991,19 +22988,19 @@
         <v>149</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H109" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>234</v>
@@ -23024,7 +23021,7 @@
         <v>93</v>
       </c>
       <c r="P109" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q109" s="2" t="s">
         <v>93</v>
@@ -23101,10 +23098,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="2"/>
@@ -23113,16 +23110,16 @@
         <v>209</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="4">
@@ -23162,7 +23159,7 @@
     <row r="6"/>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>108.0</v>
@@ -23363,7 +23360,7 @@
         <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>93</v>
@@ -23596,7 +23593,7 @@
         <v>120</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -24069,7 +24066,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>108</v>
@@ -24606,7 +24603,7 @@
         <v>93</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>93</v>
@@ -24957,7 +24954,7 @@
         <v>149</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -28479,7 +28476,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>108</v>
@@ -28541,7 +28538,7 @@
         <v>231</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>93</v>
@@ -28597,13 +28594,13 @@
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>93</v>
